--- a/src/crypto_report.xlsx
+++ b/src/crypto_report.xlsx
@@ -17,9 +17,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -59,12 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -139,6 +139,36 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="9525000" cy="5715000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -556,7 +586,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -612,7 +642,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>44853</v>
       </c>
       <c r="B2" t="n">
@@ -640,7 +670,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>44854</v>
       </c>
       <c r="B3" t="n">
@@ -668,7 +698,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>44855</v>
       </c>
       <c r="B4" t="n">
@@ -696,7 +726,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>44856</v>
       </c>
       <c r="B5" t="n">
@@ -724,7 +754,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>44857</v>
       </c>
       <c r="B6" t="n">
@@ -752,7 +782,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>44858</v>
       </c>
       <c r="B7" t="n">
@@ -780,7 +810,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>44859</v>
       </c>
       <c r="B8" t="n">
@@ -808,7 +838,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>44860</v>
       </c>
       <c r="B9" t="n">
@@ -836,7 +866,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>44861</v>
       </c>
       <c r="B10" t="n">
@@ -864,7 +894,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="3" t="n">
         <v>44862</v>
       </c>
       <c r="B11" t="n">
@@ -892,7 +922,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="3" t="n">
         <v>44863</v>
       </c>
       <c r="B12" t="n">
@@ -920,7 +950,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>44864</v>
       </c>
       <c r="B13" t="n">
@@ -948,7 +978,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
+      <c r="A14" s="3" t="n">
         <v>44865</v>
       </c>
       <c r="B14" t="n">
@@ -976,7 +1006,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="3" t="n">
         <v>44866</v>
       </c>
       <c r="B15" t="n">
@@ -1004,7 +1034,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="3" t="n">
         <v>44867</v>
       </c>
       <c r="B16" t="n">
@@ -1032,7 +1062,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
+      <c r="A17" s="3" t="n">
         <v>44868</v>
       </c>
       <c r="B17" t="n">
@@ -1060,7 +1090,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
+      <c r="A18" s="3" t="n">
         <v>44869</v>
       </c>
       <c r="B18" t="n">
@@ -1088,7 +1118,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
+      <c r="A19" s="3" t="n">
         <v>44870</v>
       </c>
       <c r="B19" t="n">
@@ -1116,7 +1146,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
+      <c r="A20" s="3" t="n">
         <v>44871</v>
       </c>
       <c r="B20" t="n">
@@ -1144,7 +1174,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
+      <c r="A21" s="3" t="n">
         <v>44872</v>
       </c>
       <c r="B21" t="n">
@@ -1172,7 +1202,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
+      <c r="A22" s="3" t="n">
         <v>44873</v>
       </c>
       <c r="B22" t="n">
@@ -1200,7 +1230,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
+      <c r="A23" s="3" t="n">
         <v>44874</v>
       </c>
       <c r="B23" t="n">
@@ -1228,7 +1258,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
+      <c r="A24" s="3" t="n">
         <v>44875</v>
       </c>
       <c r="B24" t="n">
@@ -1256,7 +1286,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n">
+      <c r="A25" s="3" t="n">
         <v>44876</v>
       </c>
       <c r="B25" t="n">
@@ -1284,7 +1314,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
+      <c r="A26" s="3" t="n">
         <v>44877</v>
       </c>
       <c r="B26" t="n">
@@ -1312,7 +1342,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n">
+      <c r="A27" s="3" t="n">
         <v>44878</v>
       </c>
       <c r="B27" t="n">
@@ -1340,7 +1370,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n">
+      <c r="A28" s="3" t="n">
         <v>44879</v>
       </c>
       <c r="B28" t="n">
@@ -1368,7 +1398,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n">
+      <c r="A29" s="3" t="n">
         <v>44880</v>
       </c>
       <c r="B29" t="n">
@@ -1396,7 +1426,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n">
+      <c r="A30" s="3" t="n">
         <v>44881</v>
       </c>
       <c r="B30" t="n">
@@ -1424,7 +1454,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n">
+      <c r="A31" s="3" t="n">
         <v>44882</v>
       </c>
       <c r="B31" t="n">
@@ -1452,7 +1482,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n">
+      <c r="A32" s="3" t="n">
         <v>44883</v>
       </c>
       <c r="B32" t="n">
@@ -1480,7 +1510,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n">
+      <c r="A33" s="3" t="n">
         <v>44884</v>
       </c>
       <c r="B33" t="n">
@@ -1508,7 +1538,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n">
+      <c r="A34" s="3" t="n">
         <v>44885</v>
       </c>
       <c r="B34" t="n">
@@ -1536,7 +1566,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n">
+      <c r="A35" s="3" t="n">
         <v>44886</v>
       </c>
       <c r="B35" t="n">
@@ -1564,7 +1594,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n">
+      <c r="A36" s="3" t="n">
         <v>44887</v>
       </c>
       <c r="B36" t="n">
@@ -1592,7 +1622,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="n">
+      <c r="A37" s="3" t="n">
         <v>44888</v>
       </c>
       <c r="B37" t="n">
@@ -1620,7 +1650,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n">
+      <c r="A38" s="3" t="n">
         <v>44889</v>
       </c>
       <c r="B38" t="n">
@@ -1648,7 +1678,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n">
+      <c r="A39" s="3" t="n">
         <v>44890</v>
       </c>
       <c r="B39" t="n">
@@ -1676,7 +1706,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="n">
+      <c r="A40" s="3" t="n">
         <v>44891</v>
       </c>
       <c r="B40" t="n">
@@ -1704,7 +1734,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n">
+      <c r="A41" s="3" t="n">
         <v>44892</v>
       </c>
       <c r="B41" t="n">
@@ -1732,7 +1762,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n">
+      <c r="A42" s="3" t="n">
         <v>44893</v>
       </c>
       <c r="B42" t="n">
@@ -1760,7 +1790,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n">
+      <c r="A43" s="3" t="n">
         <v>44894</v>
       </c>
       <c r="B43" t="n">
@@ -1788,7 +1818,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n">
+      <c r="A44" s="3" t="n">
         <v>44895</v>
       </c>
       <c r="B44" t="n">
@@ -1816,7 +1846,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n">
+      <c r="A45" s="3" t="n">
         <v>44896</v>
       </c>
       <c r="B45" t="n">
@@ -1844,7 +1874,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n">
+      <c r="A46" s="3" t="n">
         <v>44897</v>
       </c>
       <c r="B46" t="n">
@@ -1872,7 +1902,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="n">
+      <c r="A47" s="3" t="n">
         <v>44898</v>
       </c>
       <c r="B47" t="n">
@@ -1900,7 +1930,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
+      <c r="A48" s="3" t="n">
         <v>44899</v>
       </c>
       <c r="B48" t="n">
@@ -1928,7 +1958,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
+      <c r="A49" s="3" t="n">
         <v>44900</v>
       </c>
       <c r="B49" t="n">
@@ -1956,7 +1986,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
+      <c r="A50" s="3" t="n">
         <v>44901</v>
       </c>
       <c r="B50" t="n">
@@ -1984,7 +2014,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
+      <c r="A51" s="3" t="n">
         <v>44902</v>
       </c>
       <c r="B51" t="n">
@@ -2012,7 +2042,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n">
+      <c r="A52" s="3" t="n">
         <v>44903</v>
       </c>
       <c r="B52" t="n">
@@ -2040,7 +2070,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="n">
+      <c r="A53" s="3" t="n">
         <v>44904</v>
       </c>
       <c r="B53" t="n">
@@ -2068,7 +2098,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n">
+      <c r="A54" s="3" t="n">
         <v>44905</v>
       </c>
       <c r="B54" t="n">
@@ -2096,7 +2126,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="n">
+      <c r="A55" s="3" t="n">
         <v>44906</v>
       </c>
       <c r="B55" t="n">
@@ -2124,7 +2154,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n">
+      <c r="A56" s="3" t="n">
         <v>44907</v>
       </c>
       <c r="B56" t="n">
@@ -2152,7 +2182,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="n">
+      <c r="A57" s="3" t="n">
         <v>44908</v>
       </c>
       <c r="B57" t="n">
@@ -2180,7 +2210,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="n">
+      <c r="A58" s="3" t="n">
         <v>44909</v>
       </c>
       <c r="B58" t="n">
@@ -2208,7 +2238,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="n">
+      <c r="A59" s="3" t="n">
         <v>44910</v>
       </c>
       <c r="B59" t="n">
@@ -2236,7 +2266,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="n">
+      <c r="A60" s="3" t="n">
         <v>44911</v>
       </c>
       <c r="B60" t="n">
@@ -2264,7 +2294,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="n">
+      <c r="A61" s="3" t="n">
         <v>44912</v>
       </c>
       <c r="B61" t="n">
@@ -2292,7 +2322,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="n">
+      <c r="A62" s="3" t="n">
         <v>44913</v>
       </c>
       <c r="B62" t="n">
@@ -2320,7 +2350,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="n">
+      <c r="A63" s="3" t="n">
         <v>44914</v>
       </c>
       <c r="B63" t="n">
@@ -2348,7 +2378,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="n">
+      <c r="A64" s="3" t="n">
         <v>44915</v>
       </c>
       <c r="B64" t="n">
@@ -2376,7 +2406,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="n">
+      <c r="A65" s="3" t="n">
         <v>44916</v>
       </c>
       <c r="B65" t="n">
@@ -2404,7 +2434,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="n">
+      <c r="A66" s="3" t="n">
         <v>44917</v>
       </c>
       <c r="B66" t="n">
@@ -2432,7 +2462,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="n">
+      <c r="A67" s="3" t="n">
         <v>44918</v>
       </c>
       <c r="B67" t="n">
@@ -2460,7 +2490,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="n">
+      <c r="A68" s="3" t="n">
         <v>44919</v>
       </c>
       <c r="B68" t="n">
@@ -2488,7 +2518,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="n">
+      <c r="A69" s="3" t="n">
         <v>44920</v>
       </c>
       <c r="B69" t="n">
@@ -2516,7 +2546,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="n">
+      <c r="A70" s="3" t="n">
         <v>44921</v>
       </c>
       <c r="B70" t="n">
@@ -2544,7 +2574,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="n">
+      <c r="A71" s="3" t="n">
         <v>44922</v>
       </c>
       <c r="B71" t="n">
@@ -2572,7 +2602,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="n">
+      <c r="A72" s="3" t="n">
         <v>44923</v>
       </c>
       <c r="B72" t="n">
@@ -2600,7 +2630,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="2" t="n">
+      <c r="A73" s="3" t="n">
         <v>44924</v>
       </c>
       <c r="B73" t="n">
@@ -2628,7 +2658,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="n">
+      <c r="A74" s="3" t="n">
         <v>44925</v>
       </c>
       <c r="B74" t="n">
@@ -2656,7 +2686,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="n">
+      <c r="A75" s="3" t="n">
         <v>44926</v>
       </c>
       <c r="B75" t="n">
@@ -2684,7 +2714,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="n">
+      <c r="A76" s="3" t="n">
         <v>44927</v>
       </c>
       <c r="B76" t="n">
@@ -2712,7 +2742,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="n">
+      <c r="A77" s="3" t="n">
         <v>44928</v>
       </c>
       <c r="B77" t="n">
@@ -2740,7 +2770,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n">
+      <c r="A78" s="3" t="n">
         <v>44929</v>
       </c>
       <c r="B78" t="n">
@@ -2768,7 +2798,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="n">
+      <c r="A79" s="3" t="n">
         <v>44930</v>
       </c>
       <c r="B79" t="n">
@@ -2796,7 +2826,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="n">
+      <c r="A80" s="3" t="n">
         <v>44931</v>
       </c>
       <c r="B80" t="n">
@@ -2824,7 +2854,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="n">
+      <c r="A81" s="3" t="n">
         <v>44932</v>
       </c>
       <c r="B81" t="n">
@@ -2852,7 +2882,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="n">
+      <c r="A82" s="3" t="n">
         <v>44933</v>
       </c>
       <c r="B82" t="n">
@@ -2880,7 +2910,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="n">
+      <c r="A83" s="3" t="n">
         <v>44934</v>
       </c>
       <c r="B83" t="n">
@@ -2908,7 +2938,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="n">
+      <c r="A84" s="3" t="n">
         <v>44935</v>
       </c>
       <c r="B84" t="n">
@@ -2936,7 +2966,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="2" t="n">
+      <c r="A85" s="3" t="n">
         <v>44936</v>
       </c>
       <c r="B85" t="n">
@@ -2964,7 +2994,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="2" t="n">
+      <c r="A86" s="3" t="n">
         <v>44937</v>
       </c>
       <c r="B86" t="n">
@@ -2992,7 +3022,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="2" t="n">
+      <c r="A87" s="3" t="n">
         <v>44938</v>
       </c>
       <c r="B87" t="n">
@@ -3020,7 +3050,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="n">
+      <c r="A88" s="3" t="n">
         <v>44939</v>
       </c>
       <c r="B88" t="n">
@@ -3048,7 +3078,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="n">
+      <c r="A89" s="3" t="n">
         <v>44940</v>
       </c>
       <c r="B89" t="n">
@@ -3076,7 +3106,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="n">
+      <c r="A90" s="3" t="n">
         <v>44941</v>
       </c>
       <c r="B90" t="n">
@@ -3104,7 +3134,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="2" t="n">
+      <c r="A91" s="3" t="n">
         <v>44942</v>
       </c>
       <c r="B91" t="n">
@@ -3132,7 +3162,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="n">
+      <c r="A92" s="3" t="n">
         <v>44943</v>
       </c>
       <c r="B92" t="n">
@@ -3160,7 +3190,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="2" t="n">
+      <c r="A93" s="3" t="n">
         <v>44944</v>
       </c>
       <c r="B93" t="n">
@@ -3188,7 +3218,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="n">
+      <c r="A94" s="3" t="n">
         <v>44945</v>
       </c>
       <c r="B94" t="n">
@@ -3216,7 +3246,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="n">
+      <c r="A95" s="3" t="n">
         <v>44946</v>
       </c>
       <c r="B95" t="n">
@@ -3244,7 +3274,7 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="n">
+      <c r="A96" s="3" t="n">
         <v>44947</v>
       </c>
       <c r="B96" t="n">
@@ -3272,7 +3302,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="2" t="n">
+      <c r="A97" s="3" t="n">
         <v>44948</v>
       </c>
       <c r="B97" t="n">
@@ -3300,7 +3330,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="2" t="n">
+      <c r="A98" s="3" t="n">
         <v>44949</v>
       </c>
       <c r="B98" t="n">
@@ -3328,7 +3358,7 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="2" t="n">
+      <c r="A99" s="3" t="n">
         <v>44950</v>
       </c>
       <c r="B99" t="n">
@@ -3356,7 +3386,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="2" t="n">
+      <c r="A100" s="3" t="n">
         <v>44951</v>
       </c>
       <c r="B100" t="n">
@@ -3384,7 +3414,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="2" t="n">
+      <c r="A101" s="3" t="n">
         <v>44952</v>
       </c>
       <c r="B101" t="n">
@@ -3412,7 +3442,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="2" t="n">
+      <c r="A102" s="3" t="n">
         <v>44953</v>
       </c>
       <c r="B102" t="n">
@@ -3440,7 +3470,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="2" t="n">
+      <c r="A103" s="3" t="n">
         <v>44954</v>
       </c>
       <c r="B103" t="n">
@@ -3468,7 +3498,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="2" t="n">
+      <c r="A104" s="3" t="n">
         <v>44955</v>
       </c>
       <c r="B104" t="n">
@@ -3496,7 +3526,7 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="2" t="n">
+      <c r="A105" s="3" t="n">
         <v>44956</v>
       </c>
       <c r="B105" t="n">
@@ -3524,7 +3554,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="2" t="n">
+      <c r="A106" s="3" t="n">
         <v>44957</v>
       </c>
       <c r="B106" t="n">
@@ -3552,7 +3582,7 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="2" t="n">
+      <c r="A107" s="3" t="n">
         <v>44958</v>
       </c>
       <c r="B107" t="n">
@@ -3580,7 +3610,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="2" t="n">
+      <c r="A108" s="3" t="n">
         <v>44959</v>
       </c>
       <c r="B108" t="n">
@@ -3608,7 +3638,7 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="2" t="n">
+      <c r="A109" s="3" t="n">
         <v>44960</v>
       </c>
       <c r="B109" t="n">
@@ -3636,7 +3666,7 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="2" t="n">
+      <c r="A110" s="3" t="n">
         <v>44961</v>
       </c>
       <c r="B110" t="n">
@@ -3664,7 +3694,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="2" t="n">
+      <c r="A111" s="3" t="n">
         <v>44962</v>
       </c>
       <c r="B111" t="n">
@@ -3692,7 +3722,7 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="2" t="n">
+      <c r="A112" s="3" t="n">
         <v>44963</v>
       </c>
       <c r="B112" t="n">
@@ -3720,7 +3750,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="2" t="n">
+      <c r="A113" s="3" t="n">
         <v>44964</v>
       </c>
       <c r="B113" t="n">
@@ -3748,7 +3778,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="2" t="n">
+      <c r="A114" s="3" t="n">
         <v>44965</v>
       </c>
       <c r="B114" t="n">
@@ -3776,7 +3806,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="2" t="n">
+      <c r="A115" s="3" t="n">
         <v>44966</v>
       </c>
       <c r="B115" t="n">
@@ -3804,7 +3834,7 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="2" t="n">
+      <c r="A116" s="3" t="n">
         <v>44967</v>
       </c>
       <c r="B116" t="n">
@@ -3832,7 +3862,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="2" t="n">
+      <c r="A117" s="3" t="n">
         <v>44968</v>
       </c>
       <c r="B117" t="n">
@@ -3860,7 +3890,7 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="2" t="n">
+      <c r="A118" s="3" t="n">
         <v>44969</v>
       </c>
       <c r="B118" t="n">
@@ -3888,7 +3918,7 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="2" t="n">
+      <c r="A119" s="3" t="n">
         <v>44970</v>
       </c>
       <c r="B119" t="n">
@@ -3916,7 +3946,7 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="2" t="n">
+      <c r="A120" s="3" t="n">
         <v>44971</v>
       </c>
       <c r="B120" t="n">
@@ -3944,7 +3974,7 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="2" t="n">
+      <c r="A121" s="3" t="n">
         <v>44972</v>
       </c>
       <c r="B121" t="n">
@@ -3972,7 +4002,7 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="2" t="n">
+      <c r="A122" s="3" t="n">
         <v>44973</v>
       </c>
       <c r="B122" t="n">
@@ -4000,7 +4030,7 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="2" t="n">
+      <c r="A123" s="3" t="n">
         <v>44974</v>
       </c>
       <c r="B123" t="n">
@@ -4028,7 +4058,7 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="2" t="n">
+      <c r="A124" s="3" t="n">
         <v>44975</v>
       </c>
       <c r="B124" t="n">
@@ -4056,7 +4086,7 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="2" t="n">
+      <c r="A125" s="3" t="n">
         <v>44976</v>
       </c>
       <c r="B125" t="n">
@@ -4084,7 +4114,7 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="2" t="n">
+      <c r="A126" s="3" t="n">
         <v>44977</v>
       </c>
       <c r="B126" t="n">
@@ -4112,7 +4142,7 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="2" t="n">
+      <c r="A127" s="3" t="n">
         <v>44978</v>
       </c>
       <c r="B127" t="n">
@@ -4140,7 +4170,7 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="2" t="n">
+      <c r="A128" s="3" t="n">
         <v>44979</v>
       </c>
       <c r="B128" t="n">
@@ -4168,7 +4198,7 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="2" t="n">
+      <c r="A129" s="3" t="n">
         <v>44980</v>
       </c>
       <c r="B129" t="n">
@@ -4196,7 +4226,7 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="2" t="n">
+      <c r="A130" s="3" t="n">
         <v>44981</v>
       </c>
       <c r="B130" t="n">
@@ -4224,7 +4254,7 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="2" t="n">
+      <c r="A131" s="3" t="n">
         <v>44982</v>
       </c>
       <c r="B131" t="n">
@@ -4252,7 +4282,7 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="2" t="n">
+      <c r="A132" s="3" t="n">
         <v>44983</v>
       </c>
       <c r="B132" t="n">
@@ -4280,7 +4310,7 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="2" t="n">
+      <c r="A133" s="3" t="n">
         <v>44984</v>
       </c>
       <c r="B133" t="n">
@@ -4308,7 +4338,7 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="2" t="n">
+      <c r="A134" s="3" t="n">
         <v>44985</v>
       </c>
       <c r="B134" t="n">
@@ -4336,7 +4366,7 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="2" t="n">
+      <c r="A135" s="3" t="n">
         <v>44986</v>
       </c>
       <c r="B135" t="n">
@@ -4364,7 +4394,7 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="2" t="n">
+      <c r="A136" s="3" t="n">
         <v>44987</v>
       </c>
       <c r="B136" t="n">
@@ -4392,7 +4422,7 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="2" t="n">
+      <c r="A137" s="3" t="n">
         <v>44988</v>
       </c>
       <c r="B137" t="n">
@@ -4420,7 +4450,7 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="2" t="n">
+      <c r="A138" s="3" t="n">
         <v>44989</v>
       </c>
       <c r="B138" t="n">
@@ -4448,7 +4478,7 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="2" t="n">
+      <c r="A139" s="3" t="n">
         <v>44990</v>
       </c>
       <c r="B139" t="n">
@@ -4476,7 +4506,7 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="2" t="n">
+      <c r="A140" s="3" t="n">
         <v>44991</v>
       </c>
       <c r="B140" t="n">
@@ -4504,7 +4534,7 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="2" t="n">
+      <c r="A141" s="3" t="n">
         <v>44992</v>
       </c>
       <c r="B141" t="n">
@@ -4532,7 +4562,7 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="2" t="n">
+      <c r="A142" s="3" t="n">
         <v>44993</v>
       </c>
       <c r="B142" t="n">
@@ -4560,7 +4590,7 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="2" t="n">
+      <c r="A143" s="3" t="n">
         <v>44994</v>
       </c>
       <c r="B143" t="n">
@@ -4588,7 +4618,7 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="2" t="n">
+      <c r="A144" s="3" t="n">
         <v>44995</v>
       </c>
       <c r="B144" t="n">
@@ -4616,7 +4646,7 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="2" t="n">
+      <c r="A145" s="3" t="n">
         <v>44996</v>
       </c>
       <c r="B145" t="n">
@@ -4644,7 +4674,7 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="2" t="n">
+      <c r="A146" s="3" t="n">
         <v>44997</v>
       </c>
       <c r="B146" t="n">
@@ -4672,7 +4702,7 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="2" t="n">
+      <c r="A147" s="3" t="n">
         <v>44998</v>
       </c>
       <c r="B147" t="n">
@@ -4700,7 +4730,7 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="2" t="n">
+      <c r="A148" s="3" t="n">
         <v>44999</v>
       </c>
       <c r="B148" t="n">
@@ -4728,7 +4758,7 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="2" t="n">
+      <c r="A149" s="3" t="n">
         <v>45000</v>
       </c>
       <c r="B149" t="n">
@@ -4756,7 +4786,7 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="2" t="n">
+      <c r="A150" s="3" t="n">
         <v>45001</v>
       </c>
       <c r="B150" t="n">
@@ -4784,7 +4814,7 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="2" t="n">
+      <c r="A151" s="3" t="n">
         <v>45002</v>
       </c>
       <c r="B151" t="n">
@@ -4812,7 +4842,7 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="2" t="n">
+      <c r="A152" s="3" t="n">
         <v>45003</v>
       </c>
       <c r="B152" t="n">
@@ -4840,7 +4870,7 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="2" t="n">
+      <c r="A153" s="3" t="n">
         <v>45004</v>
       </c>
       <c r="B153" t="n">
@@ -4868,7 +4898,7 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="2" t="n">
+      <c r="A154" s="3" t="n">
         <v>45005</v>
       </c>
       <c r="B154" t="n">
@@ -4896,7 +4926,7 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="2" t="n">
+      <c r="A155" s="3" t="n">
         <v>45006</v>
       </c>
       <c r="B155" t="n">
@@ -4924,7 +4954,7 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="2" t="n">
+      <c r="A156" s="3" t="n">
         <v>45007</v>
       </c>
       <c r="B156" t="n">
@@ -4952,7 +4982,7 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="2" t="n">
+      <c r="A157" s="3" t="n">
         <v>45008</v>
       </c>
       <c r="B157" t="n">
@@ -4980,7 +5010,7 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="2" t="n">
+      <c r="A158" s="3" t="n">
         <v>45009</v>
       </c>
       <c r="B158" t="n">
@@ -5008,7 +5038,7 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="2" t="n">
+      <c r="A159" s="3" t="n">
         <v>45010</v>
       </c>
       <c r="B159" t="n">
@@ -5036,7 +5066,7 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="2" t="n">
+      <c r="A160" s="3" t="n">
         <v>45011</v>
       </c>
       <c r="B160" t="n">
@@ -5064,7 +5094,7 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="2" t="n">
+      <c r="A161" s="3" t="n">
         <v>45012</v>
       </c>
       <c r="B161" t="n">
@@ -5092,7 +5122,7 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="2" t="n">
+      <c r="A162" s="3" t="n">
         <v>45013</v>
       </c>
       <c r="B162" t="n">
@@ -5120,7 +5150,7 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="2" t="n">
+      <c r="A163" s="3" t="n">
         <v>45014</v>
       </c>
       <c r="B163" t="n">
@@ -5148,7 +5178,7 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="2" t="n">
+      <c r="A164" s="3" t="n">
         <v>45015</v>
       </c>
       <c r="B164" t="n">
@@ -5176,7 +5206,7 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="2" t="n">
+      <c r="A165" s="3" t="n">
         <v>45016</v>
       </c>
       <c r="B165" t="n">
@@ -5204,7 +5234,7 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="2" t="n">
+      <c r="A166" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="B166" t="n">
@@ -5232,7 +5262,7 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="2" t="n">
+      <c r="A167" s="3" t="n">
         <v>45018</v>
       </c>
       <c r="B167" t="n">
@@ -5260,7 +5290,7 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="2" t="n">
+      <c r="A168" s="3" t="n">
         <v>45019</v>
       </c>
       <c r="B168" t="n">
@@ -5288,7 +5318,7 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="2" t="n">
+      <c r="A169" s="3" t="n">
         <v>45020</v>
       </c>
       <c r="B169" t="n">
@@ -5316,7 +5346,7 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="2" t="n">
+      <c r="A170" s="3" t="n">
         <v>45021</v>
       </c>
       <c r="B170" t="n">
@@ -5344,7 +5374,7 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="2" t="n">
+      <c r="A171" s="3" t="n">
         <v>45022</v>
       </c>
       <c r="B171" t="n">
@@ -5372,7 +5402,7 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="2" t="n">
+      <c r="A172" s="3" t="n">
         <v>45023</v>
       </c>
       <c r="B172" t="n">
@@ -5400,7 +5430,7 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="2" t="n">
+      <c r="A173" s="3" t="n">
         <v>45024</v>
       </c>
       <c r="B173" t="n">
@@ -5428,7 +5458,7 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="2" t="n">
+      <c r="A174" s="3" t="n">
         <v>45025</v>
       </c>
       <c r="B174" t="n">
@@ -5456,7 +5486,7 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="2" t="n">
+      <c r="A175" s="3" t="n">
         <v>45026</v>
       </c>
       <c r="B175" t="n">
@@ -5484,7 +5514,7 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="2" t="n">
+      <c r="A176" s="3" t="n">
         <v>45027</v>
       </c>
       <c r="B176" t="n">
@@ -5512,7 +5542,7 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="2" t="n">
+      <c r="A177" s="3" t="n">
         <v>45028</v>
       </c>
       <c r="B177" t="n">
@@ -5540,7 +5570,7 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="2" t="n">
+      <c r="A178" s="3" t="n">
         <v>45029</v>
       </c>
       <c r="B178" t="n">
@@ -5568,7 +5598,7 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="2" t="n">
+      <c r="A179" s="3" t="n">
         <v>45030</v>
       </c>
       <c r="B179" t="n">
@@ -5596,7 +5626,7 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="2" t="n">
+      <c r="A180" s="3" t="n">
         <v>45031</v>
       </c>
       <c r="B180" t="n">
@@ -5624,7 +5654,7 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="2" t="n">
+      <c r="A181" s="3" t="n">
         <v>45032</v>
       </c>
       <c r="B181" t="n">
@@ -5652,7 +5682,7 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="2" t="n">
+      <c r="A182" s="3" t="n">
         <v>45033</v>
       </c>
       <c r="B182" t="n">
@@ -5680,7 +5710,7 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="2" t="n">
+      <c r="A183" s="3" t="n">
         <v>45034</v>
       </c>
       <c r="B183" t="n">
@@ -5708,7 +5738,7 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="2" t="n">
+      <c r="A184" s="3" t="n">
         <v>45035</v>
       </c>
       <c r="B184" t="n">
@@ -5736,7 +5766,7 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="2" t="n">
+      <c r="A185" s="3" t="n">
         <v>45036</v>
       </c>
       <c r="B185" t="n">
@@ -5764,7 +5794,7 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="2" t="n">
+      <c r="A186" s="3" t="n">
         <v>45037</v>
       </c>
       <c r="B186" t="n">
@@ -5792,7 +5822,7 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="2" t="n">
+      <c r="A187" s="3" t="n">
         <v>45038</v>
       </c>
       <c r="B187" t="n">
@@ -5820,7 +5850,7 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="2" t="n">
+      <c r="A188" s="3" t="n">
         <v>45039</v>
       </c>
       <c r="B188" t="n">
@@ -5848,7 +5878,7 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="2" t="n">
+      <c r="A189" s="3" t="n">
         <v>45040</v>
       </c>
       <c r="B189" t="n">
@@ -5876,7 +5906,7 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="2" t="n">
+      <c r="A190" s="3" t="n">
         <v>45041</v>
       </c>
       <c r="B190" t="n">
@@ -5904,7 +5934,7 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="2" t="n">
+      <c r="A191" s="3" t="n">
         <v>45042</v>
       </c>
       <c r="B191" t="n">
@@ -5932,7 +5962,7 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="2" t="n">
+      <c r="A192" s="3" t="n">
         <v>45043</v>
       </c>
       <c r="B192" t="n">
@@ -5960,7 +5990,7 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="2" t="n">
+      <c r="A193" s="3" t="n">
         <v>45044</v>
       </c>
       <c r="B193" t="n">
@@ -5988,7 +6018,7 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="2" t="n">
+      <c r="A194" s="3" t="n">
         <v>45045</v>
       </c>
       <c r="B194" t="n">
@@ -6016,7 +6046,7 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="2" t="n">
+      <c r="A195" s="3" t="n">
         <v>45046</v>
       </c>
       <c r="B195" t="n">
@@ -6044,7 +6074,7 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="2" t="n">
+      <c r="A196" s="3" t="n">
         <v>45047</v>
       </c>
       <c r="B196" t="n">
@@ -6072,7 +6102,7 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="2" t="n">
+      <c r="A197" s="3" t="n">
         <v>45048</v>
       </c>
       <c r="B197" t="n">
@@ -6100,7 +6130,7 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="2" t="n">
+      <c r="A198" s="3" t="n">
         <v>45049</v>
       </c>
       <c r="B198" t="n">
@@ -6128,7 +6158,7 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="2" t="n">
+      <c r="A199" s="3" t="n">
         <v>45050</v>
       </c>
       <c r="B199" t="n">
@@ -6156,7 +6186,7 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="2" t="n">
+      <c r="A200" s="3" t="n">
         <v>45051</v>
       </c>
       <c r="B200" t="n">
@@ -6184,7 +6214,7 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="2" t="n">
+      <c r="A201" s="3" t="n">
         <v>45052</v>
       </c>
       <c r="B201" t="n">
@@ -6212,7 +6242,7 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="2" t="n">
+      <c r="A202" s="3" t="n">
         <v>45053</v>
       </c>
       <c r="B202" t="n">
@@ -6240,7 +6270,7 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="2" t="n">
+      <c r="A203" s="3" t="n">
         <v>45054</v>
       </c>
       <c r="B203" t="n">
@@ -6268,7 +6298,7 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="2" t="n">
+      <c r="A204" s="3" t="n">
         <v>45055</v>
       </c>
       <c r="B204" t="n">
@@ -6296,7 +6326,7 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="2" t="n">
+      <c r="A205" s="3" t="n">
         <v>45056</v>
       </c>
       <c r="B205" t="n">
@@ -6324,7 +6354,7 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="2" t="n">
+      <c r="A206" s="3" t="n">
         <v>45057</v>
       </c>
       <c r="B206" t="n">
@@ -6352,7 +6382,7 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="2" t="n">
+      <c r="A207" s="3" t="n">
         <v>45058</v>
       </c>
       <c r="B207" t="n">
@@ -6380,7 +6410,7 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="2" t="n">
+      <c r="A208" s="3" t="n">
         <v>45059</v>
       </c>
       <c r="B208" t="n">
@@ -6408,7 +6438,7 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="2" t="n">
+      <c r="A209" s="3" t="n">
         <v>45060</v>
       </c>
       <c r="B209" t="n">
@@ -6436,7 +6466,7 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="2" t="n">
+      <c r="A210" s="3" t="n">
         <v>45061</v>
       </c>
       <c r="B210" t="n">
@@ -6464,7 +6494,7 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="2" t="n">
+      <c r="A211" s="3" t="n">
         <v>45062</v>
       </c>
       <c r="B211" t="n">
@@ -6492,7 +6522,7 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="2" t="n">
+      <c r="A212" s="3" t="n">
         <v>45063</v>
       </c>
       <c r="B212" t="n">
@@ -6520,7 +6550,7 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="2" t="n">
+      <c r="A213" s="3" t="n">
         <v>45064</v>
       </c>
       <c r="B213" t="n">
@@ -6548,7 +6578,7 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="2" t="n">
+      <c r="A214" s="3" t="n">
         <v>45065</v>
       </c>
       <c r="B214" t="n">
@@ -6576,7 +6606,7 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="2" t="n">
+      <c r="A215" s="3" t="n">
         <v>45066</v>
       </c>
       <c r="B215" t="n">
@@ -6604,7 +6634,7 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="2" t="n">
+      <c r="A216" s="3" t="n">
         <v>45067</v>
       </c>
       <c r="B216" t="n">
@@ -6632,7 +6662,7 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="2" t="n">
+      <c r="A217" s="3" t="n">
         <v>45068</v>
       </c>
       <c r="B217" t="n">
@@ -6660,7 +6690,7 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="2" t="n">
+      <c r="A218" s="3" t="n">
         <v>45069</v>
       </c>
       <c r="B218" t="n">
@@ -6688,7 +6718,7 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="2" t="n">
+      <c r="A219" s="3" t="n">
         <v>45070</v>
       </c>
       <c r="B219" t="n">
@@ -6716,7 +6746,7 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="2" t="n">
+      <c r="A220" s="3" t="n">
         <v>45071</v>
       </c>
       <c r="B220" t="n">
@@ -6744,7 +6774,7 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="2" t="n">
+      <c r="A221" s="3" t="n">
         <v>45072</v>
       </c>
       <c r="B221" t="n">
@@ -6772,7 +6802,7 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="2" t="n">
+      <c r="A222" s="3" t="n">
         <v>45073</v>
       </c>
       <c r="B222" t="n">
@@ -6800,7 +6830,7 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="2" t="n">
+      <c r="A223" s="3" t="n">
         <v>45074</v>
       </c>
       <c r="B223" t="n">
@@ -6828,7 +6858,7 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="2" t="n">
+      <c r="A224" s="3" t="n">
         <v>45075</v>
       </c>
       <c r="B224" t="n">
@@ -6856,7 +6886,7 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="2" t="n">
+      <c r="A225" s="3" t="n">
         <v>45076</v>
       </c>
       <c r="B225" t="n">
@@ -6884,7 +6914,7 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="2" t="n">
+      <c r="A226" s="3" t="n">
         <v>45077</v>
       </c>
       <c r="B226" t="n">
@@ -6912,7 +6942,7 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="2" t="n">
+      <c r="A227" s="3" t="n">
         <v>45078</v>
       </c>
       <c r="B227" t="n">
@@ -6940,7 +6970,7 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="2" t="n">
+      <c r="A228" s="3" t="n">
         <v>45079</v>
       </c>
       <c r="B228" t="n">
@@ -6968,7 +6998,7 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="2" t="n">
+      <c r="A229" s="3" t="n">
         <v>45080</v>
       </c>
       <c r="B229" t="n">
@@ -6996,7 +7026,7 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="2" t="n">
+      <c r="A230" s="3" t="n">
         <v>45081</v>
       </c>
       <c r="B230" t="n">
@@ -7024,7 +7054,7 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="2" t="n">
+      <c r="A231" s="3" t="n">
         <v>45082</v>
       </c>
       <c r="B231" t="n">
@@ -7052,7 +7082,7 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="2" t="n">
+      <c r="A232" s="3" t="n">
         <v>45083</v>
       </c>
       <c r="B232" t="n">
@@ -7080,7 +7110,7 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="2" t="n">
+      <c r="A233" s="3" t="n">
         <v>45084</v>
       </c>
       <c r="B233" t="n">
@@ -7108,7 +7138,7 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="2" t="n">
+      <c r="A234" s="3" t="n">
         <v>45085</v>
       </c>
       <c r="B234" t="n">
@@ -7136,7 +7166,7 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="2" t="n">
+      <c r="A235" s="3" t="n">
         <v>45086</v>
       </c>
       <c r="B235" t="n">
@@ -7164,7 +7194,7 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="2" t="n">
+      <c r="A236" s="3" t="n">
         <v>45087</v>
       </c>
       <c r="B236" t="n">
@@ -7192,7 +7222,7 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="2" t="n">
+      <c r="A237" s="3" t="n">
         <v>45088</v>
       </c>
       <c r="B237" t="n">
@@ -7220,7 +7250,7 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="2" t="n">
+      <c r="A238" s="3" t="n">
         <v>45089</v>
       </c>
       <c r="B238" t="n">
@@ -7248,7 +7278,7 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="2" t="n">
+      <c r="A239" s="3" t="n">
         <v>45090</v>
       </c>
       <c r="B239" t="n">
@@ -7276,7 +7306,7 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="2" t="n">
+      <c r="A240" s="3" t="n">
         <v>45091</v>
       </c>
       <c r="B240" t="n">
@@ -7304,7 +7334,7 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="2" t="n">
+      <c r="A241" s="3" t="n">
         <v>45092</v>
       </c>
       <c r="B241" t="n">
@@ -7332,7 +7362,7 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="2" t="n">
+      <c r="A242" s="3" t="n">
         <v>45093</v>
       </c>
       <c r="B242" t="n">
@@ -7360,7 +7390,7 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="2" t="n">
+      <c r="A243" s="3" t="n">
         <v>45094</v>
       </c>
       <c r="B243" t="n">
@@ -7388,7 +7418,7 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="2" t="n">
+      <c r="A244" s="3" t="n">
         <v>45095</v>
       </c>
       <c r="B244" t="n">
@@ -7416,7 +7446,7 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="2" t="n">
+      <c r="A245" s="3" t="n">
         <v>45096</v>
       </c>
       <c r="B245" t="n">
@@ -7444,7 +7474,7 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="2" t="n">
+      <c r="A246" s="3" t="n">
         <v>45097</v>
       </c>
       <c r="B246" t="n">
@@ -7472,7 +7502,7 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="2" t="n">
+      <c r="A247" s="3" t="n">
         <v>45098</v>
       </c>
       <c r="B247" t="n">
@@ -7500,7 +7530,7 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="2" t="n">
+      <c r="A248" s="3" t="n">
         <v>45099</v>
       </c>
       <c r="B248" t="n">
@@ -7528,7 +7558,7 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="2" t="n">
+      <c r="A249" s="3" t="n">
         <v>45100</v>
       </c>
       <c r="B249" t="n">
@@ -7556,7 +7586,7 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="2" t="n">
+      <c r="A250" s="3" t="n">
         <v>45101</v>
       </c>
       <c r="B250" t="n">
@@ -7584,7 +7614,7 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="2" t="n">
+      <c r="A251" s="3" t="n">
         <v>45102</v>
       </c>
       <c r="B251" t="n">
@@ -7612,7 +7642,7 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="2" t="n">
+      <c r="A252" s="3" t="n">
         <v>45103</v>
       </c>
       <c r="B252" t="n">
@@ -7640,7 +7670,7 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="2" t="n">
+      <c r="A253" s="3" t="n">
         <v>45104</v>
       </c>
       <c r="B253" t="n">
@@ -7668,7 +7698,7 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="2" t="n">
+      <c r="A254" s="3" t="n">
         <v>45105</v>
       </c>
       <c r="B254" t="n">
@@ -7696,7 +7726,7 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="2" t="n">
+      <c r="A255" s="3" t="n">
         <v>45106</v>
       </c>
       <c r="B255" t="n">
@@ -7724,7 +7754,7 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="2" t="n">
+      <c r="A256" s="3" t="n">
         <v>45107</v>
       </c>
       <c r="B256" t="n">
@@ -7752,7 +7782,7 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="2" t="n">
+      <c r="A257" s="3" t="n">
         <v>45108</v>
       </c>
       <c r="B257" t="n">
@@ -7780,7 +7810,7 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="2" t="n">
+      <c r="A258" s="3" t="n">
         <v>45109</v>
       </c>
       <c r="B258" t="n">
@@ -7808,7 +7838,7 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="2" t="n">
+      <c r="A259" s="3" t="n">
         <v>45110</v>
       </c>
       <c r="B259" t="n">
@@ -7836,7 +7866,7 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="2" t="n">
+      <c r="A260" s="3" t="n">
         <v>45111</v>
       </c>
       <c r="B260" t="n">
@@ -7864,7 +7894,7 @@
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="2" t="n">
+      <c r="A261" s="3" t="n">
         <v>45112</v>
       </c>
       <c r="B261" t="n">
@@ -7892,7 +7922,7 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="2" t="n">
+      <c r="A262" s="3" t="n">
         <v>45113</v>
       </c>
       <c r="B262" t="n">
@@ -7920,7 +7950,7 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="2" t="n">
+      <c r="A263" s="3" t="n">
         <v>45114</v>
       </c>
       <c r="B263" t="n">
@@ -7948,7 +7978,7 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="2" t="n">
+      <c r="A264" s="3" t="n">
         <v>45115</v>
       </c>
       <c r="B264" t="n">
@@ -7976,7 +8006,7 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="2" t="n">
+      <c r="A265" s="3" t="n">
         <v>45116</v>
       </c>
       <c r="B265" t="n">
@@ -8004,7 +8034,7 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="2" t="n">
+      <c r="A266" s="3" t="n">
         <v>45117</v>
       </c>
       <c r="B266" t="n">
@@ -8032,7 +8062,7 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="2" t="n">
+      <c r="A267" s="3" t="n">
         <v>45118</v>
       </c>
       <c r="B267" t="n">
@@ -8060,7 +8090,7 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="2" t="n">
+      <c r="A268" s="3" t="n">
         <v>45119</v>
       </c>
       <c r="B268" t="n">
@@ -8088,7 +8118,7 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="2" t="n">
+      <c r="A269" s="3" t="n">
         <v>45120</v>
       </c>
       <c r="B269" t="n">
@@ -8116,7 +8146,7 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="2" t="n">
+      <c r="A270" s="3" t="n">
         <v>45121</v>
       </c>
       <c r="B270" t="n">
@@ -8144,7 +8174,7 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="2" t="n">
+      <c r="A271" s="3" t="n">
         <v>45122</v>
       </c>
       <c r="B271" t="n">
@@ -8172,7 +8202,7 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" s="2" t="n">
+      <c r="A272" s="3" t="n">
         <v>45123</v>
       </c>
       <c r="B272" t="n">
@@ -8200,7 +8230,7 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" s="2" t="n">
+      <c r="A273" s="3" t="n">
         <v>45124</v>
       </c>
       <c r="B273" t="n">
@@ -8228,7 +8258,7 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" s="2" t="n">
+      <c r="A274" s="3" t="n">
         <v>45125</v>
       </c>
       <c r="B274" t="n">
@@ -8256,7 +8286,7 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="2" t="n">
+      <c r="A275" s="3" t="n">
         <v>45126</v>
       </c>
       <c r="B275" t="n">
@@ -8284,7 +8314,7 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="2" t="n">
+      <c r="A276" s="3" t="n">
         <v>45127</v>
       </c>
       <c r="B276" t="n">
@@ -8312,7 +8342,7 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" s="2" t="n">
+      <c r="A277" s="3" t="n">
         <v>45128</v>
       </c>
       <c r="B277" t="n">
@@ -8340,7 +8370,7 @@
       </c>
     </row>
     <row r="278">
-      <c r="A278" s="2" t="n">
+      <c r="A278" s="3" t="n">
         <v>45129</v>
       </c>
       <c r="B278" t="n">
@@ -8368,7 +8398,7 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" s="2" t="n">
+      <c r="A279" s="3" t="n">
         <v>45130</v>
       </c>
       <c r="B279" t="n">
@@ -8396,7 +8426,7 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" s="2" t="n">
+      <c r="A280" s="3" t="n">
         <v>45131</v>
       </c>
       <c r="B280" t="n">
@@ -8424,7 +8454,7 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" s="2" t="n">
+      <c r="A281" s="3" t="n">
         <v>45132</v>
       </c>
       <c r="B281" t="n">
@@ -8452,7 +8482,7 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" s="2" t="n">
+      <c r="A282" s="3" t="n">
         <v>45133</v>
       </c>
       <c r="B282" t="n">
@@ -8480,7 +8510,7 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" s="2" t="n">
+      <c r="A283" s="3" t="n">
         <v>45134</v>
       </c>
       <c r="B283" t="n">
@@ -8508,7 +8538,7 @@
       </c>
     </row>
     <row r="284">
-      <c r="A284" s="2" t="n">
+      <c r="A284" s="3" t="n">
         <v>45135</v>
       </c>
       <c r="B284" t="n">
@@ -8536,7 +8566,7 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="2" t="n">
+      <c r="A285" s="3" t="n">
         <v>45136</v>
       </c>
       <c r="B285" t="n">
@@ -8564,7 +8594,7 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" s="2" t="n">
+      <c r="A286" s="3" t="n">
         <v>45137</v>
       </c>
       <c r="B286" t="n">
@@ -8592,7 +8622,7 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" s="2" t="n">
+      <c r="A287" s="3" t="n">
         <v>45138</v>
       </c>
       <c r="B287" t="n">
@@ -8620,7 +8650,7 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" s="2" t="n">
+      <c r="A288" s="3" t="n">
         <v>45139</v>
       </c>
       <c r="B288" t="n">
@@ -8648,7 +8678,7 @@
       </c>
     </row>
     <row r="289">
-      <c r="A289" s="2" t="n">
+      <c r="A289" s="3" t="n">
         <v>45140</v>
       </c>
       <c r="B289" t="n">
@@ -8676,7 +8706,7 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" s="2" t="n">
+      <c r="A290" s="3" t="n">
         <v>45141</v>
       </c>
       <c r="B290" t="n">
@@ -8704,7 +8734,7 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" s="2" t="n">
+      <c r="A291" s="3" t="n">
         <v>45142</v>
       </c>
       <c r="B291" t="n">
@@ -8732,7 +8762,7 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" s="2" t="n">
+      <c r="A292" s="3" t="n">
         <v>45143</v>
       </c>
       <c r="B292" t="n">
@@ -8760,7 +8790,7 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" s="2" t="n">
+      <c r="A293" s="3" t="n">
         <v>45144</v>
       </c>
       <c r="B293" t="n">
@@ -8788,7 +8818,7 @@
       </c>
     </row>
     <row r="294">
-      <c r="A294" s="2" t="n">
+      <c r="A294" s="3" t="n">
         <v>45145</v>
       </c>
       <c r="B294" t="n">
@@ -8816,7 +8846,7 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" s="2" t="n">
+      <c r="A295" s="3" t="n">
         <v>45146</v>
       </c>
       <c r="B295" t="n">
@@ -8844,7 +8874,7 @@
       </c>
     </row>
     <row r="296">
-      <c r="A296" s="2" t="n">
+      <c r="A296" s="3" t="n">
         <v>45147</v>
       </c>
       <c r="B296" t="n">
@@ -8872,7 +8902,7 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" s="2" t="n">
+      <c r="A297" s="3" t="n">
         <v>45148</v>
       </c>
       <c r="B297" t="n">
@@ -8900,7 +8930,7 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" s="2" t="n">
+      <c r="A298" s="3" t="n">
         <v>45149</v>
       </c>
       <c r="B298" t="n">
@@ -8928,7 +8958,7 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" s="2" t="n">
+      <c r="A299" s="3" t="n">
         <v>45150</v>
       </c>
       <c r="B299" t="n">
@@ -8956,7 +8986,7 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" s="2" t="n">
+      <c r="A300" s="3" t="n">
         <v>45151</v>
       </c>
       <c r="B300" t="n">
@@ -8984,7 +9014,7 @@
       </c>
     </row>
     <row r="301">
-      <c r="A301" s="2" t="n">
+      <c r="A301" s="3" t="n">
         <v>45152</v>
       </c>
       <c r="B301" t="n">
@@ -9012,7 +9042,7 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" s="2" t="n">
+      <c r="A302" s="3" t="n">
         <v>45153</v>
       </c>
       <c r="B302" t="n">
@@ -9040,7 +9070,7 @@
       </c>
     </row>
     <row r="303">
-      <c r="A303" s="2" t="n">
+      <c r="A303" s="3" t="n">
         <v>45154</v>
       </c>
       <c r="B303" t="n">
@@ -9068,7 +9098,7 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" s="2" t="n">
+      <c r="A304" s="3" t="n">
         <v>45155</v>
       </c>
       <c r="B304" t="n">
@@ -9096,7 +9126,7 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" s="2" t="n">
+      <c r="A305" s="3" t="n">
         <v>45156</v>
       </c>
       <c r="B305" t="n">
@@ -9124,7 +9154,7 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" s="2" t="n">
+      <c r="A306" s="3" t="n">
         <v>45157</v>
       </c>
       <c r="B306" t="n">
@@ -9152,7 +9182,7 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" s="2" t="n">
+      <c r="A307" s="3" t="n">
         <v>45158</v>
       </c>
       <c r="B307" t="n">
@@ -9180,7 +9210,7 @@
       </c>
     </row>
     <row r="308">
-      <c r="A308" s="2" t="n">
+      <c r="A308" s="3" t="n">
         <v>45159</v>
       </c>
       <c r="B308" t="n">
@@ -9208,7 +9238,7 @@
       </c>
     </row>
     <row r="309">
-      <c r="A309" s="2" t="n">
+      <c r="A309" s="3" t="n">
         <v>45160</v>
       </c>
       <c r="B309" t="n">
@@ -9236,7 +9266,7 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" s="2" t="n">
+      <c r="A310" s="3" t="n">
         <v>45161</v>
       </c>
       <c r="B310" t="n">
@@ -9264,7 +9294,7 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" s="2" t="n">
+      <c r="A311" s="3" t="n">
         <v>45162</v>
       </c>
       <c r="B311" t="n">
@@ -9292,7 +9322,7 @@
       </c>
     </row>
     <row r="312">
-      <c r="A312" s="2" t="n">
+      <c r="A312" s="3" t="n">
         <v>45163</v>
       </c>
       <c r="B312" t="n">
@@ -9320,7 +9350,7 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" s="2" t="n">
+      <c r="A313" s="3" t="n">
         <v>45164</v>
       </c>
       <c r="B313" t="n">
@@ -9348,7 +9378,7 @@
       </c>
     </row>
     <row r="314">
-      <c r="A314" s="2" t="n">
+      <c r="A314" s="3" t="n">
         <v>45165</v>
       </c>
       <c r="B314" t="n">
@@ -9376,7 +9406,7 @@
       </c>
     </row>
     <row r="315">
-      <c r="A315" s="2" t="n">
+      <c r="A315" s="3" t="n">
         <v>45166</v>
       </c>
       <c r="B315" t="n">
@@ -9404,7 +9434,7 @@
       </c>
     </row>
     <row r="316">
-      <c r="A316" s="2" t="n">
+      <c r="A316" s="3" t="n">
         <v>45167</v>
       </c>
       <c r="B316" t="n">
@@ -9432,7 +9462,7 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" s="2" t="n">
+      <c r="A317" s="3" t="n">
         <v>45168</v>
       </c>
       <c r="B317" t="n">
@@ -9460,7 +9490,7 @@
       </c>
     </row>
     <row r="318">
-      <c r="A318" s="2" t="n">
+      <c r="A318" s="3" t="n">
         <v>45169</v>
       </c>
       <c r="B318" t="n">
@@ -9488,7 +9518,7 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" s="2" t="n">
+      <c r="A319" s="3" t="n">
         <v>45170</v>
       </c>
       <c r="B319" t="n">
@@ -9516,7 +9546,7 @@
       </c>
     </row>
     <row r="320">
-      <c r="A320" s="2" t="n">
+      <c r="A320" s="3" t="n">
         <v>45171</v>
       </c>
       <c r="B320" t="n">
@@ -9544,7 +9574,7 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" s="2" t="n">
+      <c r="A321" s="3" t="n">
         <v>45172</v>
       </c>
       <c r="B321" t="n">
@@ -9572,7 +9602,7 @@
       </c>
     </row>
     <row r="322">
-      <c r="A322" s="2" t="n">
+      <c r="A322" s="3" t="n">
         <v>45173</v>
       </c>
       <c r="B322" t="n">
@@ -9600,7 +9630,7 @@
       </c>
     </row>
     <row r="323">
-      <c r="A323" s="2" t="n">
+      <c r="A323" s="3" t="n">
         <v>45174</v>
       </c>
       <c r="B323" t="n">
@@ -9628,7 +9658,7 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" s="2" t="n">
+      <c r="A324" s="3" t="n">
         <v>45175</v>
       </c>
       <c r="B324" t="n">
@@ -9656,7 +9686,7 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" s="2" t="n">
+      <c r="A325" s="3" t="n">
         <v>45176</v>
       </c>
       <c r="B325" t="n">
@@ -9684,7 +9714,7 @@
       </c>
     </row>
     <row r="326">
-      <c r="A326" s="2" t="n">
+      <c r="A326" s="3" t="n">
         <v>45177</v>
       </c>
       <c r="B326" t="n">
@@ -9712,7 +9742,7 @@
       </c>
     </row>
     <row r="327">
-      <c r="A327" s="2" t="n">
+      <c r="A327" s="3" t="n">
         <v>45178</v>
       </c>
       <c r="B327" t="n">
@@ -9740,7 +9770,7 @@
       </c>
     </row>
     <row r="328">
-      <c r="A328" s="2" t="n">
+      <c r="A328" s="3" t="n">
         <v>45179</v>
       </c>
       <c r="B328" t="n">
@@ -9768,7 +9798,7 @@
       </c>
     </row>
     <row r="329">
-      <c r="A329" s="2" t="n">
+      <c r="A329" s="3" t="n">
         <v>45180</v>
       </c>
       <c r="B329" t="n">
@@ -9796,7 +9826,7 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" s="2" t="n">
+      <c r="A330" s="3" t="n">
         <v>45181</v>
       </c>
       <c r="B330" t="n">
@@ -9824,7 +9854,7 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" s="2" t="n">
+      <c r="A331" s="3" t="n">
         <v>45182</v>
       </c>
       <c r="B331" t="n">
@@ -9852,7 +9882,7 @@
       </c>
     </row>
     <row r="332">
-      <c r="A332" s="2" t="n">
+      <c r="A332" s="3" t="n">
         <v>45183</v>
       </c>
       <c r="B332" t="n">
@@ -9880,7 +9910,7 @@
       </c>
     </row>
     <row r="333">
-      <c r="A333" s="2" t="n">
+      <c r="A333" s="3" t="n">
         <v>45184</v>
       </c>
       <c r="B333" t="n">
@@ -9908,7 +9938,7 @@
       </c>
     </row>
     <row r="334">
-      <c r="A334" s="2" t="n">
+      <c r="A334" s="3" t="n">
         <v>45185</v>
       </c>
       <c r="B334" t="n">
@@ -9936,7 +9966,7 @@
       </c>
     </row>
     <row r="335">
-      <c r="A335" s="2" t="n">
+      <c r="A335" s="3" t="n">
         <v>45186</v>
       </c>
       <c r="B335" t="n">
@@ -9964,7 +9994,7 @@
       </c>
     </row>
     <row r="336">
-      <c r="A336" s="2" t="n">
+      <c r="A336" s="3" t="n">
         <v>45187</v>
       </c>
       <c r="B336" t="n">
@@ -9992,7 +10022,7 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" s="2" t="n">
+      <c r="A337" s="3" t="n">
         <v>45188</v>
       </c>
       <c r="B337" t="n">
@@ -10020,7 +10050,7 @@
       </c>
     </row>
     <row r="338">
-      <c r="A338" s="2" t="n">
+      <c r="A338" s="3" t="n">
         <v>45189</v>
       </c>
       <c r="B338" t="n">
@@ -10048,7 +10078,7 @@
       </c>
     </row>
     <row r="339">
-      <c r="A339" s="2" t="n">
+      <c r="A339" s="3" t="n">
         <v>45190</v>
       </c>
       <c r="B339" t="n">
@@ -10076,7 +10106,7 @@
       </c>
     </row>
     <row r="340">
-      <c r="A340" s="2" t="n">
+      <c r="A340" s="3" t="n">
         <v>45191</v>
       </c>
       <c r="B340" t="n">
@@ -10104,7 +10134,7 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" s="2" t="n">
+      <c r="A341" s="3" t="n">
         <v>45192</v>
       </c>
       <c r="B341" t="n">
@@ -10132,7 +10162,7 @@
       </c>
     </row>
     <row r="342">
-      <c r="A342" s="2" t="n">
+      <c r="A342" s="3" t="n">
         <v>45193</v>
       </c>
       <c r="B342" t="n">
@@ -10160,7 +10190,7 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" s="2" t="n">
+      <c r="A343" s="3" t="n">
         <v>45194</v>
       </c>
       <c r="B343" t="n">
@@ -10188,7 +10218,7 @@
       </c>
     </row>
     <row r="344">
-      <c r="A344" s="2" t="n">
+      <c r="A344" s="3" t="n">
         <v>45195</v>
       </c>
       <c r="B344" t="n">
@@ -10216,7 +10246,7 @@
       </c>
     </row>
     <row r="345">
-      <c r="A345" s="2" t="n">
+      <c r="A345" s="3" t="n">
         <v>45196</v>
       </c>
       <c r="B345" t="n">
@@ -10244,7 +10274,7 @@
       </c>
     </row>
     <row r="346">
-      <c r="A346" s="2" t="n">
+      <c r="A346" s="3" t="n">
         <v>45197</v>
       </c>
       <c r="B346" t="n">
@@ -10272,7 +10302,7 @@
       </c>
     </row>
     <row r="347">
-      <c r="A347" s="2" t="n">
+      <c r="A347" s="3" t="n">
         <v>45198</v>
       </c>
       <c r="B347" t="n">
@@ -10300,7 +10330,7 @@
       </c>
     </row>
     <row r="348">
-      <c r="A348" s="2" t="n">
+      <c r="A348" s="3" t="n">
         <v>45199</v>
       </c>
       <c r="B348" t="n">
@@ -10328,7 +10358,7 @@
       </c>
     </row>
     <row r="349">
-      <c r="A349" s="2" t="n">
+      <c r="A349" s="3" t="n">
         <v>45200</v>
       </c>
       <c r="B349" t="n">
@@ -10356,7 +10386,7 @@
       </c>
     </row>
     <row r="350">
-      <c r="A350" s="2" t="n">
+      <c r="A350" s="3" t="n">
         <v>45201</v>
       </c>
       <c r="B350" t="n">
@@ -10384,7 +10414,7 @@
       </c>
     </row>
     <row r="351">
-      <c r="A351" s="2" t="n">
+      <c r="A351" s="3" t="n">
         <v>45202</v>
       </c>
       <c r="B351" t="n">
@@ -10412,7 +10442,7 @@
       </c>
     </row>
     <row r="352">
-      <c r="A352" s="2" t="n">
+      <c r="A352" s="3" t="n">
         <v>45203</v>
       </c>
       <c r="B352" t="n">
@@ -10440,7 +10470,7 @@
       </c>
     </row>
     <row r="353">
-      <c r="A353" s="2" t="n">
+      <c r="A353" s="3" t="n">
         <v>45204</v>
       </c>
       <c r="B353" t="n">
@@ -10468,7 +10498,7 @@
       </c>
     </row>
     <row r="354">
-      <c r="A354" s="2" t="n">
+      <c r="A354" s="3" t="n">
         <v>45205</v>
       </c>
       <c r="B354" t="n">
@@ -10496,7 +10526,7 @@
       </c>
     </row>
     <row r="355">
-      <c r="A355" s="2" t="n">
+      <c r="A355" s="3" t="n">
         <v>45206</v>
       </c>
       <c r="B355" t="n">
@@ -10524,7 +10554,7 @@
       </c>
     </row>
     <row r="356">
-      <c r="A356" s="2" t="n">
+      <c r="A356" s="3" t="n">
         <v>45207</v>
       </c>
       <c r="B356" t="n">
@@ -10552,7 +10582,7 @@
       </c>
     </row>
     <row r="357">
-      <c r="A357" s="2" t="n">
+      <c r="A357" s="3" t="n">
         <v>45208</v>
       </c>
       <c r="B357" t="n">
@@ -10580,7 +10610,7 @@
       </c>
     </row>
     <row r="358">
-      <c r="A358" s="2" t="n">
+      <c r="A358" s="3" t="n">
         <v>45209</v>
       </c>
       <c r="B358" t="n">
@@ -10608,7 +10638,7 @@
       </c>
     </row>
     <row r="359">
-      <c r="A359" s="2" t="n">
+      <c r="A359" s="3" t="n">
         <v>45210</v>
       </c>
       <c r="B359" t="n">
@@ -10636,7 +10666,7 @@
       </c>
     </row>
     <row r="360">
-      <c r="A360" s="2" t="n">
+      <c r="A360" s="3" t="n">
         <v>45211</v>
       </c>
       <c r="B360" t="n">
@@ -10664,7 +10694,7 @@
       </c>
     </row>
     <row r="361">
-      <c r="A361" s="2" t="n">
+      <c r="A361" s="3" t="n">
         <v>45212</v>
       </c>
       <c r="B361" t="n">
@@ -10692,7 +10722,7 @@
       </c>
     </row>
     <row r="362">
-      <c r="A362" s="2" t="n">
+      <c r="A362" s="3" t="n">
         <v>45213</v>
       </c>
       <c r="B362" t="n">
@@ -10720,7 +10750,7 @@
       </c>
     </row>
     <row r="363">
-      <c r="A363" s="2" t="n">
+      <c r="A363" s="3" t="n">
         <v>45214</v>
       </c>
       <c r="B363" t="n">
@@ -10748,7 +10778,7 @@
       </c>
     </row>
     <row r="364">
-      <c r="A364" s="2" t="n">
+      <c r="A364" s="3" t="n">
         <v>45215</v>
       </c>
       <c r="B364" t="n">
@@ -10776,7 +10806,7 @@
       </c>
     </row>
     <row r="365">
-      <c r="A365" s="2" t="n">
+      <c r="A365" s="3" t="n">
         <v>45216</v>
       </c>
       <c r="B365" t="n">
@@ -10804,7 +10834,7 @@
       </c>
     </row>
     <row r="366">
-      <c r="A366" s="2" t="n">
+      <c r="A366" s="3" t="n">
         <v>45217</v>
       </c>
       <c r="B366" t="n">
@@ -10832,7 +10862,7 @@
       </c>
     </row>
     <row r="367">
-      <c r="A367" s="2" t="n">
+      <c r="A367" s="3" t="n">
         <v>45218</v>
       </c>
       <c r="B367" t="n">
@@ -10860,7 +10890,7 @@
       </c>
     </row>
     <row r="368">
-      <c r="A368" s="2" t="n">
+      <c r="A368" s="3" t="n">
         <v>44853</v>
       </c>
       <c r="B368" t="n">
@@ -10888,7 +10918,7 @@
       </c>
     </row>
     <row r="369">
-      <c r="A369" s="2" t="n">
+      <c r="A369" s="3" t="n">
         <v>44854</v>
       </c>
       <c r="B369" t="n">
@@ -10916,7 +10946,7 @@
       </c>
     </row>
     <row r="370">
-      <c r="A370" s="2" t="n">
+      <c r="A370" s="3" t="n">
         <v>44855</v>
       </c>
       <c r="B370" t="n">
@@ -10944,7 +10974,7 @@
       </c>
     </row>
     <row r="371">
-      <c r="A371" s="2" t="n">
+      <c r="A371" s="3" t="n">
         <v>44856</v>
       </c>
       <c r="B371" t="n">
@@ -10972,7 +11002,7 @@
       </c>
     </row>
     <row r="372">
-      <c r="A372" s="2" t="n">
+      <c r="A372" s="3" t="n">
         <v>44857</v>
       </c>
       <c r="B372" t="n">
@@ -11000,7 +11030,7 @@
       </c>
     </row>
     <row r="373">
-      <c r="A373" s="2" t="n">
+      <c r="A373" s="3" t="n">
         <v>44858</v>
       </c>
       <c r="B373" t="n">
@@ -11028,7 +11058,7 @@
       </c>
     </row>
     <row r="374">
-      <c r="A374" s="2" t="n">
+      <c r="A374" s="3" t="n">
         <v>44859</v>
       </c>
       <c r="B374" t="n">
@@ -11056,7 +11086,7 @@
       </c>
     </row>
     <row r="375">
-      <c r="A375" s="2" t="n">
+      <c r="A375" s="3" t="n">
         <v>44860</v>
       </c>
       <c r="B375" t="n">
@@ -11084,7 +11114,7 @@
       </c>
     </row>
     <row r="376">
-      <c r="A376" s="2" t="n">
+      <c r="A376" s="3" t="n">
         <v>44861</v>
       </c>
       <c r="B376" t="n">
@@ -11112,7 +11142,7 @@
       </c>
     </row>
     <row r="377">
-      <c r="A377" s="2" t="n">
+      <c r="A377" s="3" t="n">
         <v>44862</v>
       </c>
       <c r="B377" t="n">
@@ -11140,7 +11170,7 @@
       </c>
     </row>
     <row r="378">
-      <c r="A378" s="2" t="n">
+      <c r="A378" s="3" t="n">
         <v>44863</v>
       </c>
       <c r="B378" t="n">
@@ -11168,7 +11198,7 @@
       </c>
     </row>
     <row r="379">
-      <c r="A379" s="2" t="n">
+      <c r="A379" s="3" t="n">
         <v>44864</v>
       </c>
       <c r="B379" t="n">
@@ -11196,7 +11226,7 @@
       </c>
     </row>
     <row r="380">
-      <c r="A380" s="2" t="n">
+      <c r="A380" s="3" t="n">
         <v>44865</v>
       </c>
       <c r="B380" t="n">
@@ -11224,7 +11254,7 @@
       </c>
     </row>
     <row r="381">
-      <c r="A381" s="2" t="n">
+      <c r="A381" s="3" t="n">
         <v>44866</v>
       </c>
       <c r="B381" t="n">
@@ -11252,7 +11282,7 @@
       </c>
     </row>
     <row r="382">
-      <c r="A382" s="2" t="n">
+      <c r="A382" s="3" t="n">
         <v>44867</v>
       </c>
       <c r="B382" t="n">
@@ -11280,7 +11310,7 @@
       </c>
     </row>
     <row r="383">
-      <c r="A383" s="2" t="n">
+      <c r="A383" s="3" t="n">
         <v>44868</v>
       </c>
       <c r="B383" t="n">
@@ -11308,7 +11338,7 @@
       </c>
     </row>
     <row r="384">
-      <c r="A384" s="2" t="n">
+      <c r="A384" s="3" t="n">
         <v>44869</v>
       </c>
       <c r="B384" t="n">
@@ -11336,7 +11366,7 @@
       </c>
     </row>
     <row r="385">
-      <c r="A385" s="2" t="n">
+      <c r="A385" s="3" t="n">
         <v>44870</v>
       </c>
       <c r="B385" t="n">
@@ -11364,7 +11394,7 @@
       </c>
     </row>
     <row r="386">
-      <c r="A386" s="2" t="n">
+      <c r="A386" s="3" t="n">
         <v>44871</v>
       </c>
       <c r="B386" t="n">
@@ -11392,7 +11422,7 @@
       </c>
     </row>
     <row r="387">
-      <c r="A387" s="2" t="n">
+      <c r="A387" s="3" t="n">
         <v>44872</v>
       </c>
       <c r="B387" t="n">
@@ -11420,7 +11450,7 @@
       </c>
     </row>
     <row r="388">
-      <c r="A388" s="2" t="n">
+      <c r="A388" s="3" t="n">
         <v>44873</v>
       </c>
       <c r="B388" t="n">
@@ -11448,7 +11478,7 @@
       </c>
     </row>
     <row r="389">
-      <c r="A389" s="2" t="n">
+      <c r="A389" s="3" t="n">
         <v>44874</v>
       </c>
       <c r="B389" t="n">
@@ -11476,7 +11506,7 @@
       </c>
     </row>
     <row r="390">
-      <c r="A390" s="2" t="n">
+      <c r="A390" s="3" t="n">
         <v>44875</v>
       </c>
       <c r="B390" t="n">
@@ -11504,7 +11534,7 @@
       </c>
     </row>
     <row r="391">
-      <c r="A391" s="2" t="n">
+      <c r="A391" s="3" t="n">
         <v>44876</v>
       </c>
       <c r="B391" t="n">
@@ -11532,7 +11562,7 @@
       </c>
     </row>
     <row r="392">
-      <c r="A392" s="2" t="n">
+      <c r="A392" s="3" t="n">
         <v>44877</v>
       </c>
       <c r="B392" t="n">
@@ -11560,7 +11590,7 @@
       </c>
     </row>
     <row r="393">
-      <c r="A393" s="2" t="n">
+      <c r="A393" s="3" t="n">
         <v>44878</v>
       </c>
       <c r="B393" t="n">
@@ -11588,7 +11618,7 @@
       </c>
     </row>
     <row r="394">
-      <c r="A394" s="2" t="n">
+      <c r="A394" s="3" t="n">
         <v>44879</v>
       </c>
       <c r="B394" t="n">
@@ -11616,7 +11646,7 @@
       </c>
     </row>
     <row r="395">
-      <c r="A395" s="2" t="n">
+      <c r="A395" s="3" t="n">
         <v>44880</v>
       </c>
       <c r="B395" t="n">
@@ -11644,7 +11674,7 @@
       </c>
     </row>
     <row r="396">
-      <c r="A396" s="2" t="n">
+      <c r="A396" s="3" t="n">
         <v>44881</v>
       </c>
       <c r="B396" t="n">
@@ -11672,7 +11702,7 @@
       </c>
     </row>
     <row r="397">
-      <c r="A397" s="2" t="n">
+      <c r="A397" s="3" t="n">
         <v>44882</v>
       </c>
       <c r="B397" t="n">
@@ -11700,7 +11730,7 @@
       </c>
     </row>
     <row r="398">
-      <c r="A398" s="2" t="n">
+      <c r="A398" s="3" t="n">
         <v>44883</v>
       </c>
       <c r="B398" t="n">
@@ -11728,7 +11758,7 @@
       </c>
     </row>
     <row r="399">
-      <c r="A399" s="2" t="n">
+      <c r="A399" s="3" t="n">
         <v>44884</v>
       </c>
       <c r="B399" t="n">
@@ -11756,7 +11786,7 @@
       </c>
     </row>
     <row r="400">
-      <c r="A400" s="2" t="n">
+      <c r="A400" s="3" t="n">
         <v>44885</v>
       </c>
       <c r="B400" t="n">
@@ -11784,7 +11814,7 @@
       </c>
     </row>
     <row r="401">
-      <c r="A401" s="2" t="n">
+      <c r="A401" s="3" t="n">
         <v>44886</v>
       </c>
       <c r="B401" t="n">
@@ -11812,7 +11842,7 @@
       </c>
     </row>
     <row r="402">
-      <c r="A402" s="2" t="n">
+      <c r="A402" s="3" t="n">
         <v>44887</v>
       </c>
       <c r="B402" t="n">
@@ -11840,7 +11870,7 @@
       </c>
     </row>
     <row r="403">
-      <c r="A403" s="2" t="n">
+      <c r="A403" s="3" t="n">
         <v>44888</v>
       </c>
       <c r="B403" t="n">
@@ -11868,7 +11898,7 @@
       </c>
     </row>
     <row r="404">
-      <c r="A404" s="2" t="n">
+      <c r="A404" s="3" t="n">
         <v>44889</v>
       </c>
       <c r="B404" t="n">
@@ -11896,7 +11926,7 @@
       </c>
     </row>
     <row r="405">
-      <c r="A405" s="2" t="n">
+      <c r="A405" s="3" t="n">
         <v>44890</v>
       </c>
       <c r="B405" t="n">
@@ -11924,7 +11954,7 @@
       </c>
     </row>
     <row r="406">
-      <c r="A406" s="2" t="n">
+      <c r="A406" s="3" t="n">
         <v>44891</v>
       </c>
       <c r="B406" t="n">
@@ -11952,7 +11982,7 @@
       </c>
     </row>
     <row r="407">
-      <c r="A407" s="2" t="n">
+      <c r="A407" s="3" t="n">
         <v>44892</v>
       </c>
       <c r="B407" t="n">
@@ -11980,7 +12010,7 @@
       </c>
     </row>
     <row r="408">
-      <c r="A408" s="2" t="n">
+      <c r="A408" s="3" t="n">
         <v>44893</v>
       </c>
       <c r="B408" t="n">
@@ -12008,7 +12038,7 @@
       </c>
     </row>
     <row r="409">
-      <c r="A409" s="2" t="n">
+      <c r="A409" s="3" t="n">
         <v>44894</v>
       </c>
       <c r="B409" t="n">
@@ -12036,7 +12066,7 @@
       </c>
     </row>
     <row r="410">
-      <c r="A410" s="2" t="n">
+      <c r="A410" s="3" t="n">
         <v>44895</v>
       </c>
       <c r="B410" t="n">
@@ -12064,7 +12094,7 @@
       </c>
     </row>
     <row r="411">
-      <c r="A411" s="2" t="n">
+      <c r="A411" s="3" t="n">
         <v>44896</v>
       </c>
       <c r="B411" t="n">
@@ -12092,7 +12122,7 @@
       </c>
     </row>
     <row r="412">
-      <c r="A412" s="2" t="n">
+      <c r="A412" s="3" t="n">
         <v>44897</v>
       </c>
       <c r="B412" t="n">
@@ -12120,7 +12150,7 @@
       </c>
     </row>
     <row r="413">
-      <c r="A413" s="2" t="n">
+      <c r="A413" s="3" t="n">
         <v>44898</v>
       </c>
       <c r="B413" t="n">
@@ -12148,7 +12178,7 @@
       </c>
     </row>
     <row r="414">
-      <c r="A414" s="2" t="n">
+      <c r="A414" s="3" t="n">
         <v>44899</v>
       </c>
       <c r="B414" t="n">
@@ -12176,7 +12206,7 @@
       </c>
     </row>
     <row r="415">
-      <c r="A415" s="2" t="n">
+      <c r="A415" s="3" t="n">
         <v>44900</v>
       </c>
       <c r="B415" t="n">
@@ -12204,7 +12234,7 @@
       </c>
     </row>
     <row r="416">
-      <c r="A416" s="2" t="n">
+      <c r="A416" s="3" t="n">
         <v>44901</v>
       </c>
       <c r="B416" t="n">
@@ -12232,7 +12262,7 @@
       </c>
     </row>
     <row r="417">
-      <c r="A417" s="2" t="n">
+      <c r="A417" s="3" t="n">
         <v>44902</v>
       </c>
       <c r="B417" t="n">
@@ -12260,7 +12290,7 @@
       </c>
     </row>
     <row r="418">
-      <c r="A418" s="2" t="n">
+      <c r="A418" s="3" t="n">
         <v>44903</v>
       </c>
       <c r="B418" t="n">
@@ -12288,7 +12318,7 @@
       </c>
     </row>
     <row r="419">
-      <c r="A419" s="2" t="n">
+      <c r="A419" s="3" t="n">
         <v>44904</v>
       </c>
       <c r="B419" t="n">
@@ -12316,7 +12346,7 @@
       </c>
     </row>
     <row r="420">
-      <c r="A420" s="2" t="n">
+      <c r="A420" s="3" t="n">
         <v>44905</v>
       </c>
       <c r="B420" t="n">
@@ -12344,7 +12374,7 @@
       </c>
     </row>
     <row r="421">
-      <c r="A421" s="2" t="n">
+      <c r="A421" s="3" t="n">
         <v>44906</v>
       </c>
       <c r="B421" t="n">
@@ -12372,7 +12402,7 @@
       </c>
     </row>
     <row r="422">
-      <c r="A422" s="2" t="n">
+      <c r="A422" s="3" t="n">
         <v>44907</v>
       </c>
       <c r="B422" t="n">
@@ -12400,7 +12430,7 @@
       </c>
     </row>
     <row r="423">
-      <c r="A423" s="2" t="n">
+      <c r="A423" s="3" t="n">
         <v>44908</v>
       </c>
       <c r="B423" t="n">
@@ -12428,7 +12458,7 @@
       </c>
     </row>
     <row r="424">
-      <c r="A424" s="2" t="n">
+      <c r="A424" s="3" t="n">
         <v>44909</v>
       </c>
       <c r="B424" t="n">
@@ -12456,7 +12486,7 @@
       </c>
     </row>
     <row r="425">
-      <c r="A425" s="2" t="n">
+      <c r="A425" s="3" t="n">
         <v>44910</v>
       </c>
       <c r="B425" t="n">
@@ -12484,7 +12514,7 @@
       </c>
     </row>
     <row r="426">
-      <c r="A426" s="2" t="n">
+      <c r="A426" s="3" t="n">
         <v>44911</v>
       </c>
       <c r="B426" t="n">
@@ -12512,7 +12542,7 @@
       </c>
     </row>
     <row r="427">
-      <c r="A427" s="2" t="n">
+      <c r="A427" s="3" t="n">
         <v>44912</v>
       </c>
       <c r="B427" t="n">
@@ -12540,7 +12570,7 @@
       </c>
     </row>
     <row r="428">
-      <c r="A428" s="2" t="n">
+      <c r="A428" s="3" t="n">
         <v>44913</v>
       </c>
       <c r="B428" t="n">
@@ -12568,7 +12598,7 @@
       </c>
     </row>
     <row r="429">
-      <c r="A429" s="2" t="n">
+      <c r="A429" s="3" t="n">
         <v>44914</v>
       </c>
       <c r="B429" t="n">
@@ -12596,7 +12626,7 @@
       </c>
     </row>
     <row r="430">
-      <c r="A430" s="2" t="n">
+      <c r="A430" s="3" t="n">
         <v>44915</v>
       </c>
       <c r="B430" t="n">
@@ -12624,7 +12654,7 @@
       </c>
     </row>
     <row r="431">
-      <c r="A431" s="2" t="n">
+      <c r="A431" s="3" t="n">
         <v>44916</v>
       </c>
       <c r="B431" t="n">
@@ -12652,7 +12682,7 @@
       </c>
     </row>
     <row r="432">
-      <c r="A432" s="2" t="n">
+      <c r="A432" s="3" t="n">
         <v>44917</v>
       </c>
       <c r="B432" t="n">
@@ -12680,7 +12710,7 @@
       </c>
     </row>
     <row r="433">
-      <c r="A433" s="2" t="n">
+      <c r="A433" s="3" t="n">
         <v>44918</v>
       </c>
       <c r="B433" t="n">
@@ -12708,7 +12738,7 @@
       </c>
     </row>
     <row r="434">
-      <c r="A434" s="2" t="n">
+      <c r="A434" s="3" t="n">
         <v>44919</v>
       </c>
       <c r="B434" t="n">
@@ -12736,7 +12766,7 @@
       </c>
     </row>
     <row r="435">
-      <c r="A435" s="2" t="n">
+      <c r="A435" s="3" t="n">
         <v>44920</v>
       </c>
       <c r="B435" t="n">
@@ -12764,7 +12794,7 @@
       </c>
     </row>
     <row r="436">
-      <c r="A436" s="2" t="n">
+      <c r="A436" s="3" t="n">
         <v>44921</v>
       </c>
       <c r="B436" t="n">
@@ -12792,7 +12822,7 @@
       </c>
     </row>
     <row r="437">
-      <c r="A437" s="2" t="n">
+      <c r="A437" s="3" t="n">
         <v>44922</v>
       </c>
       <c r="B437" t="n">
@@ -12820,7 +12850,7 @@
       </c>
     </row>
     <row r="438">
-      <c r="A438" s="2" t="n">
+      <c r="A438" s="3" t="n">
         <v>44923</v>
       </c>
       <c r="B438" t="n">
@@ -12848,7 +12878,7 @@
       </c>
     </row>
     <row r="439">
-      <c r="A439" s="2" t="n">
+      <c r="A439" s="3" t="n">
         <v>44924</v>
       </c>
       <c r="B439" t="n">
@@ -12876,7 +12906,7 @@
       </c>
     </row>
     <row r="440">
-      <c r="A440" s="2" t="n">
+      <c r="A440" s="3" t="n">
         <v>44925</v>
       </c>
       <c r="B440" t="n">
@@ -12904,7 +12934,7 @@
       </c>
     </row>
     <row r="441">
-      <c r="A441" s="2" t="n">
+      <c r="A441" s="3" t="n">
         <v>44926</v>
       </c>
       <c r="B441" t="n">
@@ -12932,7 +12962,7 @@
       </c>
     </row>
     <row r="442">
-      <c r="A442" s="2" t="n">
+      <c r="A442" s="3" t="n">
         <v>44927</v>
       </c>
       <c r="B442" t="n">
@@ -12960,7 +12990,7 @@
       </c>
     </row>
     <row r="443">
-      <c r="A443" s="2" t="n">
+      <c r="A443" s="3" t="n">
         <v>44928</v>
       </c>
       <c r="B443" t="n">
@@ -12988,7 +13018,7 @@
       </c>
     </row>
     <row r="444">
-      <c r="A444" s="2" t="n">
+      <c r="A444" s="3" t="n">
         <v>44929</v>
       </c>
       <c r="B444" t="n">
@@ -13016,7 +13046,7 @@
       </c>
     </row>
     <row r="445">
-      <c r="A445" s="2" t="n">
+      <c r="A445" s="3" t="n">
         <v>44930</v>
       </c>
       <c r="B445" t="n">
@@ -13044,7 +13074,7 @@
       </c>
     </row>
     <row r="446">
-      <c r="A446" s="2" t="n">
+      <c r="A446" s="3" t="n">
         <v>44931</v>
       </c>
       <c r="B446" t="n">
@@ -13072,7 +13102,7 @@
       </c>
     </row>
     <row r="447">
-      <c r="A447" s="2" t="n">
+      <c r="A447" s="3" t="n">
         <v>44932</v>
       </c>
       <c r="B447" t="n">
@@ -13100,7 +13130,7 @@
       </c>
     </row>
     <row r="448">
-      <c r="A448" s="2" t="n">
+      <c r="A448" s="3" t="n">
         <v>44933</v>
       </c>
       <c r="B448" t="n">
@@ -13128,7 +13158,7 @@
       </c>
     </row>
     <row r="449">
-      <c r="A449" s="2" t="n">
+      <c r="A449" s="3" t="n">
         <v>44934</v>
       </c>
       <c r="B449" t="n">
@@ -13156,7 +13186,7 @@
       </c>
     </row>
     <row r="450">
-      <c r="A450" s="2" t="n">
+      <c r="A450" s="3" t="n">
         <v>44935</v>
       </c>
       <c r="B450" t="n">
@@ -13184,7 +13214,7 @@
       </c>
     </row>
     <row r="451">
-      <c r="A451" s="2" t="n">
+      <c r="A451" s="3" t="n">
         <v>44936</v>
       </c>
       <c r="B451" t="n">
@@ -13212,7 +13242,7 @@
       </c>
     </row>
     <row r="452">
-      <c r="A452" s="2" t="n">
+      <c r="A452" s="3" t="n">
         <v>44937</v>
       </c>
       <c r="B452" t="n">
@@ -13240,7 +13270,7 @@
       </c>
     </row>
     <row r="453">
-      <c r="A453" s="2" t="n">
+      <c r="A453" s="3" t="n">
         <v>44938</v>
       </c>
       <c r="B453" t="n">
@@ -13268,7 +13298,7 @@
       </c>
     </row>
     <row r="454">
-      <c r="A454" s="2" t="n">
+      <c r="A454" s="3" t="n">
         <v>44939</v>
       </c>
       <c r="B454" t="n">
@@ -13296,7 +13326,7 @@
       </c>
     </row>
     <row r="455">
-      <c r="A455" s="2" t="n">
+      <c r="A455" s="3" t="n">
         <v>44940</v>
       </c>
       <c r="B455" t="n">
@@ -13324,7 +13354,7 @@
       </c>
     </row>
     <row r="456">
-      <c r="A456" s="2" t="n">
+      <c r="A456" s="3" t="n">
         <v>44941</v>
       </c>
       <c r="B456" t="n">
@@ -13352,7 +13382,7 @@
       </c>
     </row>
     <row r="457">
-      <c r="A457" s="2" t="n">
+      <c r="A457" s="3" t="n">
         <v>44942</v>
       </c>
       <c r="B457" t="n">
@@ -13380,7 +13410,7 @@
       </c>
     </row>
     <row r="458">
-      <c r="A458" s="2" t="n">
+      <c r="A458" s="3" t="n">
         <v>44943</v>
       </c>
       <c r="B458" t="n">
@@ -13408,7 +13438,7 @@
       </c>
     </row>
     <row r="459">
-      <c r="A459" s="2" t="n">
+      <c r="A459" s="3" t="n">
         <v>44944</v>
       </c>
       <c r="B459" t="n">
@@ -13436,7 +13466,7 @@
       </c>
     </row>
     <row r="460">
-      <c r="A460" s="2" t="n">
+      <c r="A460" s="3" t="n">
         <v>44945</v>
       </c>
       <c r="B460" t="n">
@@ -13464,7 +13494,7 @@
       </c>
     </row>
     <row r="461">
-      <c r="A461" s="2" t="n">
+      <c r="A461" s="3" t="n">
         <v>44946</v>
       </c>
       <c r="B461" t="n">
@@ -13492,7 +13522,7 @@
       </c>
     </row>
     <row r="462">
-      <c r="A462" s="2" t="n">
+      <c r="A462" s="3" t="n">
         <v>44947</v>
       </c>
       <c r="B462" t="n">
@@ -13520,7 +13550,7 @@
       </c>
     </row>
     <row r="463">
-      <c r="A463" s="2" t="n">
+      <c r="A463" s="3" t="n">
         <v>44948</v>
       </c>
       <c r="B463" t="n">
@@ -13548,7 +13578,7 @@
       </c>
     </row>
     <row r="464">
-      <c r="A464" s="2" t="n">
+      <c r="A464" s="3" t="n">
         <v>44949</v>
       </c>
       <c r="B464" t="n">
@@ -13576,7 +13606,7 @@
       </c>
     </row>
     <row r="465">
-      <c r="A465" s="2" t="n">
+      <c r="A465" s="3" t="n">
         <v>44950</v>
       </c>
       <c r="B465" t="n">
@@ -13604,7 +13634,7 @@
       </c>
     </row>
     <row r="466">
-      <c r="A466" s="2" t="n">
+      <c r="A466" s="3" t="n">
         <v>44951</v>
       </c>
       <c r="B466" t="n">
@@ -13632,7 +13662,7 @@
       </c>
     </row>
     <row r="467">
-      <c r="A467" s="2" t="n">
+      <c r="A467" s="3" t="n">
         <v>44952</v>
       </c>
       <c r="B467" t="n">
@@ -13660,7 +13690,7 @@
       </c>
     </row>
     <row r="468">
-      <c r="A468" s="2" t="n">
+      <c r="A468" s="3" t="n">
         <v>44953</v>
       </c>
       <c r="B468" t="n">
@@ -13688,7 +13718,7 @@
       </c>
     </row>
     <row r="469">
-      <c r="A469" s="2" t="n">
+      <c r="A469" s="3" t="n">
         <v>44954</v>
       </c>
       <c r="B469" t="n">
@@ -13716,7 +13746,7 @@
       </c>
     </row>
     <row r="470">
-      <c r="A470" s="2" t="n">
+      <c r="A470" s="3" t="n">
         <v>44955</v>
       </c>
       <c r="B470" t="n">
@@ -13744,7 +13774,7 @@
       </c>
     </row>
     <row r="471">
-      <c r="A471" s="2" t="n">
+      <c r="A471" s="3" t="n">
         <v>44956</v>
       </c>
       <c r="B471" t="n">
@@ -13772,7 +13802,7 @@
       </c>
     </row>
     <row r="472">
-      <c r="A472" s="2" t="n">
+      <c r="A472" s="3" t="n">
         <v>44957</v>
       </c>
       <c r="B472" t="n">
@@ -13800,7 +13830,7 @@
       </c>
     </row>
     <row r="473">
-      <c r="A473" s="2" t="n">
+      <c r="A473" s="3" t="n">
         <v>44958</v>
       </c>
       <c r="B473" t="n">
@@ -13828,7 +13858,7 @@
       </c>
     </row>
     <row r="474">
-      <c r="A474" s="2" t="n">
+      <c r="A474" s="3" t="n">
         <v>44959</v>
       </c>
       <c r="B474" t="n">
@@ -13856,7 +13886,7 @@
       </c>
     </row>
     <row r="475">
-      <c r="A475" s="2" t="n">
+      <c r="A475" s="3" t="n">
         <v>44960</v>
       </c>
       <c r="B475" t="n">
@@ -13884,7 +13914,7 @@
       </c>
     </row>
     <row r="476">
-      <c r="A476" s="2" t="n">
+      <c r="A476" s="3" t="n">
         <v>44961</v>
       </c>
       <c r="B476" t="n">
@@ -13912,7 +13942,7 @@
       </c>
     </row>
     <row r="477">
-      <c r="A477" s="2" t="n">
+      <c r="A477" s="3" t="n">
         <v>44962</v>
       </c>
       <c r="B477" t="n">
@@ -13940,7 +13970,7 @@
       </c>
     </row>
     <row r="478">
-      <c r="A478" s="2" t="n">
+      <c r="A478" s="3" t="n">
         <v>44963</v>
       </c>
       <c r="B478" t="n">
@@ -13968,7 +13998,7 @@
       </c>
     </row>
     <row r="479">
-      <c r="A479" s="2" t="n">
+      <c r="A479" s="3" t="n">
         <v>44964</v>
       </c>
       <c r="B479" t="n">
@@ -13996,7 +14026,7 @@
       </c>
     </row>
     <row r="480">
-      <c r="A480" s="2" t="n">
+      <c r="A480" s="3" t="n">
         <v>44965</v>
       </c>
       <c r="B480" t="n">
@@ -14024,7 +14054,7 @@
       </c>
     </row>
     <row r="481">
-      <c r="A481" s="2" t="n">
+      <c r="A481" s="3" t="n">
         <v>44966</v>
       </c>
       <c r="B481" t="n">
@@ -14052,7 +14082,7 @@
       </c>
     </row>
     <row r="482">
-      <c r="A482" s="2" t="n">
+      <c r="A482" s="3" t="n">
         <v>44967</v>
       </c>
       <c r="B482" t="n">
@@ -14080,7 +14110,7 @@
       </c>
     </row>
     <row r="483">
-      <c r="A483" s="2" t="n">
+      <c r="A483" s="3" t="n">
         <v>44968</v>
       </c>
       <c r="B483" t="n">
@@ -14108,7 +14138,7 @@
       </c>
     </row>
     <row r="484">
-      <c r="A484" s="2" t="n">
+      <c r="A484" s="3" t="n">
         <v>44969</v>
       </c>
       <c r="B484" t="n">
@@ -14136,7 +14166,7 @@
       </c>
     </row>
     <row r="485">
-      <c r="A485" s="2" t="n">
+      <c r="A485" s="3" t="n">
         <v>44970</v>
       </c>
       <c r="B485" t="n">
@@ -14164,7 +14194,7 @@
       </c>
     </row>
     <row r="486">
-      <c r="A486" s="2" t="n">
+      <c r="A486" s="3" t="n">
         <v>44971</v>
       </c>
       <c r="B486" t="n">
@@ -14192,7 +14222,7 @@
       </c>
     </row>
     <row r="487">
-      <c r="A487" s="2" t="n">
+      <c r="A487" s="3" t="n">
         <v>44972</v>
       </c>
       <c r="B487" t="n">
@@ -14220,7 +14250,7 @@
       </c>
     </row>
     <row r="488">
-      <c r="A488" s="2" t="n">
+      <c r="A488" s="3" t="n">
         <v>44973</v>
       </c>
       <c r="B488" t="n">
@@ -14248,7 +14278,7 @@
       </c>
     </row>
     <row r="489">
-      <c r="A489" s="2" t="n">
+      <c r="A489" s="3" t="n">
         <v>44974</v>
       </c>
       <c r="B489" t="n">
@@ -14276,7 +14306,7 @@
       </c>
     </row>
     <row r="490">
-      <c r="A490" s="2" t="n">
+      <c r="A490" s="3" t="n">
         <v>44975</v>
       </c>
       <c r="B490" t="n">
@@ -14304,7 +14334,7 @@
       </c>
     </row>
     <row r="491">
-      <c r="A491" s="2" t="n">
+      <c r="A491" s="3" t="n">
         <v>44976</v>
       </c>
       <c r="B491" t="n">
@@ -14332,7 +14362,7 @@
       </c>
     </row>
     <row r="492">
-      <c r="A492" s="2" t="n">
+      <c r="A492" s="3" t="n">
         <v>44977</v>
       </c>
       <c r="B492" t="n">
@@ -14360,7 +14390,7 @@
       </c>
     </row>
     <row r="493">
-      <c r="A493" s="2" t="n">
+      <c r="A493" s="3" t="n">
         <v>44978</v>
       </c>
       <c r="B493" t="n">
@@ -14388,7 +14418,7 @@
       </c>
     </row>
     <row r="494">
-      <c r="A494" s="2" t="n">
+      <c r="A494" s="3" t="n">
         <v>44979</v>
       </c>
       <c r="B494" t="n">
@@ -14416,7 +14446,7 @@
       </c>
     </row>
     <row r="495">
-      <c r="A495" s="2" t="n">
+      <c r="A495" s="3" t="n">
         <v>44980</v>
       </c>
       <c r="B495" t="n">
@@ -14444,7 +14474,7 @@
       </c>
     </row>
     <row r="496">
-      <c r="A496" s="2" t="n">
+      <c r="A496" s="3" t="n">
         <v>44981</v>
       </c>
       <c r="B496" t="n">
@@ -14472,7 +14502,7 @@
       </c>
     </row>
     <row r="497">
-      <c r="A497" s="2" t="n">
+      <c r="A497" s="3" t="n">
         <v>44982</v>
       </c>
       <c r="B497" t="n">
@@ -14500,7 +14530,7 @@
       </c>
     </row>
     <row r="498">
-      <c r="A498" s="2" t="n">
+      <c r="A498" s="3" t="n">
         <v>44983</v>
       </c>
       <c r="B498" t="n">
@@ -14528,7 +14558,7 @@
       </c>
     </row>
     <row r="499">
-      <c r="A499" s="2" t="n">
+      <c r="A499" s="3" t="n">
         <v>44984</v>
       </c>
       <c r="B499" t="n">
@@ -14556,7 +14586,7 @@
       </c>
     </row>
     <row r="500">
-      <c r="A500" s="2" t="n">
+      <c r="A500" s="3" t="n">
         <v>44985</v>
       </c>
       <c r="B500" t="n">
@@ -14584,7 +14614,7 @@
       </c>
     </row>
     <row r="501">
-      <c r="A501" s="2" t="n">
+      <c r="A501" s="3" t="n">
         <v>44986</v>
       </c>
       <c r="B501" t="n">
@@ -14612,7 +14642,7 @@
       </c>
     </row>
     <row r="502">
-      <c r="A502" s="2" t="n">
+      <c r="A502" s="3" t="n">
         <v>44987</v>
       </c>
       <c r="B502" t="n">
@@ -14640,7 +14670,7 @@
       </c>
     </row>
     <row r="503">
-      <c r="A503" s="2" t="n">
+      <c r="A503" s="3" t="n">
         <v>44988</v>
       </c>
       <c r="B503" t="n">
@@ -14668,7 +14698,7 @@
       </c>
     </row>
     <row r="504">
-      <c r="A504" s="2" t="n">
+      <c r="A504" s="3" t="n">
         <v>44989</v>
       </c>
       <c r="B504" t="n">
@@ -14696,7 +14726,7 @@
       </c>
     </row>
     <row r="505">
-      <c r="A505" s="2" t="n">
+      <c r="A505" s="3" t="n">
         <v>44990</v>
       </c>
       <c r="B505" t="n">
@@ -14724,7 +14754,7 @@
       </c>
     </row>
     <row r="506">
-      <c r="A506" s="2" t="n">
+      <c r="A506" s="3" t="n">
         <v>44991</v>
       </c>
       <c r="B506" t="n">
@@ -14752,7 +14782,7 @@
       </c>
     </row>
     <row r="507">
-      <c r="A507" s="2" t="n">
+      <c r="A507" s="3" t="n">
         <v>44992</v>
       </c>
       <c r="B507" t="n">
@@ -14780,7 +14810,7 @@
       </c>
     </row>
     <row r="508">
-      <c r="A508" s="2" t="n">
+      <c r="A508" s="3" t="n">
         <v>44993</v>
       </c>
       <c r="B508" t="n">
@@ -14808,7 +14838,7 @@
       </c>
     </row>
     <row r="509">
-      <c r="A509" s="2" t="n">
+      <c r="A509" s="3" t="n">
         <v>44994</v>
       </c>
       <c r="B509" t="n">
@@ -14836,7 +14866,7 @@
       </c>
     </row>
     <row r="510">
-      <c r="A510" s="2" t="n">
+      <c r="A510" s="3" t="n">
         <v>44995</v>
       </c>
       <c r="B510" t="n">
@@ -14864,7 +14894,7 @@
       </c>
     </row>
     <row r="511">
-      <c r="A511" s="2" t="n">
+      <c r="A511" s="3" t="n">
         <v>44996</v>
       </c>
       <c r="B511" t="n">
@@ -14892,7 +14922,7 @@
       </c>
     </row>
     <row r="512">
-      <c r="A512" s="2" t="n">
+      <c r="A512" s="3" t="n">
         <v>44997</v>
       </c>
       <c r="B512" t="n">
@@ -14920,7 +14950,7 @@
       </c>
     </row>
     <row r="513">
-      <c r="A513" s="2" t="n">
+      <c r="A513" s="3" t="n">
         <v>44998</v>
       </c>
       <c r="B513" t="n">
@@ -14948,7 +14978,7 @@
       </c>
     </row>
     <row r="514">
-      <c r="A514" s="2" t="n">
+      <c r="A514" s="3" t="n">
         <v>44999</v>
       </c>
       <c r="B514" t="n">
@@ -14976,7 +15006,7 @@
       </c>
     </row>
     <row r="515">
-      <c r="A515" s="2" t="n">
+      <c r="A515" s="3" t="n">
         <v>45000</v>
       </c>
       <c r="B515" t="n">
@@ -15004,7 +15034,7 @@
       </c>
     </row>
     <row r="516">
-      <c r="A516" s="2" t="n">
+      <c r="A516" s="3" t="n">
         <v>45001</v>
       </c>
       <c r="B516" t="n">
@@ -15032,7 +15062,7 @@
       </c>
     </row>
     <row r="517">
-      <c r="A517" s="2" t="n">
+      <c r="A517" s="3" t="n">
         <v>45002</v>
       </c>
       <c r="B517" t="n">
@@ -15060,7 +15090,7 @@
       </c>
     </row>
     <row r="518">
-      <c r="A518" s="2" t="n">
+      <c r="A518" s="3" t="n">
         <v>45003</v>
       </c>
       <c r="B518" t="n">
@@ -15088,7 +15118,7 @@
       </c>
     </row>
     <row r="519">
-      <c r="A519" s="2" t="n">
+      <c r="A519" s="3" t="n">
         <v>45004</v>
       </c>
       <c r="B519" t="n">
@@ -15116,7 +15146,7 @@
       </c>
     </row>
     <row r="520">
-      <c r="A520" s="2" t="n">
+      <c r="A520" s="3" t="n">
         <v>45005</v>
       </c>
       <c r="B520" t="n">
@@ -15144,7 +15174,7 @@
       </c>
     </row>
     <row r="521">
-      <c r="A521" s="2" t="n">
+      <c r="A521" s="3" t="n">
         <v>45006</v>
       </c>
       <c r="B521" t="n">
@@ -15172,7 +15202,7 @@
       </c>
     </row>
     <row r="522">
-      <c r="A522" s="2" t="n">
+      <c r="A522" s="3" t="n">
         <v>45007</v>
       </c>
       <c r="B522" t="n">
@@ -15200,7 +15230,7 @@
       </c>
     </row>
     <row r="523">
-      <c r="A523" s="2" t="n">
+      <c r="A523" s="3" t="n">
         <v>45008</v>
       </c>
       <c r="B523" t="n">
@@ -15228,7 +15258,7 @@
       </c>
     </row>
     <row r="524">
-      <c r="A524" s="2" t="n">
+      <c r="A524" s="3" t="n">
         <v>45009</v>
       </c>
       <c r="B524" t="n">
@@ -15256,7 +15286,7 @@
       </c>
     </row>
     <row r="525">
-      <c r="A525" s="2" t="n">
+      <c r="A525" s="3" t="n">
         <v>45010</v>
       </c>
       <c r="B525" t="n">
@@ -15284,7 +15314,7 @@
       </c>
     </row>
     <row r="526">
-      <c r="A526" s="2" t="n">
+      <c r="A526" s="3" t="n">
         <v>45011</v>
       </c>
       <c r="B526" t="n">
@@ -15312,7 +15342,7 @@
       </c>
     </row>
     <row r="527">
-      <c r="A527" s="2" t="n">
+      <c r="A527" s="3" t="n">
         <v>45012</v>
       </c>
       <c r="B527" t="n">
@@ -15340,7 +15370,7 @@
       </c>
     </row>
     <row r="528">
-      <c r="A528" s="2" t="n">
+      <c r="A528" s="3" t="n">
         <v>45013</v>
       </c>
       <c r="B528" t="n">
@@ -15368,7 +15398,7 @@
       </c>
     </row>
     <row r="529">
-      <c r="A529" s="2" t="n">
+      <c r="A529" s="3" t="n">
         <v>45014</v>
       </c>
       <c r="B529" t="n">
@@ -15396,7 +15426,7 @@
       </c>
     </row>
     <row r="530">
-      <c r="A530" s="2" t="n">
+      <c r="A530" s="3" t="n">
         <v>45015</v>
       </c>
       <c r="B530" t="n">
@@ -15424,7 +15454,7 @@
       </c>
     </row>
     <row r="531">
-      <c r="A531" s="2" t="n">
+      <c r="A531" s="3" t="n">
         <v>45016</v>
       </c>
       <c r="B531" t="n">
@@ -15452,7 +15482,7 @@
       </c>
     </row>
     <row r="532">
-      <c r="A532" s="2" t="n">
+      <c r="A532" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="B532" t="n">
@@ -15480,7 +15510,7 @@
       </c>
     </row>
     <row r="533">
-      <c r="A533" s="2" t="n">
+      <c r="A533" s="3" t="n">
         <v>45018</v>
       </c>
       <c r="B533" t="n">
@@ -15508,7 +15538,7 @@
       </c>
     </row>
     <row r="534">
-      <c r="A534" s="2" t="n">
+      <c r="A534" s="3" t="n">
         <v>45019</v>
       </c>
       <c r="B534" t="n">
@@ -15536,7 +15566,7 @@
       </c>
     </row>
     <row r="535">
-      <c r="A535" s="2" t="n">
+      <c r="A535" s="3" t="n">
         <v>45020</v>
       </c>
       <c r="B535" t="n">
@@ -15564,7 +15594,7 @@
       </c>
     </row>
     <row r="536">
-      <c r="A536" s="2" t="n">
+      <c r="A536" s="3" t="n">
         <v>45021</v>
       </c>
       <c r="B536" t="n">
@@ -15592,7 +15622,7 @@
       </c>
     </row>
     <row r="537">
-      <c r="A537" s="2" t="n">
+      <c r="A537" s="3" t="n">
         <v>45022</v>
       </c>
       <c r="B537" t="n">
@@ -15620,7 +15650,7 @@
       </c>
     </row>
     <row r="538">
-      <c r="A538" s="2" t="n">
+      <c r="A538" s="3" t="n">
         <v>45023</v>
       </c>
       <c r="B538" t="n">
@@ -15648,7 +15678,7 @@
       </c>
     </row>
     <row r="539">
-      <c r="A539" s="2" t="n">
+      <c r="A539" s="3" t="n">
         <v>45024</v>
       </c>
       <c r="B539" t="n">
@@ -15676,7 +15706,7 @@
       </c>
     </row>
     <row r="540">
-      <c r="A540" s="2" t="n">
+      <c r="A540" s="3" t="n">
         <v>45025</v>
       </c>
       <c r="B540" t="n">
@@ -15704,7 +15734,7 @@
       </c>
     </row>
     <row r="541">
-      <c r="A541" s="2" t="n">
+      <c r="A541" s="3" t="n">
         <v>45026</v>
       </c>
       <c r="B541" t="n">
@@ -15732,7 +15762,7 @@
       </c>
     </row>
     <row r="542">
-      <c r="A542" s="2" t="n">
+      <c r="A542" s="3" t="n">
         <v>45027</v>
       </c>
       <c r="B542" t="n">
@@ -15760,7 +15790,7 @@
       </c>
     </row>
     <row r="543">
-      <c r="A543" s="2" t="n">
+      <c r="A543" s="3" t="n">
         <v>45028</v>
       </c>
       <c r="B543" t="n">
@@ -15788,7 +15818,7 @@
       </c>
     </row>
     <row r="544">
-      <c r="A544" s="2" t="n">
+      <c r="A544" s="3" t="n">
         <v>45029</v>
       </c>
       <c r="B544" t="n">
@@ -15816,7 +15846,7 @@
       </c>
     </row>
     <row r="545">
-      <c r="A545" s="2" t="n">
+      <c r="A545" s="3" t="n">
         <v>45030</v>
       </c>
       <c r="B545" t="n">
@@ -15844,7 +15874,7 @@
       </c>
     </row>
     <row r="546">
-      <c r="A546" s="2" t="n">
+      <c r="A546" s="3" t="n">
         <v>45031</v>
       </c>
       <c r="B546" t="n">
@@ -15872,7 +15902,7 @@
       </c>
     </row>
     <row r="547">
-      <c r="A547" s="2" t="n">
+      <c r="A547" s="3" t="n">
         <v>45032</v>
       </c>
       <c r="B547" t="n">
@@ -15900,7 +15930,7 @@
       </c>
     </row>
     <row r="548">
-      <c r="A548" s="2" t="n">
+      <c r="A548" s="3" t="n">
         <v>45033</v>
       </c>
       <c r="B548" t="n">
@@ -15928,7 +15958,7 @@
       </c>
     </row>
     <row r="549">
-      <c r="A549" s="2" t="n">
+      <c r="A549" s="3" t="n">
         <v>45034</v>
       </c>
       <c r="B549" t="n">
@@ -15956,7 +15986,7 @@
       </c>
     </row>
     <row r="550">
-      <c r="A550" s="2" t="n">
+      <c r="A550" s="3" t="n">
         <v>45035</v>
       </c>
       <c r="B550" t="n">
@@ -15984,7 +16014,7 @@
       </c>
     </row>
     <row r="551">
-      <c r="A551" s="2" t="n">
+      <c r="A551" s="3" t="n">
         <v>45036</v>
       </c>
       <c r="B551" t="n">
@@ -16012,7 +16042,7 @@
       </c>
     </row>
     <row r="552">
-      <c r="A552" s="2" t="n">
+      <c r="A552" s="3" t="n">
         <v>45037</v>
       </c>
       <c r="B552" t="n">
@@ -16040,7 +16070,7 @@
       </c>
     </row>
     <row r="553">
-      <c r="A553" s="2" t="n">
+      <c r="A553" s="3" t="n">
         <v>45038</v>
       </c>
       <c r="B553" t="n">
@@ -16068,7 +16098,7 @@
       </c>
     </row>
     <row r="554">
-      <c r="A554" s="2" t="n">
+      <c r="A554" s="3" t="n">
         <v>45039</v>
       </c>
       <c r="B554" t="n">
@@ -16096,7 +16126,7 @@
       </c>
     </row>
     <row r="555">
-      <c r="A555" s="2" t="n">
+      <c r="A555" s="3" t="n">
         <v>45040</v>
       </c>
       <c r="B555" t="n">
@@ -16124,7 +16154,7 @@
       </c>
     </row>
     <row r="556">
-      <c r="A556" s="2" t="n">
+      <c r="A556" s="3" t="n">
         <v>45041</v>
       </c>
       <c r="B556" t="n">
@@ -16152,7 +16182,7 @@
       </c>
     </row>
     <row r="557">
-      <c r="A557" s="2" t="n">
+      <c r="A557" s="3" t="n">
         <v>45042</v>
       </c>
       <c r="B557" t="n">
@@ -16180,7 +16210,7 @@
       </c>
     </row>
     <row r="558">
-      <c r="A558" s="2" t="n">
+      <c r="A558" s="3" t="n">
         <v>45043</v>
       </c>
       <c r="B558" t="n">
@@ -16208,7 +16238,7 @@
       </c>
     </row>
     <row r="559">
-      <c r="A559" s="2" t="n">
+      <c r="A559" s="3" t="n">
         <v>45044</v>
       </c>
       <c r="B559" t="n">
@@ -16236,7 +16266,7 @@
       </c>
     </row>
     <row r="560">
-      <c r="A560" s="2" t="n">
+      <c r="A560" s="3" t="n">
         <v>45045</v>
       </c>
       <c r="B560" t="n">
@@ -16264,7 +16294,7 @@
       </c>
     </row>
     <row r="561">
-      <c r="A561" s="2" t="n">
+      <c r="A561" s="3" t="n">
         <v>45046</v>
       </c>
       <c r="B561" t="n">
@@ -16292,7 +16322,7 @@
       </c>
     </row>
     <row r="562">
-      <c r="A562" s="2" t="n">
+      <c r="A562" s="3" t="n">
         <v>45047</v>
       </c>
       <c r="B562" t="n">
@@ -16320,7 +16350,7 @@
       </c>
     </row>
     <row r="563">
-      <c r="A563" s="2" t="n">
+      <c r="A563" s="3" t="n">
         <v>45048</v>
       </c>
       <c r="B563" t="n">
@@ -16348,7 +16378,7 @@
       </c>
     </row>
     <row r="564">
-      <c r="A564" s="2" t="n">
+      <c r="A564" s="3" t="n">
         <v>45049</v>
       </c>
       <c r="B564" t="n">
@@ -16376,7 +16406,7 @@
       </c>
     </row>
     <row r="565">
-      <c r="A565" s="2" t="n">
+      <c r="A565" s="3" t="n">
         <v>45050</v>
       </c>
       <c r="B565" t="n">
@@ -16404,7 +16434,7 @@
       </c>
     </row>
     <row r="566">
-      <c r="A566" s="2" t="n">
+      <c r="A566" s="3" t="n">
         <v>45051</v>
       </c>
       <c r="B566" t="n">
@@ -16432,7 +16462,7 @@
       </c>
     </row>
     <row r="567">
-      <c r="A567" s="2" t="n">
+      <c r="A567" s="3" t="n">
         <v>45052</v>
       </c>
       <c r="B567" t="n">
@@ -16460,7 +16490,7 @@
       </c>
     </row>
     <row r="568">
-      <c r="A568" s="2" t="n">
+      <c r="A568" s="3" t="n">
         <v>45053</v>
       </c>
       <c r="B568" t="n">
@@ -16488,7 +16518,7 @@
       </c>
     </row>
     <row r="569">
-      <c r="A569" s="2" t="n">
+      <c r="A569" s="3" t="n">
         <v>45054</v>
       </c>
       <c r="B569" t="n">
@@ -16516,7 +16546,7 @@
       </c>
     </row>
     <row r="570">
-      <c r="A570" s="2" t="n">
+      <c r="A570" s="3" t="n">
         <v>45055</v>
       </c>
       <c r="B570" t="n">
@@ -16544,7 +16574,7 @@
       </c>
     </row>
     <row r="571">
-      <c r="A571" s="2" t="n">
+      <c r="A571" s="3" t="n">
         <v>45056</v>
       </c>
       <c r="B571" t="n">
@@ -16572,7 +16602,7 @@
       </c>
     </row>
     <row r="572">
-      <c r="A572" s="2" t="n">
+      <c r="A572" s="3" t="n">
         <v>45057</v>
       </c>
       <c r="B572" t="n">
@@ -16600,7 +16630,7 @@
       </c>
     </row>
     <row r="573">
-      <c r="A573" s="2" t="n">
+      <c r="A573" s="3" t="n">
         <v>45058</v>
       </c>
       <c r="B573" t="n">
@@ -16628,7 +16658,7 @@
       </c>
     </row>
     <row r="574">
-      <c r="A574" s="2" t="n">
+      <c r="A574" s="3" t="n">
         <v>45059</v>
       </c>
       <c r="B574" t="n">
@@ -16656,7 +16686,7 @@
       </c>
     </row>
     <row r="575">
-      <c r="A575" s="2" t="n">
+      <c r="A575" s="3" t="n">
         <v>45060</v>
       </c>
       <c r="B575" t="n">
@@ -16684,7 +16714,7 @@
       </c>
     </row>
     <row r="576">
-      <c r="A576" s="2" t="n">
+      <c r="A576" s="3" t="n">
         <v>45061</v>
       </c>
       <c r="B576" t="n">
@@ -16712,7 +16742,7 @@
       </c>
     </row>
     <row r="577">
-      <c r="A577" s="2" t="n">
+      <c r="A577" s="3" t="n">
         <v>45062</v>
       </c>
       <c r="B577" t="n">
@@ -16740,7 +16770,7 @@
       </c>
     </row>
     <row r="578">
-      <c r="A578" s="2" t="n">
+      <c r="A578" s="3" t="n">
         <v>45063</v>
       </c>
       <c r="B578" t="n">
@@ -16768,7 +16798,7 @@
       </c>
     </row>
     <row r="579">
-      <c r="A579" s="2" t="n">
+      <c r="A579" s="3" t="n">
         <v>45064</v>
       </c>
       <c r="B579" t="n">
@@ -16796,7 +16826,7 @@
       </c>
     </row>
     <row r="580">
-      <c r="A580" s="2" t="n">
+      <c r="A580" s="3" t="n">
         <v>45065</v>
       </c>
       <c r="B580" t="n">
@@ -16824,7 +16854,7 @@
       </c>
     </row>
     <row r="581">
-      <c r="A581" s="2" t="n">
+      <c r="A581" s="3" t="n">
         <v>45066</v>
       </c>
       <c r="B581" t="n">
@@ -16852,7 +16882,7 @@
       </c>
     </row>
     <row r="582">
-      <c r="A582" s="2" t="n">
+      <c r="A582" s="3" t="n">
         <v>45067</v>
       </c>
       <c r="B582" t="n">
@@ -16880,7 +16910,7 @@
       </c>
     </row>
     <row r="583">
-      <c r="A583" s="2" t="n">
+      <c r="A583" s="3" t="n">
         <v>45068</v>
       </c>
       <c r="B583" t="n">
@@ -16908,7 +16938,7 @@
       </c>
     </row>
     <row r="584">
-      <c r="A584" s="2" t="n">
+      <c r="A584" s="3" t="n">
         <v>45069</v>
       </c>
       <c r="B584" t="n">
@@ -16936,7 +16966,7 @@
       </c>
     </row>
     <row r="585">
-      <c r="A585" s="2" t="n">
+      <c r="A585" s="3" t="n">
         <v>45070</v>
       </c>
       <c r="B585" t="n">
@@ -16964,7 +16994,7 @@
       </c>
     </row>
     <row r="586">
-      <c r="A586" s="2" t="n">
+      <c r="A586" s="3" t="n">
         <v>45071</v>
       </c>
       <c r="B586" t="n">
@@ -16992,7 +17022,7 @@
       </c>
     </row>
     <row r="587">
-      <c r="A587" s="2" t="n">
+      <c r="A587" s="3" t="n">
         <v>45072</v>
       </c>
       <c r="B587" t="n">
@@ -17020,7 +17050,7 @@
       </c>
     </row>
     <row r="588">
-      <c r="A588" s="2" t="n">
+      <c r="A588" s="3" t="n">
         <v>45073</v>
       </c>
       <c r="B588" t="n">
@@ -17048,7 +17078,7 @@
       </c>
     </row>
     <row r="589">
-      <c r="A589" s="2" t="n">
+      <c r="A589" s="3" t="n">
         <v>45074</v>
       </c>
       <c r="B589" t="n">
@@ -17076,7 +17106,7 @@
       </c>
     </row>
     <row r="590">
-      <c r="A590" s="2" t="n">
+      <c r="A590" s="3" t="n">
         <v>45075</v>
       </c>
       <c r="B590" t="n">
@@ -17104,7 +17134,7 @@
       </c>
     </row>
     <row r="591">
-      <c r="A591" s="2" t="n">
+      <c r="A591" s="3" t="n">
         <v>45076</v>
       </c>
       <c r="B591" t="n">
@@ -17132,7 +17162,7 @@
       </c>
     </row>
     <row r="592">
-      <c r="A592" s="2" t="n">
+      <c r="A592" s="3" t="n">
         <v>45077</v>
       </c>
       <c r="B592" t="n">
@@ -17160,7 +17190,7 @@
       </c>
     </row>
     <row r="593">
-      <c r="A593" s="2" t="n">
+      <c r="A593" s="3" t="n">
         <v>45078</v>
       </c>
       <c r="B593" t="n">
@@ -17188,7 +17218,7 @@
       </c>
     </row>
     <row r="594">
-      <c r="A594" s="2" t="n">
+      <c r="A594" s="3" t="n">
         <v>45079</v>
       </c>
       <c r="B594" t="n">
@@ -17216,7 +17246,7 @@
       </c>
     </row>
     <row r="595">
-      <c r="A595" s="2" t="n">
+      <c r="A595" s="3" t="n">
         <v>45080</v>
       </c>
       <c r="B595" t="n">
@@ -17244,7 +17274,7 @@
       </c>
     </row>
     <row r="596">
-      <c r="A596" s="2" t="n">
+      <c r="A596" s="3" t="n">
         <v>45081</v>
       </c>
       <c r="B596" t="n">
@@ -17272,7 +17302,7 @@
       </c>
     </row>
     <row r="597">
-      <c r="A597" s="2" t="n">
+      <c r="A597" s="3" t="n">
         <v>45082</v>
       </c>
       <c r="B597" t="n">
@@ -17300,7 +17330,7 @@
       </c>
     </row>
     <row r="598">
-      <c r="A598" s="2" t="n">
+      <c r="A598" s="3" t="n">
         <v>45083</v>
       </c>
       <c r="B598" t="n">
@@ -17328,7 +17358,7 @@
       </c>
     </row>
     <row r="599">
-      <c r="A599" s="2" t="n">
+      <c r="A599" s="3" t="n">
         <v>45084</v>
       </c>
       <c r="B599" t="n">
@@ -17356,7 +17386,7 @@
       </c>
     </row>
     <row r="600">
-      <c r="A600" s="2" t="n">
+      <c r="A600" s="3" t="n">
         <v>45085</v>
       </c>
       <c r="B600" t="n">
@@ -17384,7 +17414,7 @@
       </c>
     </row>
     <row r="601">
-      <c r="A601" s="2" t="n">
+      <c r="A601" s="3" t="n">
         <v>45086</v>
       </c>
       <c r="B601" t="n">
@@ -17412,7 +17442,7 @@
       </c>
     </row>
     <row r="602">
-      <c r="A602" s="2" t="n">
+      <c r="A602" s="3" t="n">
         <v>45087</v>
       </c>
       <c r="B602" t="n">
@@ -17440,7 +17470,7 @@
       </c>
     </row>
     <row r="603">
-      <c r="A603" s="2" t="n">
+      <c r="A603" s="3" t="n">
         <v>45088</v>
       </c>
       <c r="B603" t="n">
@@ -17468,7 +17498,7 @@
       </c>
     </row>
     <row r="604">
-      <c r="A604" s="2" t="n">
+      <c r="A604" s="3" t="n">
         <v>45089</v>
       </c>
       <c r="B604" t="n">
@@ -17496,7 +17526,7 @@
       </c>
     </row>
     <row r="605">
-      <c r="A605" s="2" t="n">
+      <c r="A605" s="3" t="n">
         <v>45090</v>
       </c>
       <c r="B605" t="n">
@@ -17524,7 +17554,7 @@
       </c>
     </row>
     <row r="606">
-      <c r="A606" s="2" t="n">
+      <c r="A606" s="3" t="n">
         <v>45091</v>
       </c>
       <c r="B606" t="n">
@@ -17552,7 +17582,7 @@
       </c>
     </row>
     <row r="607">
-      <c r="A607" s="2" t="n">
+      <c r="A607" s="3" t="n">
         <v>45092</v>
       </c>
       <c r="B607" t="n">
@@ -17580,7 +17610,7 @@
       </c>
     </row>
     <row r="608">
-      <c r="A608" s="2" t="n">
+      <c r="A608" s="3" t="n">
         <v>45093</v>
       </c>
       <c r="B608" t="n">
@@ -17608,7 +17638,7 @@
       </c>
     </row>
     <row r="609">
-      <c r="A609" s="2" t="n">
+      <c r="A609" s="3" t="n">
         <v>45094</v>
       </c>
       <c r="B609" t="n">
@@ -17636,7 +17666,7 @@
       </c>
     </row>
     <row r="610">
-      <c r="A610" s="2" t="n">
+      <c r="A610" s="3" t="n">
         <v>45095</v>
       </c>
       <c r="B610" t="n">
@@ -17664,7 +17694,7 @@
       </c>
     </row>
     <row r="611">
-      <c r="A611" s="2" t="n">
+      <c r="A611" s="3" t="n">
         <v>45096</v>
       </c>
       <c r="B611" t="n">
@@ -17692,7 +17722,7 @@
       </c>
     </row>
     <row r="612">
-      <c r="A612" s="2" t="n">
+      <c r="A612" s="3" t="n">
         <v>45097</v>
       </c>
       <c r="B612" t="n">
@@ -17720,7 +17750,7 @@
       </c>
     </row>
     <row r="613">
-      <c r="A613" s="2" t="n">
+      <c r="A613" s="3" t="n">
         <v>45098</v>
       </c>
       <c r="B613" t="n">
@@ -17748,7 +17778,7 @@
       </c>
     </row>
     <row r="614">
-      <c r="A614" s="2" t="n">
+      <c r="A614" s="3" t="n">
         <v>45099</v>
       </c>
       <c r="B614" t="n">
@@ -17776,7 +17806,7 @@
       </c>
     </row>
     <row r="615">
-      <c r="A615" s="2" t="n">
+      <c r="A615" s="3" t="n">
         <v>45100</v>
       </c>
       <c r="B615" t="n">
@@ -17804,7 +17834,7 @@
       </c>
     </row>
     <row r="616">
-      <c r="A616" s="2" t="n">
+      <c r="A616" s="3" t="n">
         <v>45101</v>
       </c>
       <c r="B616" t="n">
@@ -17832,7 +17862,7 @@
       </c>
     </row>
     <row r="617">
-      <c r="A617" s="2" t="n">
+      <c r="A617" s="3" t="n">
         <v>45102</v>
       </c>
       <c r="B617" t="n">
@@ -17860,7 +17890,7 @@
       </c>
     </row>
     <row r="618">
-      <c r="A618" s="2" t="n">
+      <c r="A618" s="3" t="n">
         <v>45103</v>
       </c>
       <c r="B618" t="n">
@@ -17888,7 +17918,7 @@
       </c>
     </row>
     <row r="619">
-      <c r="A619" s="2" t="n">
+      <c r="A619" s="3" t="n">
         <v>45104</v>
       </c>
       <c r="B619" t="n">
@@ -17916,7 +17946,7 @@
       </c>
     </row>
     <row r="620">
-      <c r="A620" s="2" t="n">
+      <c r="A620" s="3" t="n">
         <v>45105</v>
       </c>
       <c r="B620" t="n">
@@ -17944,7 +17974,7 @@
       </c>
     </row>
     <row r="621">
-      <c r="A621" s="2" t="n">
+      <c r="A621" s="3" t="n">
         <v>45106</v>
       </c>
       <c r="B621" t="n">
@@ -17972,7 +18002,7 @@
       </c>
     </row>
     <row r="622">
-      <c r="A622" s="2" t="n">
+      <c r="A622" s="3" t="n">
         <v>45107</v>
       </c>
       <c r="B622" t="n">
@@ -18000,7 +18030,7 @@
       </c>
     </row>
     <row r="623">
-      <c r="A623" s="2" t="n">
+      <c r="A623" s="3" t="n">
         <v>45108</v>
       </c>
       <c r="B623" t="n">
@@ -18028,7 +18058,7 @@
       </c>
     </row>
     <row r="624">
-      <c r="A624" s="2" t="n">
+      <c r="A624" s="3" t="n">
         <v>45109</v>
       </c>
       <c r="B624" t="n">
@@ -18056,7 +18086,7 @@
       </c>
     </row>
     <row r="625">
-      <c r="A625" s="2" t="n">
+      <c r="A625" s="3" t="n">
         <v>45110</v>
       </c>
       <c r="B625" t="n">
@@ -18084,7 +18114,7 @@
       </c>
     </row>
     <row r="626">
-      <c r="A626" s="2" t="n">
+      <c r="A626" s="3" t="n">
         <v>45111</v>
       </c>
       <c r="B626" t="n">
@@ -18112,7 +18142,7 @@
       </c>
     </row>
     <row r="627">
-      <c r="A627" s="2" t="n">
+      <c r="A627" s="3" t="n">
         <v>45112</v>
       </c>
       <c r="B627" t="n">
@@ -18140,7 +18170,7 @@
       </c>
     </row>
     <row r="628">
-      <c r="A628" s="2" t="n">
+      <c r="A628" s="3" t="n">
         <v>45113</v>
       </c>
       <c r="B628" t="n">
@@ -18168,7 +18198,7 @@
       </c>
     </row>
     <row r="629">
-      <c r="A629" s="2" t="n">
+      <c r="A629" s="3" t="n">
         <v>45114</v>
       </c>
       <c r="B629" t="n">
@@ -18196,7 +18226,7 @@
       </c>
     </row>
     <row r="630">
-      <c r="A630" s="2" t="n">
+      <c r="A630" s="3" t="n">
         <v>45115</v>
       </c>
       <c r="B630" t="n">
@@ -18224,7 +18254,7 @@
       </c>
     </row>
     <row r="631">
-      <c r="A631" s="2" t="n">
+      <c r="A631" s="3" t="n">
         <v>45116</v>
       </c>
       <c r="B631" t="n">
@@ -18252,7 +18282,7 @@
       </c>
     </row>
     <row r="632">
-      <c r="A632" s="2" t="n">
+      <c r="A632" s="3" t="n">
         <v>45117</v>
       </c>
       <c r="B632" t="n">
@@ -18280,7 +18310,7 @@
       </c>
     </row>
     <row r="633">
-      <c r="A633" s="2" t="n">
+      <c r="A633" s="3" t="n">
         <v>45118</v>
       </c>
       <c r="B633" t="n">
@@ -18308,7 +18338,7 @@
       </c>
     </row>
     <row r="634">
-      <c r="A634" s="2" t="n">
+      <c r="A634" s="3" t="n">
         <v>45119</v>
       </c>
       <c r="B634" t="n">
@@ -18336,7 +18366,7 @@
       </c>
     </row>
     <row r="635">
-      <c r="A635" s="2" t="n">
+      <c r="A635" s="3" t="n">
         <v>45120</v>
       </c>
       <c r="B635" t="n">
@@ -18364,7 +18394,7 @@
       </c>
     </row>
     <row r="636">
-      <c r="A636" s="2" t="n">
+      <c r="A636" s="3" t="n">
         <v>45121</v>
       </c>
       <c r="B636" t="n">
@@ -18392,7 +18422,7 @@
       </c>
     </row>
     <row r="637">
-      <c r="A637" s="2" t="n">
+      <c r="A637" s="3" t="n">
         <v>45122</v>
       </c>
       <c r="B637" t="n">
@@ -18420,7 +18450,7 @@
       </c>
     </row>
     <row r="638">
-      <c r="A638" s="2" t="n">
+      <c r="A638" s="3" t="n">
         <v>45123</v>
       </c>
       <c r="B638" t="n">
@@ -18448,7 +18478,7 @@
       </c>
     </row>
     <row r="639">
-      <c r="A639" s="2" t="n">
+      <c r="A639" s="3" t="n">
         <v>45124</v>
       </c>
       <c r="B639" t="n">
@@ -18476,7 +18506,7 @@
       </c>
     </row>
     <row r="640">
-      <c r="A640" s="2" t="n">
+      <c r="A640" s="3" t="n">
         <v>45125</v>
       </c>
       <c r="B640" t="n">
@@ -18504,7 +18534,7 @@
       </c>
     </row>
     <row r="641">
-      <c r="A641" s="2" t="n">
+      <c r="A641" s="3" t="n">
         <v>45126</v>
       </c>
       <c r="B641" t="n">
@@ -18532,7 +18562,7 @@
       </c>
     </row>
     <row r="642">
-      <c r="A642" s="2" t="n">
+      <c r="A642" s="3" t="n">
         <v>45127</v>
       </c>
       <c r="B642" t="n">
@@ -18560,7 +18590,7 @@
       </c>
     </row>
     <row r="643">
-      <c r="A643" s="2" t="n">
+      <c r="A643" s="3" t="n">
         <v>45128</v>
       </c>
       <c r="B643" t="n">
@@ -18588,7 +18618,7 @@
       </c>
     </row>
     <row r="644">
-      <c r="A644" s="2" t="n">
+      <c r="A644" s="3" t="n">
         <v>45129</v>
       </c>
       <c r="B644" t="n">
@@ -18616,7 +18646,7 @@
       </c>
     </row>
     <row r="645">
-      <c r="A645" s="2" t="n">
+      <c r="A645" s="3" t="n">
         <v>45130</v>
       </c>
       <c r="B645" t="n">
@@ -18644,7 +18674,7 @@
       </c>
     </row>
     <row r="646">
-      <c r="A646" s="2" t="n">
+      <c r="A646" s="3" t="n">
         <v>45131</v>
       </c>
       <c r="B646" t="n">
@@ -18672,7 +18702,7 @@
       </c>
     </row>
     <row r="647">
-      <c r="A647" s="2" t="n">
+      <c r="A647" s="3" t="n">
         <v>45132</v>
       </c>
       <c r="B647" t="n">
@@ -18700,7 +18730,7 @@
       </c>
     </row>
     <row r="648">
-      <c r="A648" s="2" t="n">
+      <c r="A648" s="3" t="n">
         <v>45133</v>
       </c>
       <c r="B648" t="n">
@@ -18728,7 +18758,7 @@
       </c>
     </row>
     <row r="649">
-      <c r="A649" s="2" t="n">
+      <c r="A649" s="3" t="n">
         <v>45134</v>
       </c>
       <c r="B649" t="n">
@@ -18756,7 +18786,7 @@
       </c>
     </row>
     <row r="650">
-      <c r="A650" s="2" t="n">
+      <c r="A650" s="3" t="n">
         <v>45135</v>
       </c>
       <c r="B650" t="n">
@@ -18784,7 +18814,7 @@
       </c>
     </row>
     <row r="651">
-      <c r="A651" s="2" t="n">
+      <c r="A651" s="3" t="n">
         <v>45136</v>
       </c>
       <c r="B651" t="n">
@@ -18812,7 +18842,7 @@
       </c>
     </row>
     <row r="652">
-      <c r="A652" s="2" t="n">
+      <c r="A652" s="3" t="n">
         <v>45137</v>
       </c>
       <c r="B652" t="n">
@@ -18840,7 +18870,7 @@
       </c>
     </row>
     <row r="653">
-      <c r="A653" s="2" t="n">
+      <c r="A653" s="3" t="n">
         <v>45138</v>
       </c>
       <c r="B653" t="n">
@@ -18868,7 +18898,7 @@
       </c>
     </row>
     <row r="654">
-      <c r="A654" s="2" t="n">
+      <c r="A654" s="3" t="n">
         <v>45139</v>
       </c>
       <c r="B654" t="n">
@@ -18896,7 +18926,7 @@
       </c>
     </row>
     <row r="655">
-      <c r="A655" s="2" t="n">
+      <c r="A655" s="3" t="n">
         <v>45140</v>
       </c>
       <c r="B655" t="n">
@@ -18924,7 +18954,7 @@
       </c>
     </row>
     <row r="656">
-      <c r="A656" s="2" t="n">
+      <c r="A656" s="3" t="n">
         <v>45141</v>
       </c>
       <c r="B656" t="n">
@@ -18952,7 +18982,7 @@
       </c>
     </row>
     <row r="657">
-      <c r="A657" s="2" t="n">
+      <c r="A657" s="3" t="n">
         <v>45142</v>
       </c>
       <c r="B657" t="n">
@@ -18980,7 +19010,7 @@
       </c>
     </row>
     <row r="658">
-      <c r="A658" s="2" t="n">
+      <c r="A658" s="3" t="n">
         <v>45143</v>
       </c>
       <c r="B658" t="n">
@@ -19008,7 +19038,7 @@
       </c>
     </row>
     <row r="659">
-      <c r="A659" s="2" t="n">
+      <c r="A659" s="3" t="n">
         <v>45144</v>
       </c>
       <c r="B659" t="n">
@@ -19036,7 +19066,7 @@
       </c>
     </row>
     <row r="660">
-      <c r="A660" s="2" t="n">
+      <c r="A660" s="3" t="n">
         <v>45145</v>
       </c>
       <c r="B660" t="n">
@@ -19064,7 +19094,7 @@
       </c>
     </row>
     <row r="661">
-      <c r="A661" s="2" t="n">
+      <c r="A661" s="3" t="n">
         <v>45146</v>
       </c>
       <c r="B661" t="n">
@@ -19092,7 +19122,7 @@
       </c>
     </row>
     <row r="662">
-      <c r="A662" s="2" t="n">
+      <c r="A662" s="3" t="n">
         <v>45147</v>
       </c>
       <c r="B662" t="n">
@@ -19120,7 +19150,7 @@
       </c>
     </row>
     <row r="663">
-      <c r="A663" s="2" t="n">
+      <c r="A663" s="3" t="n">
         <v>45148</v>
       </c>
       <c r="B663" t="n">
@@ -19148,7 +19178,7 @@
       </c>
     </row>
     <row r="664">
-      <c r="A664" s="2" t="n">
+      <c r="A664" s="3" t="n">
         <v>45149</v>
       </c>
       <c r="B664" t="n">
@@ -19176,7 +19206,7 @@
       </c>
     </row>
     <row r="665">
-      <c r="A665" s="2" t="n">
+      <c r="A665" s="3" t="n">
         <v>45150</v>
       </c>
       <c r="B665" t="n">
@@ -19204,7 +19234,7 @@
       </c>
     </row>
     <row r="666">
-      <c r="A666" s="2" t="n">
+      <c r="A666" s="3" t="n">
         <v>45151</v>
       </c>
       <c r="B666" t="n">
@@ -19232,7 +19262,7 @@
       </c>
     </row>
     <row r="667">
-      <c r="A667" s="2" t="n">
+      <c r="A667" s="3" t="n">
         <v>45152</v>
       </c>
       <c r="B667" t="n">
@@ -19260,7 +19290,7 @@
       </c>
     </row>
     <row r="668">
-      <c r="A668" s="2" t="n">
+      <c r="A668" s="3" t="n">
         <v>45153</v>
       </c>
       <c r="B668" t="n">
@@ -19288,7 +19318,7 @@
       </c>
     </row>
     <row r="669">
-      <c r="A669" s="2" t="n">
+      <c r="A669" s="3" t="n">
         <v>45154</v>
       </c>
       <c r="B669" t="n">
@@ -19316,7 +19346,7 @@
       </c>
     </row>
     <row r="670">
-      <c r="A670" s="2" t="n">
+      <c r="A670" s="3" t="n">
         <v>45155</v>
       </c>
       <c r="B670" t="n">
@@ -19344,7 +19374,7 @@
       </c>
     </row>
     <row r="671">
-      <c r="A671" s="2" t="n">
+      <c r="A671" s="3" t="n">
         <v>45156</v>
       </c>
       <c r="B671" t="n">
@@ -19372,7 +19402,7 @@
       </c>
     </row>
     <row r="672">
-      <c r="A672" s="2" t="n">
+      <c r="A672" s="3" t="n">
         <v>45157</v>
       </c>
       <c r="B672" t="n">
@@ -19400,7 +19430,7 @@
       </c>
     </row>
     <row r="673">
-      <c r="A673" s="2" t="n">
+      <c r="A673" s="3" t="n">
         <v>45158</v>
       </c>
       <c r="B673" t="n">
@@ -19428,7 +19458,7 @@
       </c>
     </row>
     <row r="674">
-      <c r="A674" s="2" t="n">
+      <c r="A674" s="3" t="n">
         <v>45159</v>
       </c>
       <c r="B674" t="n">
@@ -19456,7 +19486,7 @@
       </c>
     </row>
     <row r="675">
-      <c r="A675" s="2" t="n">
+      <c r="A675" s="3" t="n">
         <v>45160</v>
       </c>
       <c r="B675" t="n">
@@ -19484,7 +19514,7 @@
       </c>
     </row>
     <row r="676">
-      <c r="A676" s="2" t="n">
+      <c r="A676" s="3" t="n">
         <v>45161</v>
       </c>
       <c r="B676" t="n">
@@ -19512,7 +19542,7 @@
       </c>
     </row>
     <row r="677">
-      <c r="A677" s="2" t="n">
+      <c r="A677" s="3" t="n">
         <v>45162</v>
       </c>
       <c r="B677" t="n">
@@ -19540,7 +19570,7 @@
       </c>
     </row>
     <row r="678">
-      <c r="A678" s="2" t="n">
+      <c r="A678" s="3" t="n">
         <v>45163</v>
       </c>
       <c r="B678" t="n">
@@ -19568,7 +19598,7 @@
       </c>
     </row>
     <row r="679">
-      <c r="A679" s="2" t="n">
+      <c r="A679" s="3" t="n">
         <v>45164</v>
       </c>
       <c r="B679" t="n">
@@ -19596,7 +19626,7 @@
       </c>
     </row>
     <row r="680">
-      <c r="A680" s="2" t="n">
+      <c r="A680" s="3" t="n">
         <v>45165</v>
       </c>
       <c r="B680" t="n">
@@ -19624,7 +19654,7 @@
       </c>
     </row>
     <row r="681">
-      <c r="A681" s="2" t="n">
+      <c r="A681" s="3" t="n">
         <v>45166</v>
       </c>
       <c r="B681" t="n">
@@ -19652,7 +19682,7 @@
       </c>
     </row>
     <row r="682">
-      <c r="A682" s="2" t="n">
+      <c r="A682" s="3" t="n">
         <v>45167</v>
       </c>
       <c r="B682" t="n">
@@ -19680,7 +19710,7 @@
       </c>
     </row>
     <row r="683">
-      <c r="A683" s="2" t="n">
+      <c r="A683" s="3" t="n">
         <v>45168</v>
       </c>
       <c r="B683" t="n">
@@ -19708,7 +19738,7 @@
       </c>
     </row>
     <row r="684">
-      <c r="A684" s="2" t="n">
+      <c r="A684" s="3" t="n">
         <v>45169</v>
       </c>
       <c r="B684" t="n">
@@ -19736,7 +19766,7 @@
       </c>
     </row>
     <row r="685">
-      <c r="A685" s="2" t="n">
+      <c r="A685" s="3" t="n">
         <v>45170</v>
       </c>
       <c r="B685" t="n">
@@ -19764,7 +19794,7 @@
       </c>
     </row>
     <row r="686">
-      <c r="A686" s="2" t="n">
+      <c r="A686" s="3" t="n">
         <v>45171</v>
       </c>
       <c r="B686" t="n">
@@ -19792,7 +19822,7 @@
       </c>
     </row>
     <row r="687">
-      <c r="A687" s="2" t="n">
+      <c r="A687" s="3" t="n">
         <v>45172</v>
       </c>
       <c r="B687" t="n">
@@ -19820,7 +19850,7 @@
       </c>
     </row>
     <row r="688">
-      <c r="A688" s="2" t="n">
+      <c r="A688" s="3" t="n">
         <v>45173</v>
       </c>
       <c r="B688" t="n">
@@ -19848,7 +19878,7 @@
       </c>
     </row>
     <row r="689">
-      <c r="A689" s="2" t="n">
+      <c r="A689" s="3" t="n">
         <v>45174</v>
       </c>
       <c r="B689" t="n">
@@ -19876,7 +19906,7 @@
       </c>
     </row>
     <row r="690">
-      <c r="A690" s="2" t="n">
+      <c r="A690" s="3" t="n">
         <v>45175</v>
       </c>
       <c r="B690" t="n">
@@ -19904,7 +19934,7 @@
       </c>
     </row>
     <row r="691">
-      <c r="A691" s="2" t="n">
+      <c r="A691" s="3" t="n">
         <v>45176</v>
       </c>
       <c r="B691" t="n">
@@ -19932,7 +19962,7 @@
       </c>
     </row>
     <row r="692">
-      <c r="A692" s="2" t="n">
+      <c r="A692" s="3" t="n">
         <v>45177</v>
       </c>
       <c r="B692" t="n">
@@ -19960,7 +19990,7 @@
       </c>
     </row>
     <row r="693">
-      <c r="A693" s="2" t="n">
+      <c r="A693" s="3" t="n">
         <v>45178</v>
       </c>
       <c r="B693" t="n">
@@ -19988,7 +20018,7 @@
       </c>
     </row>
     <row r="694">
-      <c r="A694" s="2" t="n">
+      <c r="A694" s="3" t="n">
         <v>45179</v>
       </c>
       <c r="B694" t="n">
@@ -20016,7 +20046,7 @@
       </c>
     </row>
     <row r="695">
-      <c r="A695" s="2" t="n">
+      <c r="A695" s="3" t="n">
         <v>45180</v>
       </c>
       <c r="B695" t="n">
@@ -20044,7 +20074,7 @@
       </c>
     </row>
     <row r="696">
-      <c r="A696" s="2" t="n">
+      <c r="A696" s="3" t="n">
         <v>45181</v>
       </c>
       <c r="B696" t="n">
@@ -20072,7 +20102,7 @@
       </c>
     </row>
     <row r="697">
-      <c r="A697" s="2" t="n">
+      <c r="A697" s="3" t="n">
         <v>45182</v>
       </c>
       <c r="B697" t="n">
@@ -20100,7 +20130,7 @@
       </c>
     </row>
     <row r="698">
-      <c r="A698" s="2" t="n">
+      <c r="A698" s="3" t="n">
         <v>45183</v>
       </c>
       <c r="B698" t="n">
@@ -20128,7 +20158,7 @@
       </c>
     </row>
     <row r="699">
-      <c r="A699" s="2" t="n">
+      <c r="A699" s="3" t="n">
         <v>45184</v>
       </c>
       <c r="B699" t="n">
@@ -20156,7 +20186,7 @@
       </c>
     </row>
     <row r="700">
-      <c r="A700" s="2" t="n">
+      <c r="A700" s="3" t="n">
         <v>45185</v>
       </c>
       <c r="B700" t="n">
@@ -20184,7 +20214,7 @@
       </c>
     </row>
     <row r="701">
-      <c r="A701" s="2" t="n">
+      <c r="A701" s="3" t="n">
         <v>45186</v>
       </c>
       <c r="B701" t="n">
@@ -20212,7 +20242,7 @@
       </c>
     </row>
     <row r="702">
-      <c r="A702" s="2" t="n">
+      <c r="A702" s="3" t="n">
         <v>45187</v>
       </c>
       <c r="B702" t="n">
@@ -20240,7 +20270,7 @@
       </c>
     </row>
     <row r="703">
-      <c r="A703" s="2" t="n">
+      <c r="A703" s="3" t="n">
         <v>45188</v>
       </c>
       <c r="B703" t="n">
@@ -20268,7 +20298,7 @@
       </c>
     </row>
     <row r="704">
-      <c r="A704" s="2" t="n">
+      <c r="A704" s="3" t="n">
         <v>45189</v>
       </c>
       <c r="B704" t="n">
@@ -20296,7 +20326,7 @@
       </c>
     </row>
     <row r="705">
-      <c r="A705" s="2" t="n">
+      <c r="A705" s="3" t="n">
         <v>45190</v>
       </c>
       <c r="B705" t="n">
@@ -20324,7 +20354,7 @@
       </c>
     </row>
     <row r="706">
-      <c r="A706" s="2" t="n">
+      <c r="A706" s="3" t="n">
         <v>45191</v>
       </c>
       <c r="B706" t="n">
@@ -20352,7 +20382,7 @@
       </c>
     </row>
     <row r="707">
-      <c r="A707" s="2" t="n">
+      <c r="A707" s="3" t="n">
         <v>45192</v>
       </c>
       <c r="B707" t="n">
@@ -20380,7 +20410,7 @@
       </c>
     </row>
     <row r="708">
-      <c r="A708" s="2" t="n">
+      <c r="A708" s="3" t="n">
         <v>45193</v>
       </c>
       <c r="B708" t="n">
@@ -20408,7 +20438,7 @@
       </c>
     </row>
     <row r="709">
-      <c r="A709" s="2" t="n">
+      <c r="A709" s="3" t="n">
         <v>45194</v>
       </c>
       <c r="B709" t="n">
@@ -20436,7 +20466,7 @@
       </c>
     </row>
     <row r="710">
-      <c r="A710" s="2" t="n">
+      <c r="A710" s="3" t="n">
         <v>45195</v>
       </c>
       <c r="B710" t="n">
@@ -20464,7 +20494,7 @@
       </c>
     </row>
     <row r="711">
-      <c r="A711" s="2" t="n">
+      <c r="A711" s="3" t="n">
         <v>45196</v>
       </c>
       <c r="B711" t="n">
@@ -20492,7 +20522,7 @@
       </c>
     </row>
     <row r="712">
-      <c r="A712" s="2" t="n">
+      <c r="A712" s="3" t="n">
         <v>45197</v>
       </c>
       <c r="B712" t="n">
@@ -20520,7 +20550,7 @@
       </c>
     </row>
     <row r="713">
-      <c r="A713" s="2" t="n">
+      <c r="A713" s="3" t="n">
         <v>45198</v>
       </c>
       <c r="B713" t="n">
@@ -20548,7 +20578,7 @@
       </c>
     </row>
     <row r="714">
-      <c r="A714" s="2" t="n">
+      <c r="A714" s="3" t="n">
         <v>45199</v>
       </c>
       <c r="B714" t="n">
@@ -20576,7 +20606,7 @@
       </c>
     </row>
     <row r="715">
-      <c r="A715" s="2" t="n">
+      <c r="A715" s="3" t="n">
         <v>45200</v>
       </c>
       <c r="B715" t="n">
@@ -20604,7 +20634,7 @@
       </c>
     </row>
     <row r="716">
-      <c r="A716" s="2" t="n">
+      <c r="A716" s="3" t="n">
         <v>45201</v>
       </c>
       <c r="B716" t="n">
@@ -20632,7 +20662,7 @@
       </c>
     </row>
     <row r="717">
-      <c r="A717" s="2" t="n">
+      <c r="A717" s="3" t="n">
         <v>45202</v>
       </c>
       <c r="B717" t="n">
@@ -20660,7 +20690,7 @@
       </c>
     </row>
     <row r="718">
-      <c r="A718" s="2" t="n">
+      <c r="A718" s="3" t="n">
         <v>45203</v>
       </c>
       <c r="B718" t="n">
@@ -20688,7 +20718,7 @@
       </c>
     </row>
     <row r="719">
-      <c r="A719" s="2" t="n">
+      <c r="A719" s="3" t="n">
         <v>45204</v>
       </c>
       <c r="B719" t="n">
@@ -20716,7 +20746,7 @@
       </c>
     </row>
     <row r="720">
-      <c r="A720" s="2" t="n">
+      <c r="A720" s="3" t="n">
         <v>45205</v>
       </c>
       <c r="B720" t="n">
@@ -20744,7 +20774,7 @@
       </c>
     </row>
     <row r="721">
-      <c r="A721" s="2" t="n">
+      <c r="A721" s="3" t="n">
         <v>45206</v>
       </c>
       <c r="B721" t="n">
@@ -20772,7 +20802,7 @@
       </c>
     </row>
     <row r="722">
-      <c r="A722" s="2" t="n">
+      <c r="A722" s="3" t="n">
         <v>45207</v>
       </c>
       <c r="B722" t="n">
@@ -20800,7 +20830,7 @@
       </c>
     </row>
     <row r="723">
-      <c r="A723" s="2" t="n">
+      <c r="A723" s="3" t="n">
         <v>45208</v>
       </c>
       <c r="B723" t="n">
@@ -20828,7 +20858,7 @@
       </c>
     </row>
     <row r="724">
-      <c r="A724" s="2" t="n">
+      <c r="A724" s="3" t="n">
         <v>45209</v>
       </c>
       <c r="B724" t="n">
@@ -20856,7 +20886,7 @@
       </c>
     </row>
     <row r="725">
-      <c r="A725" s="2" t="n">
+      <c r="A725" s="3" t="n">
         <v>45210</v>
       </c>
       <c r="B725" t="n">
@@ -20884,7 +20914,7 @@
       </c>
     </row>
     <row r="726">
-      <c r="A726" s="2" t="n">
+      <c r="A726" s="3" t="n">
         <v>45211</v>
       </c>
       <c r="B726" t="n">
@@ -20912,7 +20942,7 @@
       </c>
     </row>
     <row r="727">
-      <c r="A727" s="2" t="n">
+      <c r="A727" s="3" t="n">
         <v>45212</v>
       </c>
       <c r="B727" t="n">
@@ -20940,7 +20970,7 @@
       </c>
     </row>
     <row r="728">
-      <c r="A728" s="2" t="n">
+      <c r="A728" s="3" t="n">
         <v>45213</v>
       </c>
       <c r="B728" t="n">
@@ -20968,7 +20998,7 @@
       </c>
     </row>
     <row r="729">
-      <c r="A729" s="2" t="n">
+      <c r="A729" s="3" t="n">
         <v>45214</v>
       </c>
       <c r="B729" t="n">
@@ -20996,7 +21026,7 @@
       </c>
     </row>
     <row r="730">
-      <c r="A730" s="2" t="n">
+      <c r="A730" s="3" t="n">
         <v>45215</v>
       </c>
       <c r="B730" t="n">
@@ -21024,7 +21054,7 @@
       </c>
     </row>
     <row r="731">
-      <c r="A731" s="2" t="n">
+      <c r="A731" s="3" t="n">
         <v>45216</v>
       </c>
       <c r="B731" t="n">
@@ -21052,7 +21082,7 @@
       </c>
     </row>
     <row r="732">
-      <c r="A732" s="2" t="n">
+      <c r="A732" s="3" t="n">
         <v>45217</v>
       </c>
       <c r="B732" t="n">
@@ -21080,7 +21110,7 @@
       </c>
     </row>
     <row r="733">
-      <c r="A733" s="2" t="n">
+      <c r="A733" s="3" t="n">
         <v>45218</v>
       </c>
       <c r="B733" t="n">
@@ -21108,7 +21138,7 @@
       </c>
     </row>
     <row r="734">
-      <c r="A734" s="2" t="n">
+      <c r="A734" s="3" t="n">
         <v>44853</v>
       </c>
       <c r="B734" t="n">
@@ -21136,7 +21166,7 @@
       </c>
     </row>
     <row r="735">
-      <c r="A735" s="2" t="n">
+      <c r="A735" s="3" t="n">
         <v>44854</v>
       </c>
       <c r="B735" t="n">
@@ -21164,7 +21194,7 @@
       </c>
     </row>
     <row r="736">
-      <c r="A736" s="2" t="n">
+      <c r="A736" s="3" t="n">
         <v>44855</v>
       </c>
       <c r="B736" t="n">
@@ -21192,7 +21222,7 @@
       </c>
     </row>
     <row r="737">
-      <c r="A737" s="2" t="n">
+      <c r="A737" s="3" t="n">
         <v>44856</v>
       </c>
       <c r="B737" t="n">
@@ -21220,7 +21250,7 @@
       </c>
     </row>
     <row r="738">
-      <c r="A738" s="2" t="n">
+      <c r="A738" s="3" t="n">
         <v>44857</v>
       </c>
       <c r="B738" t="n">
@@ -21248,7 +21278,7 @@
       </c>
     </row>
     <row r="739">
-      <c r="A739" s="2" t="n">
+      <c r="A739" s="3" t="n">
         <v>44858</v>
       </c>
       <c r="B739" t="n">
@@ -21276,7 +21306,7 @@
       </c>
     </row>
     <row r="740">
-      <c r="A740" s="2" t="n">
+      <c r="A740" s="3" t="n">
         <v>44859</v>
       </c>
       <c r="B740" t="n">
@@ -21304,7 +21334,7 @@
       </c>
     </row>
     <row r="741">
-      <c r="A741" s="2" t="n">
+      <c r="A741" s="3" t="n">
         <v>44860</v>
       </c>
       <c r="B741" t="n">
@@ -21332,7 +21362,7 @@
       </c>
     </row>
     <row r="742">
-      <c r="A742" s="2" t="n">
+      <c r="A742" s="3" t="n">
         <v>44861</v>
       </c>
       <c r="B742" t="n">
@@ -21360,7 +21390,7 @@
       </c>
     </row>
     <row r="743">
-      <c r="A743" s="2" t="n">
+      <c r="A743" s="3" t="n">
         <v>44862</v>
       </c>
       <c r="B743" t="n">
@@ -21388,7 +21418,7 @@
       </c>
     </row>
     <row r="744">
-      <c r="A744" s="2" t="n">
+      <c r="A744" s="3" t="n">
         <v>44863</v>
       </c>
       <c r="B744" t="n">
@@ -21416,7 +21446,7 @@
       </c>
     </row>
     <row r="745">
-      <c r="A745" s="2" t="n">
+      <c r="A745" s="3" t="n">
         <v>44864</v>
       </c>
       <c r="B745" t="n">
@@ -21444,7 +21474,7 @@
       </c>
     </row>
     <row r="746">
-      <c r="A746" s="2" t="n">
+      <c r="A746" s="3" t="n">
         <v>44865</v>
       </c>
       <c r="B746" t="n">
@@ -21472,7 +21502,7 @@
       </c>
     </row>
     <row r="747">
-      <c r="A747" s="2" t="n">
+      <c r="A747" s="3" t="n">
         <v>44866</v>
       </c>
       <c r="B747" t="n">
@@ -21500,7 +21530,7 @@
       </c>
     </row>
     <row r="748">
-      <c r="A748" s="2" t="n">
+      <c r="A748" s="3" t="n">
         <v>44867</v>
       </c>
       <c r="B748" t="n">
@@ -21528,7 +21558,7 @@
       </c>
     </row>
     <row r="749">
-      <c r="A749" s="2" t="n">
+      <c r="A749" s="3" t="n">
         <v>44868</v>
       </c>
       <c r="B749" t="n">
@@ -21556,7 +21586,7 @@
       </c>
     </row>
     <row r="750">
-      <c r="A750" s="2" t="n">
+      <c r="A750" s="3" t="n">
         <v>44869</v>
       </c>
       <c r="B750" t="n">
@@ -21584,7 +21614,7 @@
       </c>
     </row>
     <row r="751">
-      <c r="A751" s="2" t="n">
+      <c r="A751" s="3" t="n">
         <v>44870</v>
       </c>
       <c r="B751" t="n">
@@ -21612,7 +21642,7 @@
       </c>
     </row>
     <row r="752">
-      <c r="A752" s="2" t="n">
+      <c r="A752" s="3" t="n">
         <v>44871</v>
       </c>
       <c r="B752" t="n">
@@ -21640,7 +21670,7 @@
       </c>
     </row>
     <row r="753">
-      <c r="A753" s="2" t="n">
+      <c r="A753" s="3" t="n">
         <v>44872</v>
       </c>
       <c r="B753" t="n">
@@ -21668,7 +21698,7 @@
       </c>
     </row>
     <row r="754">
-      <c r="A754" s="2" t="n">
+      <c r="A754" s="3" t="n">
         <v>44873</v>
       </c>
       <c r="B754" t="n">
@@ -21696,7 +21726,7 @@
       </c>
     </row>
     <row r="755">
-      <c r="A755" s="2" t="n">
+      <c r="A755" s="3" t="n">
         <v>44874</v>
       </c>
       <c r="B755" t="n">
@@ -21724,7 +21754,7 @@
       </c>
     </row>
     <row r="756">
-      <c r="A756" s="2" t="n">
+      <c r="A756" s="3" t="n">
         <v>44875</v>
       </c>
       <c r="B756" t="n">
@@ -21752,7 +21782,7 @@
       </c>
     </row>
     <row r="757">
-      <c r="A757" s="2" t="n">
+      <c r="A757" s="3" t="n">
         <v>44876</v>
       </c>
       <c r="B757" t="n">
@@ -21780,7 +21810,7 @@
       </c>
     </row>
     <row r="758">
-      <c r="A758" s="2" t="n">
+      <c r="A758" s="3" t="n">
         <v>44877</v>
       </c>
       <c r="B758" t="n">
@@ -21808,7 +21838,7 @@
       </c>
     </row>
     <row r="759">
-      <c r="A759" s="2" t="n">
+      <c r="A759" s="3" t="n">
         <v>44878</v>
       </c>
       <c r="B759" t="n">
@@ -21836,7 +21866,7 @@
       </c>
     </row>
     <row r="760">
-      <c r="A760" s="2" t="n">
+      <c r="A760" s="3" t="n">
         <v>44879</v>
       </c>
       <c r="B760" t="n">
@@ -21864,7 +21894,7 @@
       </c>
     </row>
     <row r="761">
-      <c r="A761" s="2" t="n">
+      <c r="A761" s="3" t="n">
         <v>44880</v>
       </c>
       <c r="B761" t="n">
@@ -21892,7 +21922,7 @@
       </c>
     </row>
     <row r="762">
-      <c r="A762" s="2" t="n">
+      <c r="A762" s="3" t="n">
         <v>44881</v>
       </c>
       <c r="B762" t="n">
@@ -21920,7 +21950,7 @@
       </c>
     </row>
     <row r="763">
-      <c r="A763" s="2" t="n">
+      <c r="A763" s="3" t="n">
         <v>44882</v>
       </c>
       <c r="B763" t="n">
@@ -21948,7 +21978,7 @@
       </c>
     </row>
     <row r="764">
-      <c r="A764" s="2" t="n">
+      <c r="A764" s="3" t="n">
         <v>44883</v>
       </c>
       <c r="B764" t="n">
@@ -21976,7 +22006,7 @@
       </c>
     </row>
     <row r="765">
-      <c r="A765" s="2" t="n">
+      <c r="A765" s="3" t="n">
         <v>44884</v>
       </c>
       <c r="B765" t="n">
@@ -22004,7 +22034,7 @@
       </c>
     </row>
     <row r="766">
-      <c r="A766" s="2" t="n">
+      <c r="A766" s="3" t="n">
         <v>44885</v>
       </c>
       <c r="B766" t="n">
@@ -22032,7 +22062,7 @@
       </c>
     </row>
     <row r="767">
-      <c r="A767" s="2" t="n">
+      <c r="A767" s="3" t="n">
         <v>44886</v>
       </c>
       <c r="B767" t="n">
@@ -22060,7 +22090,7 @@
       </c>
     </row>
     <row r="768">
-      <c r="A768" s="2" t="n">
+      <c r="A768" s="3" t="n">
         <v>44887</v>
       </c>
       <c r="B768" t="n">
@@ -22088,7 +22118,7 @@
       </c>
     </row>
     <row r="769">
-      <c r="A769" s="2" t="n">
+      <c r="A769" s="3" t="n">
         <v>44888</v>
       </c>
       <c r="B769" t="n">
@@ -22116,7 +22146,7 @@
       </c>
     </row>
     <row r="770">
-      <c r="A770" s="2" t="n">
+      <c r="A770" s="3" t="n">
         <v>44889</v>
       </c>
       <c r="B770" t="n">
@@ -22144,7 +22174,7 @@
       </c>
     </row>
     <row r="771">
-      <c r="A771" s="2" t="n">
+      <c r="A771" s="3" t="n">
         <v>44890</v>
       </c>
       <c r="B771" t="n">
@@ -22172,7 +22202,7 @@
       </c>
     </row>
     <row r="772">
-      <c r="A772" s="2" t="n">
+      <c r="A772" s="3" t="n">
         <v>44891</v>
       </c>
       <c r="B772" t="n">
@@ -22200,7 +22230,7 @@
       </c>
     </row>
     <row r="773">
-      <c r="A773" s="2" t="n">
+      <c r="A773" s="3" t="n">
         <v>44892</v>
       </c>
       <c r="B773" t="n">
@@ -22228,7 +22258,7 @@
       </c>
     </row>
     <row r="774">
-      <c r="A774" s="2" t="n">
+      <c r="A774" s="3" t="n">
         <v>44893</v>
       </c>
       <c r="B774" t="n">
@@ -22256,7 +22286,7 @@
       </c>
     </row>
     <row r="775">
-      <c r="A775" s="2" t="n">
+      <c r="A775" s="3" t="n">
         <v>44894</v>
       </c>
       <c r="B775" t="n">
@@ -22284,7 +22314,7 @@
       </c>
     </row>
     <row r="776">
-      <c r="A776" s="2" t="n">
+      <c r="A776" s="3" t="n">
         <v>44895</v>
       </c>
       <c r="B776" t="n">
@@ -22312,7 +22342,7 @@
       </c>
     </row>
     <row r="777">
-      <c r="A777" s="2" t="n">
+      <c r="A777" s="3" t="n">
         <v>44896</v>
       </c>
       <c r="B777" t="n">
@@ -22340,7 +22370,7 @@
       </c>
     </row>
     <row r="778">
-      <c r="A778" s="2" t="n">
+      <c r="A778" s="3" t="n">
         <v>44897</v>
       </c>
       <c r="B778" t="n">
@@ -22368,7 +22398,7 @@
       </c>
     </row>
     <row r="779">
-      <c r="A779" s="2" t="n">
+      <c r="A779" s="3" t="n">
         <v>44898</v>
       </c>
       <c r="B779" t="n">
@@ -22396,7 +22426,7 @@
       </c>
     </row>
     <row r="780">
-      <c r="A780" s="2" t="n">
+      <c r="A780" s="3" t="n">
         <v>44899</v>
       </c>
       <c r="B780" t="n">
@@ -22424,7 +22454,7 @@
       </c>
     </row>
     <row r="781">
-      <c r="A781" s="2" t="n">
+      <c r="A781" s="3" t="n">
         <v>44900</v>
       </c>
       <c r="B781" t="n">
@@ -22452,7 +22482,7 @@
       </c>
     </row>
     <row r="782">
-      <c r="A782" s="2" t="n">
+      <c r="A782" s="3" t="n">
         <v>44901</v>
       </c>
       <c r="B782" t="n">
@@ -22480,7 +22510,7 @@
       </c>
     </row>
     <row r="783">
-      <c r="A783" s="2" t="n">
+      <c r="A783" s="3" t="n">
         <v>44902</v>
       </c>
       <c r="B783" t="n">
@@ -22508,7 +22538,7 @@
       </c>
     </row>
     <row r="784">
-      <c r="A784" s="2" t="n">
+      <c r="A784" s="3" t="n">
         <v>44903</v>
       </c>
       <c r="B784" t="n">
@@ -22536,7 +22566,7 @@
       </c>
     </row>
     <row r="785">
-      <c r="A785" s="2" t="n">
+      <c r="A785" s="3" t="n">
         <v>44904</v>
       </c>
       <c r="B785" t="n">
@@ -22564,7 +22594,7 @@
       </c>
     </row>
     <row r="786">
-      <c r="A786" s="2" t="n">
+      <c r="A786" s="3" t="n">
         <v>44905</v>
       </c>
       <c r="B786" t="n">
@@ -22592,7 +22622,7 @@
       </c>
     </row>
     <row r="787">
-      <c r="A787" s="2" t="n">
+      <c r="A787" s="3" t="n">
         <v>44906</v>
       </c>
       <c r="B787" t="n">
@@ -22620,7 +22650,7 @@
       </c>
     </row>
     <row r="788">
-      <c r="A788" s="2" t="n">
+      <c r="A788" s="3" t="n">
         <v>44907</v>
       </c>
       <c r="B788" t="n">
@@ -22648,7 +22678,7 @@
       </c>
     </row>
     <row r="789">
-      <c r="A789" s="2" t="n">
+      <c r="A789" s="3" t="n">
         <v>44908</v>
       </c>
       <c r="B789" t="n">
@@ -22676,7 +22706,7 @@
       </c>
     </row>
     <row r="790">
-      <c r="A790" s="2" t="n">
+      <c r="A790" s="3" t="n">
         <v>44909</v>
       </c>
       <c r="B790" t="n">
@@ -22704,7 +22734,7 @@
       </c>
     </row>
     <row r="791">
-      <c r="A791" s="2" t="n">
+      <c r="A791" s="3" t="n">
         <v>44910</v>
       </c>
       <c r="B791" t="n">
@@ -22732,7 +22762,7 @@
       </c>
     </row>
     <row r="792">
-      <c r="A792" s="2" t="n">
+      <c r="A792" s="3" t="n">
         <v>44911</v>
       </c>
       <c r="B792" t="n">
@@ -22760,7 +22790,7 @@
       </c>
     </row>
     <row r="793">
-      <c r="A793" s="2" t="n">
+      <c r="A793" s="3" t="n">
         <v>44912</v>
       </c>
       <c r="B793" t="n">
@@ -22788,7 +22818,7 @@
       </c>
     </row>
     <row r="794">
-      <c r="A794" s="2" t="n">
+      <c r="A794" s="3" t="n">
         <v>44913</v>
       </c>
       <c r="B794" t="n">
@@ -22816,7 +22846,7 @@
       </c>
     </row>
     <row r="795">
-      <c r="A795" s="2" t="n">
+      <c r="A795" s="3" t="n">
         <v>44914</v>
       </c>
       <c r="B795" t="n">
@@ -22844,7 +22874,7 @@
       </c>
     </row>
     <row r="796">
-      <c r="A796" s="2" t="n">
+      <c r="A796" s="3" t="n">
         <v>44915</v>
       </c>
       <c r="B796" t="n">
@@ -22872,7 +22902,7 @@
       </c>
     </row>
     <row r="797">
-      <c r="A797" s="2" t="n">
+      <c r="A797" s="3" t="n">
         <v>44916</v>
       </c>
       <c r="B797" t="n">
@@ -22900,7 +22930,7 @@
       </c>
     </row>
     <row r="798">
-      <c r="A798" s="2" t="n">
+      <c r="A798" s="3" t="n">
         <v>44917</v>
       </c>
       <c r="B798" t="n">
@@ -22928,7 +22958,7 @@
       </c>
     </row>
     <row r="799">
-      <c r="A799" s="2" t="n">
+      <c r="A799" s="3" t="n">
         <v>44918</v>
       </c>
       <c r="B799" t="n">
@@ -22956,7 +22986,7 @@
       </c>
     </row>
     <row r="800">
-      <c r="A800" s="2" t="n">
+      <c r="A800" s="3" t="n">
         <v>44919</v>
       </c>
       <c r="B800" t="n">
@@ -22984,7 +23014,7 @@
       </c>
     </row>
     <row r="801">
-      <c r="A801" s="2" t="n">
+      <c r="A801" s="3" t="n">
         <v>44920</v>
       </c>
       <c r="B801" t="n">
@@ -23012,7 +23042,7 @@
       </c>
     </row>
     <row r="802">
-      <c r="A802" s="2" t="n">
+      <c r="A802" s="3" t="n">
         <v>44921</v>
       </c>
       <c r="B802" t="n">
@@ -23040,7 +23070,7 @@
       </c>
     </row>
     <row r="803">
-      <c r="A803" s="2" t="n">
+      <c r="A803" s="3" t="n">
         <v>44922</v>
       </c>
       <c r="B803" t="n">
@@ -23068,7 +23098,7 @@
       </c>
     </row>
     <row r="804">
-      <c r="A804" s="2" t="n">
+      <c r="A804" s="3" t="n">
         <v>44923</v>
       </c>
       <c r="B804" t="n">
@@ -23096,7 +23126,7 @@
       </c>
     </row>
     <row r="805">
-      <c r="A805" s="2" t="n">
+      <c r="A805" s="3" t="n">
         <v>44924</v>
       </c>
       <c r="B805" t="n">
@@ -23124,7 +23154,7 @@
       </c>
     </row>
     <row r="806">
-      <c r="A806" s="2" t="n">
+      <c r="A806" s="3" t="n">
         <v>44925</v>
       </c>
       <c r="B806" t="n">
@@ -23152,7 +23182,7 @@
       </c>
     </row>
     <row r="807">
-      <c r="A807" s="2" t="n">
+      <c r="A807" s="3" t="n">
         <v>44926</v>
       </c>
       <c r="B807" t="n">
@@ -23180,7 +23210,7 @@
       </c>
     </row>
     <row r="808">
-      <c r="A808" s="2" t="n">
+      <c r="A808" s="3" t="n">
         <v>44927</v>
       </c>
       <c r="B808" t="n">
@@ -23208,7 +23238,7 @@
       </c>
     </row>
     <row r="809">
-      <c r="A809" s="2" t="n">
+      <c r="A809" s="3" t="n">
         <v>44928</v>
       </c>
       <c r="B809" t="n">
@@ -23236,7 +23266,7 @@
       </c>
     </row>
     <row r="810">
-      <c r="A810" s="2" t="n">
+      <c r="A810" s="3" t="n">
         <v>44929</v>
       </c>
       <c r="B810" t="n">
@@ -23264,7 +23294,7 @@
       </c>
     </row>
     <row r="811">
-      <c r="A811" s="2" t="n">
+      <c r="A811" s="3" t="n">
         <v>44930</v>
       </c>
       <c r="B811" t="n">
@@ -23292,7 +23322,7 @@
       </c>
     </row>
     <row r="812">
-      <c r="A812" s="2" t="n">
+      <c r="A812" s="3" t="n">
         <v>44931</v>
       </c>
       <c r="B812" t="n">
@@ -23320,7 +23350,7 @@
       </c>
     </row>
     <row r="813">
-      <c r="A813" s="2" t="n">
+      <c r="A813" s="3" t="n">
         <v>44932</v>
       </c>
       <c r="B813" t="n">
@@ -23348,7 +23378,7 @@
       </c>
     </row>
     <row r="814">
-      <c r="A814" s="2" t="n">
+      <c r="A814" s="3" t="n">
         <v>44933</v>
       </c>
       <c r="B814" t="n">
@@ -23376,7 +23406,7 @@
       </c>
     </row>
     <row r="815">
-      <c r="A815" s="2" t="n">
+      <c r="A815" s="3" t="n">
         <v>44934</v>
       </c>
       <c r="B815" t="n">
@@ -23404,7 +23434,7 @@
       </c>
     </row>
     <row r="816">
-      <c r="A816" s="2" t="n">
+      <c r="A816" s="3" t="n">
         <v>44935</v>
       </c>
       <c r="B816" t="n">
@@ -23432,7 +23462,7 @@
       </c>
     </row>
     <row r="817">
-      <c r="A817" s="2" t="n">
+      <c r="A817" s="3" t="n">
         <v>44936</v>
       </c>
       <c r="B817" t="n">
@@ -23460,7 +23490,7 @@
       </c>
     </row>
     <row r="818">
-      <c r="A818" s="2" t="n">
+      <c r="A818" s="3" t="n">
         <v>44937</v>
       </c>
       <c r="B818" t="n">
@@ -23488,7 +23518,7 @@
       </c>
     </row>
     <row r="819">
-      <c r="A819" s="2" t="n">
+      <c r="A819" s="3" t="n">
         <v>44938</v>
       </c>
       <c r="B819" t="n">
@@ -23516,7 +23546,7 @@
       </c>
     </row>
     <row r="820">
-      <c r="A820" s="2" t="n">
+      <c r="A820" s="3" t="n">
         <v>44939</v>
       </c>
       <c r="B820" t="n">
@@ -23544,7 +23574,7 @@
       </c>
     </row>
     <row r="821">
-      <c r="A821" s="2" t="n">
+      <c r="A821" s="3" t="n">
         <v>44940</v>
       </c>
       <c r="B821" t="n">
@@ -23572,7 +23602,7 @@
       </c>
     </row>
     <row r="822">
-      <c r="A822" s="2" t="n">
+      <c r="A822" s="3" t="n">
         <v>44941</v>
       </c>
       <c r="B822" t="n">
@@ -23600,7 +23630,7 @@
       </c>
     </row>
     <row r="823">
-      <c r="A823" s="2" t="n">
+      <c r="A823" s="3" t="n">
         <v>44942</v>
       </c>
       <c r="B823" t="n">
@@ -23628,7 +23658,7 @@
       </c>
     </row>
     <row r="824">
-      <c r="A824" s="2" t="n">
+      <c r="A824" s="3" t="n">
         <v>44943</v>
       </c>
       <c r="B824" t="n">
@@ -23656,7 +23686,7 @@
       </c>
     </row>
     <row r="825">
-      <c r="A825" s="2" t="n">
+      <c r="A825" s="3" t="n">
         <v>44944</v>
       </c>
       <c r="B825" t="n">
@@ -23684,7 +23714,7 @@
       </c>
     </row>
     <row r="826">
-      <c r="A826" s="2" t="n">
+      <c r="A826" s="3" t="n">
         <v>44945</v>
       </c>
       <c r="B826" t="n">
@@ -23712,7 +23742,7 @@
       </c>
     </row>
     <row r="827">
-      <c r="A827" s="2" t="n">
+      <c r="A827" s="3" t="n">
         <v>44946</v>
       </c>
       <c r="B827" t="n">
@@ -23740,7 +23770,7 @@
       </c>
     </row>
     <row r="828">
-      <c r="A828" s="2" t="n">
+      <c r="A828" s="3" t="n">
         <v>44947</v>
       </c>
       <c r="B828" t="n">
@@ -23768,7 +23798,7 @@
       </c>
     </row>
     <row r="829">
-      <c r="A829" s="2" t="n">
+      <c r="A829" s="3" t="n">
         <v>44948</v>
       </c>
       <c r="B829" t="n">
@@ -23796,7 +23826,7 @@
       </c>
     </row>
     <row r="830">
-      <c r="A830" s="2" t="n">
+      <c r="A830" s="3" t="n">
         <v>44949</v>
       </c>
       <c r="B830" t="n">
@@ -23824,7 +23854,7 @@
       </c>
     </row>
     <row r="831">
-      <c r="A831" s="2" t="n">
+      <c r="A831" s="3" t="n">
         <v>44950</v>
       </c>
       <c r="B831" t="n">
@@ -23852,7 +23882,7 @@
       </c>
     </row>
     <row r="832">
-      <c r="A832" s="2" t="n">
+      <c r="A832" s="3" t="n">
         <v>44951</v>
       </c>
       <c r="B832" t="n">
@@ -23880,7 +23910,7 @@
       </c>
     </row>
     <row r="833">
-      <c r="A833" s="2" t="n">
+      <c r="A833" s="3" t="n">
         <v>44952</v>
       </c>
       <c r="B833" t="n">
@@ -23908,7 +23938,7 @@
       </c>
     </row>
     <row r="834">
-      <c r="A834" s="2" t="n">
+      <c r="A834" s="3" t="n">
         <v>44953</v>
       </c>
       <c r="B834" t="n">
@@ -23936,7 +23966,7 @@
       </c>
     </row>
     <row r="835">
-      <c r="A835" s="2" t="n">
+      <c r="A835" s="3" t="n">
         <v>44954</v>
       </c>
       <c r="B835" t="n">
@@ -23964,7 +23994,7 @@
       </c>
     </row>
     <row r="836">
-      <c r="A836" s="2" t="n">
+      <c r="A836" s="3" t="n">
         <v>44955</v>
       </c>
       <c r="B836" t="n">
@@ -23992,7 +24022,7 @@
       </c>
     </row>
     <row r="837">
-      <c r="A837" s="2" t="n">
+      <c r="A837" s="3" t="n">
         <v>44956</v>
       </c>
       <c r="B837" t="n">
@@ -24020,7 +24050,7 @@
       </c>
     </row>
     <row r="838">
-      <c r="A838" s="2" t="n">
+      <c r="A838" s="3" t="n">
         <v>44957</v>
       </c>
       <c r="B838" t="n">
@@ -24048,7 +24078,7 @@
       </c>
     </row>
     <row r="839">
-      <c r="A839" s="2" t="n">
+      <c r="A839" s="3" t="n">
         <v>44958</v>
       </c>
       <c r="B839" t="n">
@@ -24076,7 +24106,7 @@
       </c>
     </row>
     <row r="840">
-      <c r="A840" s="2" t="n">
+      <c r="A840" s="3" t="n">
         <v>44959</v>
       </c>
       <c r="B840" t="n">
@@ -24104,7 +24134,7 @@
       </c>
     </row>
     <row r="841">
-      <c r="A841" s="2" t="n">
+      <c r="A841" s="3" t="n">
         <v>44960</v>
       </c>
       <c r="B841" t="n">
@@ -24132,7 +24162,7 @@
       </c>
     </row>
     <row r="842">
-      <c r="A842" s="2" t="n">
+      <c r="A842" s="3" t="n">
         <v>44961</v>
       </c>
       <c r="B842" t="n">
@@ -24160,7 +24190,7 @@
       </c>
     </row>
     <row r="843">
-      <c r="A843" s="2" t="n">
+      <c r="A843" s="3" t="n">
         <v>44962</v>
       </c>
       <c r="B843" t="n">
@@ -24188,7 +24218,7 @@
       </c>
     </row>
     <row r="844">
-      <c r="A844" s="2" t="n">
+      <c r="A844" s="3" t="n">
         <v>44963</v>
       </c>
       <c r="B844" t="n">
@@ -24216,7 +24246,7 @@
       </c>
     </row>
     <row r="845">
-      <c r="A845" s="2" t="n">
+      <c r="A845" s="3" t="n">
         <v>44964</v>
       </c>
       <c r="B845" t="n">
@@ -24244,7 +24274,7 @@
       </c>
     </row>
     <row r="846">
-      <c r="A846" s="2" t="n">
+      <c r="A846" s="3" t="n">
         <v>44965</v>
       </c>
       <c r="B846" t="n">
@@ -24272,7 +24302,7 @@
       </c>
     </row>
     <row r="847">
-      <c r="A847" s="2" t="n">
+      <c r="A847" s="3" t="n">
         <v>44966</v>
       </c>
       <c r="B847" t="n">
@@ -24300,7 +24330,7 @@
       </c>
     </row>
     <row r="848">
-      <c r="A848" s="2" t="n">
+      <c r="A848" s="3" t="n">
         <v>44967</v>
       </c>
       <c r="B848" t="n">
@@ -24328,7 +24358,7 @@
       </c>
     </row>
     <row r="849">
-      <c r="A849" s="2" t="n">
+      <c r="A849" s="3" t="n">
         <v>44968</v>
       </c>
       <c r="B849" t="n">
@@ -24356,7 +24386,7 @@
       </c>
     </row>
     <row r="850">
-      <c r="A850" s="2" t="n">
+      <c r="A850" s="3" t="n">
         <v>44969</v>
       </c>
       <c r="B850" t="n">
@@ -24384,7 +24414,7 @@
       </c>
     </row>
     <row r="851">
-      <c r="A851" s="2" t="n">
+      <c r="A851" s="3" t="n">
         <v>44970</v>
       </c>
       <c r="B851" t="n">
@@ -24412,7 +24442,7 @@
       </c>
     </row>
     <row r="852">
-      <c r="A852" s="2" t="n">
+      <c r="A852" s="3" t="n">
         <v>44971</v>
       </c>
       <c r="B852" t="n">
@@ -24440,7 +24470,7 @@
       </c>
     </row>
     <row r="853">
-      <c r="A853" s="2" t="n">
+      <c r="A853" s="3" t="n">
         <v>44972</v>
       </c>
       <c r="B853" t="n">
@@ -24468,7 +24498,7 @@
       </c>
     </row>
     <row r="854">
-      <c r="A854" s="2" t="n">
+      <c r="A854" s="3" t="n">
         <v>44973</v>
       </c>
       <c r="B854" t="n">
@@ -24496,7 +24526,7 @@
       </c>
     </row>
     <row r="855">
-      <c r="A855" s="2" t="n">
+      <c r="A855" s="3" t="n">
         <v>44974</v>
       </c>
       <c r="B855" t="n">
@@ -24524,7 +24554,7 @@
       </c>
     </row>
     <row r="856">
-      <c r="A856" s="2" t="n">
+      <c r="A856" s="3" t="n">
         <v>44975</v>
       </c>
       <c r="B856" t="n">
@@ -24552,7 +24582,7 @@
       </c>
     </row>
     <row r="857">
-      <c r="A857" s="2" t="n">
+      <c r="A857" s="3" t="n">
         <v>44976</v>
       </c>
       <c r="B857" t="n">
@@ -24580,7 +24610,7 @@
       </c>
     </row>
     <row r="858">
-      <c r="A858" s="2" t="n">
+      <c r="A858" s="3" t="n">
         <v>44977</v>
       </c>
       <c r="B858" t="n">
@@ -24608,7 +24638,7 @@
       </c>
     </row>
     <row r="859">
-      <c r="A859" s="2" t="n">
+      <c r="A859" s="3" t="n">
         <v>44978</v>
       </c>
       <c r="B859" t="n">
@@ -24636,7 +24666,7 @@
       </c>
     </row>
     <row r="860">
-      <c r="A860" s="2" t="n">
+      <c r="A860" s="3" t="n">
         <v>44979</v>
       </c>
       <c r="B860" t="n">
@@ -24664,7 +24694,7 @@
       </c>
     </row>
     <row r="861">
-      <c r="A861" s="2" t="n">
+      <c r="A861" s="3" t="n">
         <v>44980</v>
       </c>
       <c r="B861" t="n">
@@ -24692,7 +24722,7 @@
       </c>
     </row>
     <row r="862">
-      <c r="A862" s="2" t="n">
+      <c r="A862" s="3" t="n">
         <v>44981</v>
       </c>
       <c r="B862" t="n">
@@ -24720,7 +24750,7 @@
       </c>
     </row>
     <row r="863">
-      <c r="A863" s="2" t="n">
+      <c r="A863" s="3" t="n">
         <v>44982</v>
       </c>
       <c r="B863" t="n">
@@ -24748,7 +24778,7 @@
       </c>
     </row>
     <row r="864">
-      <c r="A864" s="2" t="n">
+      <c r="A864" s="3" t="n">
         <v>44983</v>
       </c>
       <c r="B864" t="n">
@@ -24776,7 +24806,7 @@
       </c>
     </row>
     <row r="865">
-      <c r="A865" s="2" t="n">
+      <c r="A865" s="3" t="n">
         <v>44984</v>
       </c>
       <c r="B865" t="n">
@@ -24804,7 +24834,7 @@
       </c>
     </row>
     <row r="866">
-      <c r="A866" s="2" t="n">
+      <c r="A866" s="3" t="n">
         <v>44985</v>
       </c>
       <c r="B866" t="n">
@@ -24832,7 +24862,7 @@
       </c>
     </row>
     <row r="867">
-      <c r="A867" s="2" t="n">
+      <c r="A867" s="3" t="n">
         <v>44986</v>
       </c>
       <c r="B867" t="n">
@@ -24860,7 +24890,7 @@
       </c>
     </row>
     <row r="868">
-      <c r="A868" s="2" t="n">
+      <c r="A868" s="3" t="n">
         <v>44987</v>
       </c>
       <c r="B868" t="n">
@@ -24888,7 +24918,7 @@
       </c>
     </row>
     <row r="869">
-      <c r="A869" s="2" t="n">
+      <c r="A869" s="3" t="n">
         <v>44988</v>
       </c>
       <c r="B869" t="n">
@@ -24916,7 +24946,7 @@
       </c>
     </row>
     <row r="870">
-      <c r="A870" s="2" t="n">
+      <c r="A870" s="3" t="n">
         <v>44989</v>
       </c>
       <c r="B870" t="n">
@@ -24944,7 +24974,7 @@
       </c>
     </row>
     <row r="871">
-      <c r="A871" s="2" t="n">
+      <c r="A871" s="3" t="n">
         <v>44990</v>
       </c>
       <c r="B871" t="n">
@@ -24972,7 +25002,7 @@
       </c>
     </row>
     <row r="872">
-      <c r="A872" s="2" t="n">
+      <c r="A872" s="3" t="n">
         <v>44991</v>
       </c>
       <c r="B872" t="n">
@@ -25000,7 +25030,7 @@
       </c>
     </row>
     <row r="873">
-      <c r="A873" s="2" t="n">
+      <c r="A873" s="3" t="n">
         <v>44992</v>
       </c>
       <c r="B873" t="n">
@@ -25028,7 +25058,7 @@
       </c>
     </row>
     <row r="874">
-      <c r="A874" s="2" t="n">
+      <c r="A874" s="3" t="n">
         <v>44993</v>
       </c>
       <c r="B874" t="n">
@@ -25056,7 +25086,7 @@
       </c>
     </row>
     <row r="875">
-      <c r="A875" s="2" t="n">
+      <c r="A875" s="3" t="n">
         <v>44994</v>
       </c>
       <c r="B875" t="n">
@@ -25084,7 +25114,7 @@
       </c>
     </row>
     <row r="876">
-      <c r="A876" s="2" t="n">
+      <c r="A876" s="3" t="n">
         <v>44995</v>
       </c>
       <c r="B876" t="n">
@@ -25112,7 +25142,7 @@
       </c>
     </row>
     <row r="877">
-      <c r="A877" s="2" t="n">
+      <c r="A877" s="3" t="n">
         <v>44996</v>
       </c>
       <c r="B877" t="n">
@@ -25140,7 +25170,7 @@
       </c>
     </row>
     <row r="878">
-      <c r="A878" s="2" t="n">
+      <c r="A878" s="3" t="n">
         <v>44997</v>
       </c>
       <c r="B878" t="n">
@@ -25168,7 +25198,7 @@
       </c>
     </row>
     <row r="879">
-      <c r="A879" s="2" t="n">
+      <c r="A879" s="3" t="n">
         <v>44998</v>
       </c>
       <c r="B879" t="n">
@@ -25196,7 +25226,7 @@
       </c>
     </row>
     <row r="880">
-      <c r="A880" s="2" t="n">
+      <c r="A880" s="3" t="n">
         <v>44999</v>
       </c>
       <c r="B880" t="n">
@@ -25224,7 +25254,7 @@
       </c>
     </row>
     <row r="881">
-      <c r="A881" s="2" t="n">
+      <c r="A881" s="3" t="n">
         <v>45000</v>
       </c>
       <c r="B881" t="n">
@@ -25252,7 +25282,7 @@
       </c>
     </row>
     <row r="882">
-      <c r="A882" s="2" t="n">
+      <c r="A882" s="3" t="n">
         <v>45001</v>
       </c>
       <c r="B882" t="n">
@@ -25280,7 +25310,7 @@
       </c>
     </row>
     <row r="883">
-      <c r="A883" s="2" t="n">
+      <c r="A883" s="3" t="n">
         <v>45002</v>
       </c>
       <c r="B883" t="n">
@@ -25308,7 +25338,7 @@
       </c>
     </row>
     <row r="884">
-      <c r="A884" s="2" t="n">
+      <c r="A884" s="3" t="n">
         <v>45003</v>
       </c>
       <c r="B884" t="n">
@@ -25336,7 +25366,7 @@
       </c>
     </row>
     <row r="885">
-      <c r="A885" s="2" t="n">
+      <c r="A885" s="3" t="n">
         <v>45004</v>
       </c>
       <c r="B885" t="n">
@@ -25364,7 +25394,7 @@
       </c>
     </row>
     <row r="886">
-      <c r="A886" s="2" t="n">
+      <c r="A886" s="3" t="n">
         <v>45005</v>
       </c>
       <c r="B886" t="n">
@@ -25392,7 +25422,7 @@
       </c>
     </row>
     <row r="887">
-      <c r="A887" s="2" t="n">
+      <c r="A887" s="3" t="n">
         <v>45006</v>
       </c>
       <c r="B887" t="n">
@@ -25420,7 +25450,7 @@
       </c>
     </row>
     <row r="888">
-      <c r="A888" s="2" t="n">
+      <c r="A888" s="3" t="n">
         <v>45007</v>
       </c>
       <c r="B888" t="n">
@@ -25448,7 +25478,7 @@
       </c>
     </row>
     <row r="889">
-      <c r="A889" s="2" t="n">
+      <c r="A889" s="3" t="n">
         <v>45008</v>
       </c>
       <c r="B889" t="n">
@@ -25476,7 +25506,7 @@
       </c>
     </row>
     <row r="890">
-      <c r="A890" s="2" t="n">
+      <c r="A890" s="3" t="n">
         <v>45009</v>
       </c>
       <c r="B890" t="n">
@@ -25504,7 +25534,7 @@
       </c>
     </row>
     <row r="891">
-      <c r="A891" s="2" t="n">
+      <c r="A891" s="3" t="n">
         <v>45010</v>
       </c>
       <c r="B891" t="n">
@@ -25532,7 +25562,7 @@
       </c>
     </row>
     <row r="892">
-      <c r="A892" s="2" t="n">
+      <c r="A892" s="3" t="n">
         <v>45011</v>
       </c>
       <c r="B892" t="n">
@@ -25560,7 +25590,7 @@
       </c>
     </row>
     <row r="893">
-      <c r="A893" s="2" t="n">
+      <c r="A893" s="3" t="n">
         <v>45012</v>
       </c>
       <c r="B893" t="n">
@@ -25588,7 +25618,7 @@
       </c>
     </row>
     <row r="894">
-      <c r="A894" s="2" t="n">
+      <c r="A894" s="3" t="n">
         <v>45013</v>
       </c>
       <c r="B894" t="n">
@@ -25616,7 +25646,7 @@
       </c>
     </row>
     <row r="895">
-      <c r="A895" s="2" t="n">
+      <c r="A895" s="3" t="n">
         <v>45014</v>
       </c>
       <c r="B895" t="n">
@@ -25644,7 +25674,7 @@
       </c>
     </row>
     <row r="896">
-      <c r="A896" s="2" t="n">
+      <c r="A896" s="3" t="n">
         <v>45015</v>
       </c>
       <c r="B896" t="n">
@@ -25672,7 +25702,7 @@
       </c>
     </row>
     <row r="897">
-      <c r="A897" s="2" t="n">
+      <c r="A897" s="3" t="n">
         <v>45016</v>
       </c>
       <c r="B897" t="n">
@@ -25700,7 +25730,7 @@
       </c>
     </row>
     <row r="898">
-      <c r="A898" s="2" t="n">
+      <c r="A898" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="B898" t="n">
@@ -25728,7 +25758,7 @@
       </c>
     </row>
     <row r="899">
-      <c r="A899" s="2" t="n">
+      <c r="A899" s="3" t="n">
         <v>45018</v>
       </c>
       <c r="B899" t="n">
@@ -25756,7 +25786,7 @@
       </c>
     </row>
     <row r="900">
-      <c r="A900" s="2" t="n">
+      <c r="A900" s="3" t="n">
         <v>45019</v>
       </c>
       <c r="B900" t="n">
@@ -25784,7 +25814,7 @@
       </c>
     </row>
     <row r="901">
-      <c r="A901" s="2" t="n">
+      <c r="A901" s="3" t="n">
         <v>45020</v>
       </c>
       <c r="B901" t="n">
@@ -25812,7 +25842,7 @@
       </c>
     </row>
     <row r="902">
-      <c r="A902" s="2" t="n">
+      <c r="A902" s="3" t="n">
         <v>45021</v>
       </c>
       <c r="B902" t="n">
@@ -25840,7 +25870,7 @@
       </c>
     </row>
     <row r="903">
-      <c r="A903" s="2" t="n">
+      <c r="A903" s="3" t="n">
         <v>45022</v>
       </c>
       <c r="B903" t="n">
@@ -25868,7 +25898,7 @@
       </c>
     </row>
     <row r="904">
-      <c r="A904" s="2" t="n">
+      <c r="A904" s="3" t="n">
         <v>45023</v>
       </c>
       <c r="B904" t="n">
@@ -25896,7 +25926,7 @@
       </c>
     </row>
     <row r="905">
-      <c r="A905" s="2" t="n">
+      <c r="A905" s="3" t="n">
         <v>45024</v>
       </c>
       <c r="B905" t="n">
@@ -25924,7 +25954,7 @@
       </c>
     </row>
     <row r="906">
-      <c r="A906" s="2" t="n">
+      <c r="A906" s="3" t="n">
         <v>45025</v>
       </c>
       <c r="B906" t="n">
@@ -25952,7 +25982,7 @@
       </c>
     </row>
     <row r="907">
-      <c r="A907" s="2" t="n">
+      <c r="A907" s="3" t="n">
         <v>45026</v>
       </c>
       <c r="B907" t="n">
@@ -25980,7 +26010,7 @@
       </c>
     </row>
     <row r="908">
-      <c r="A908" s="2" t="n">
+      <c r="A908" s="3" t="n">
         <v>45027</v>
       </c>
       <c r="B908" t="n">
@@ -26008,7 +26038,7 @@
       </c>
     </row>
     <row r="909">
-      <c r="A909" s="2" t="n">
+      <c r="A909" s="3" t="n">
         <v>45028</v>
       </c>
       <c r="B909" t="n">
@@ -26036,7 +26066,7 @@
       </c>
     </row>
     <row r="910">
-      <c r="A910" s="2" t="n">
+      <c r="A910" s="3" t="n">
         <v>45029</v>
       </c>
       <c r="B910" t="n">
@@ -26064,7 +26094,7 @@
       </c>
     </row>
     <row r="911">
-      <c r="A911" s="2" t="n">
+      <c r="A911" s="3" t="n">
         <v>45030</v>
       </c>
       <c r="B911" t="n">
@@ -26092,7 +26122,7 @@
       </c>
     </row>
     <row r="912">
-      <c r="A912" s="2" t="n">
+      <c r="A912" s="3" t="n">
         <v>45031</v>
       </c>
       <c r="B912" t="n">
@@ -26120,7 +26150,7 @@
       </c>
     </row>
     <row r="913">
-      <c r="A913" s="2" t="n">
+      <c r="A913" s="3" t="n">
         <v>45032</v>
       </c>
       <c r="B913" t="n">
@@ -26148,7 +26178,7 @@
       </c>
     </row>
     <row r="914">
-      <c r="A914" s="2" t="n">
+      <c r="A914" s="3" t="n">
         <v>45033</v>
       </c>
       <c r="B914" t="n">
@@ -26176,7 +26206,7 @@
       </c>
     </row>
     <row r="915">
-      <c r="A915" s="2" t="n">
+      <c r="A915" s="3" t="n">
         <v>45034</v>
       </c>
       <c r="B915" t="n">
@@ -26204,7 +26234,7 @@
       </c>
     </row>
     <row r="916">
-      <c r="A916" s="2" t="n">
+      <c r="A916" s="3" t="n">
         <v>45035</v>
       </c>
       <c r="B916" t="n">
@@ -26232,7 +26262,7 @@
       </c>
     </row>
     <row r="917">
-      <c r="A917" s="2" t="n">
+      <c r="A917" s="3" t="n">
         <v>45036</v>
       </c>
       <c r="B917" t="n">
@@ -26260,7 +26290,7 @@
       </c>
     </row>
     <row r="918">
-      <c r="A918" s="2" t="n">
+      <c r="A918" s="3" t="n">
         <v>45037</v>
       </c>
       <c r="B918" t="n">
@@ -26288,7 +26318,7 @@
       </c>
     </row>
     <row r="919">
-      <c r="A919" s="2" t="n">
+      <c r="A919" s="3" t="n">
         <v>45038</v>
       </c>
       <c r="B919" t="n">
@@ -26316,7 +26346,7 @@
       </c>
     </row>
     <row r="920">
-      <c r="A920" s="2" t="n">
+      <c r="A920" s="3" t="n">
         <v>45039</v>
       </c>
       <c r="B920" t="n">
@@ -26344,7 +26374,7 @@
       </c>
     </row>
     <row r="921">
-      <c r="A921" s="2" t="n">
+      <c r="A921" s="3" t="n">
         <v>45040</v>
       </c>
       <c r="B921" t="n">
@@ -26372,7 +26402,7 @@
       </c>
     </row>
     <row r="922">
-      <c r="A922" s="2" t="n">
+      <c r="A922" s="3" t="n">
         <v>45041</v>
       </c>
       <c r="B922" t="n">
@@ -26400,7 +26430,7 @@
       </c>
     </row>
     <row r="923">
-      <c r="A923" s="2" t="n">
+      <c r="A923" s="3" t="n">
         <v>45042</v>
       </c>
       <c r="B923" t="n">
@@ -26428,7 +26458,7 @@
       </c>
     </row>
     <row r="924">
-      <c r="A924" s="2" t="n">
+      <c r="A924" s="3" t="n">
         <v>45043</v>
       </c>
       <c r="B924" t="n">
@@ -26456,7 +26486,7 @@
       </c>
     </row>
     <row r="925">
-      <c r="A925" s="2" t="n">
+      <c r="A925" s="3" t="n">
         <v>45044</v>
       </c>
       <c r="B925" t="n">
@@ -26484,7 +26514,7 @@
       </c>
     </row>
     <row r="926">
-      <c r="A926" s="2" t="n">
+      <c r="A926" s="3" t="n">
         <v>45045</v>
       </c>
       <c r="B926" t="n">
@@ -26512,7 +26542,7 @@
       </c>
     </row>
     <row r="927">
-      <c r="A927" s="2" t="n">
+      <c r="A927" s="3" t="n">
         <v>45046</v>
       </c>
       <c r="B927" t="n">
@@ -26540,7 +26570,7 @@
       </c>
     </row>
     <row r="928">
-      <c r="A928" s="2" t="n">
+      <c r="A928" s="3" t="n">
         <v>45047</v>
       </c>
       <c r="B928" t="n">
@@ -26568,7 +26598,7 @@
       </c>
     </row>
     <row r="929">
-      <c r="A929" s="2" t="n">
+      <c r="A929" s="3" t="n">
         <v>45048</v>
       </c>
       <c r="B929" t="n">
@@ -26596,7 +26626,7 @@
       </c>
     </row>
     <row r="930">
-      <c r="A930" s="2" t="n">
+      <c r="A930" s="3" t="n">
         <v>45049</v>
       </c>
       <c r="B930" t="n">
@@ -26624,7 +26654,7 @@
       </c>
     </row>
     <row r="931">
-      <c r="A931" s="2" t="n">
+      <c r="A931" s="3" t="n">
         <v>45050</v>
       </c>
       <c r="B931" t="n">
@@ -26652,7 +26682,7 @@
       </c>
     </row>
     <row r="932">
-      <c r="A932" s="2" t="n">
+      <c r="A932" s="3" t="n">
         <v>45051</v>
       </c>
       <c r="B932" t="n">
@@ -26680,7 +26710,7 @@
       </c>
     </row>
     <row r="933">
-      <c r="A933" s="2" t="n">
+      <c r="A933" s="3" t="n">
         <v>45052</v>
       </c>
       <c r="B933" t="n">
@@ -26708,7 +26738,7 @@
       </c>
     </row>
     <row r="934">
-      <c r="A934" s="2" t="n">
+      <c r="A934" s="3" t="n">
         <v>45053</v>
       </c>
       <c r="B934" t="n">
@@ -26736,7 +26766,7 @@
       </c>
     </row>
     <row r="935">
-      <c r="A935" s="2" t="n">
+      <c r="A935" s="3" t="n">
         <v>45054</v>
       </c>
       <c r="B935" t="n">
@@ -26764,7 +26794,7 @@
       </c>
     </row>
     <row r="936">
-      <c r="A936" s="2" t="n">
+      <c r="A936" s="3" t="n">
         <v>45055</v>
       </c>
       <c r="B936" t="n">
@@ -26792,7 +26822,7 @@
       </c>
     </row>
     <row r="937">
-      <c r="A937" s="2" t="n">
+      <c r="A937" s="3" t="n">
         <v>45056</v>
       </c>
       <c r="B937" t="n">
@@ -26820,7 +26850,7 @@
       </c>
     </row>
     <row r="938">
-      <c r="A938" s="2" t="n">
+      <c r="A938" s="3" t="n">
         <v>45057</v>
       </c>
       <c r="B938" t="n">
@@ -26848,7 +26878,7 @@
       </c>
     </row>
     <row r="939">
-      <c r="A939" s="2" t="n">
+      <c r="A939" s="3" t="n">
         <v>45058</v>
       </c>
       <c r="B939" t="n">
@@ -26876,7 +26906,7 @@
       </c>
     </row>
     <row r="940">
-      <c r="A940" s="2" t="n">
+      <c r="A940" s="3" t="n">
         <v>45059</v>
       </c>
       <c r="B940" t="n">
@@ -26904,7 +26934,7 @@
       </c>
     </row>
     <row r="941">
-      <c r="A941" s="2" t="n">
+      <c r="A941" s="3" t="n">
         <v>45060</v>
       </c>
       <c r="B941" t="n">
@@ -26932,7 +26962,7 @@
       </c>
     </row>
     <row r="942">
-      <c r="A942" s="2" t="n">
+      <c r="A942" s="3" t="n">
         <v>45061</v>
       </c>
       <c r="B942" t="n">
@@ -26960,7 +26990,7 @@
       </c>
     </row>
     <row r="943">
-      <c r="A943" s="2" t="n">
+      <c r="A943" s="3" t="n">
         <v>45062</v>
       </c>
       <c r="B943" t="n">
@@ -26988,7 +27018,7 @@
       </c>
     </row>
     <row r="944">
-      <c r="A944" s="2" t="n">
+      <c r="A944" s="3" t="n">
         <v>45063</v>
       </c>
       <c r="B944" t="n">
@@ -27016,7 +27046,7 @@
       </c>
     </row>
     <row r="945">
-      <c r="A945" s="2" t="n">
+      <c r="A945" s="3" t="n">
         <v>45064</v>
       </c>
       <c r="B945" t="n">
@@ -27044,7 +27074,7 @@
       </c>
     </row>
     <row r="946">
-      <c r="A946" s="2" t="n">
+      <c r="A946" s="3" t="n">
         <v>45065</v>
       </c>
       <c r="B946" t="n">
@@ -27072,7 +27102,7 @@
       </c>
     </row>
     <row r="947">
-      <c r="A947" s="2" t="n">
+      <c r="A947" s="3" t="n">
         <v>45066</v>
       </c>
       <c r="B947" t="n">
@@ -27100,7 +27130,7 @@
       </c>
     </row>
     <row r="948">
-      <c r="A948" s="2" t="n">
+      <c r="A948" s="3" t="n">
         <v>45067</v>
       </c>
       <c r="B948" t="n">
@@ -27128,7 +27158,7 @@
       </c>
     </row>
     <row r="949">
-      <c r="A949" s="2" t="n">
+      <c r="A949" s="3" t="n">
         <v>45068</v>
       </c>
       <c r="B949" t="n">
@@ -27156,7 +27186,7 @@
       </c>
     </row>
     <row r="950">
-      <c r="A950" s="2" t="n">
+      <c r="A950" s="3" t="n">
         <v>45069</v>
       </c>
       <c r="B950" t="n">
@@ -27184,7 +27214,7 @@
       </c>
     </row>
     <row r="951">
-      <c r="A951" s="2" t="n">
+      <c r="A951" s="3" t="n">
         <v>45070</v>
       </c>
       <c r="B951" t="n">
@@ -27212,7 +27242,7 @@
       </c>
     </row>
     <row r="952">
-      <c r="A952" s="2" t="n">
+      <c r="A952" s="3" t="n">
         <v>45071</v>
       </c>
       <c r="B952" t="n">
@@ -27240,7 +27270,7 @@
       </c>
     </row>
     <row r="953">
-      <c r="A953" s="2" t="n">
+      <c r="A953" s="3" t="n">
         <v>45072</v>
       </c>
       <c r="B953" t="n">
@@ -27268,7 +27298,7 @@
       </c>
     </row>
     <row r="954">
-      <c r="A954" s="2" t="n">
+      <c r="A954" s="3" t="n">
         <v>45073</v>
       </c>
       <c r="B954" t="n">
@@ -27296,7 +27326,7 @@
       </c>
     </row>
     <row r="955">
-      <c r="A955" s="2" t="n">
+      <c r="A955" s="3" t="n">
         <v>45074</v>
       </c>
       <c r="B955" t="n">
@@ -27324,7 +27354,7 @@
       </c>
     </row>
     <row r="956">
-      <c r="A956" s="2" t="n">
+      <c r="A956" s="3" t="n">
         <v>45075</v>
       </c>
       <c r="B956" t="n">
@@ -27352,7 +27382,7 @@
       </c>
     </row>
     <row r="957">
-      <c r="A957" s="2" t="n">
+      <c r="A957" s="3" t="n">
         <v>45076</v>
       </c>
       <c r="B957" t="n">
@@ -27380,7 +27410,7 @@
       </c>
     </row>
     <row r="958">
-      <c r="A958" s="2" t="n">
+      <c r="A958" s="3" t="n">
         <v>45077</v>
       </c>
       <c r="B958" t="n">
@@ -27408,7 +27438,7 @@
       </c>
     </row>
     <row r="959">
-      <c r="A959" s="2" t="n">
+      <c r="A959" s="3" t="n">
         <v>45078</v>
       </c>
       <c r="B959" t="n">
@@ -27436,7 +27466,7 @@
       </c>
     </row>
     <row r="960">
-      <c r="A960" s="2" t="n">
+      <c r="A960" s="3" t="n">
         <v>45079</v>
       </c>
       <c r="B960" t="n">
@@ -27464,7 +27494,7 @@
       </c>
     </row>
     <row r="961">
-      <c r="A961" s="2" t="n">
+      <c r="A961" s="3" t="n">
         <v>45080</v>
       </c>
       <c r="B961" t="n">
@@ -27492,7 +27522,7 @@
       </c>
     </row>
     <row r="962">
-      <c r="A962" s="2" t="n">
+      <c r="A962" s="3" t="n">
         <v>45081</v>
       </c>
       <c r="B962" t="n">
@@ -27520,7 +27550,7 @@
       </c>
     </row>
     <row r="963">
-      <c r="A963" s="2" t="n">
+      <c r="A963" s="3" t="n">
         <v>45082</v>
       </c>
       <c r="B963" t="n">
@@ -27548,7 +27578,7 @@
       </c>
     </row>
     <row r="964">
-      <c r="A964" s="2" t="n">
+      <c r="A964" s="3" t="n">
         <v>45083</v>
       </c>
       <c r="B964" t="n">
@@ -27576,7 +27606,7 @@
       </c>
     </row>
     <row r="965">
-      <c r="A965" s="2" t="n">
+      <c r="A965" s="3" t="n">
         <v>45084</v>
       </c>
       <c r="B965" t="n">
@@ -27604,7 +27634,7 @@
       </c>
     </row>
     <row r="966">
-      <c r="A966" s="2" t="n">
+      <c r="A966" s="3" t="n">
         <v>45085</v>
       </c>
       <c r="B966" t="n">
@@ -27632,7 +27662,7 @@
       </c>
     </row>
     <row r="967">
-      <c r="A967" s="2" t="n">
+      <c r="A967" s="3" t="n">
         <v>45086</v>
       </c>
       <c r="B967" t="n">
@@ -27660,7 +27690,7 @@
       </c>
     </row>
     <row r="968">
-      <c r="A968" s="2" t="n">
+      <c r="A968" s="3" t="n">
         <v>45087</v>
       </c>
       <c r="B968" t="n">
@@ -27688,7 +27718,7 @@
       </c>
     </row>
     <row r="969">
-      <c r="A969" s="2" t="n">
+      <c r="A969" s="3" t="n">
         <v>45088</v>
       </c>
       <c r="B969" t="n">
@@ -27716,7 +27746,7 @@
       </c>
     </row>
     <row r="970">
-      <c r="A970" s="2" t="n">
+      <c r="A970" s="3" t="n">
         <v>45089</v>
       </c>
       <c r="B970" t="n">
@@ -27744,7 +27774,7 @@
       </c>
     </row>
     <row r="971">
-      <c r="A971" s="2" t="n">
+      <c r="A971" s="3" t="n">
         <v>45090</v>
       </c>
       <c r="B971" t="n">
@@ -27772,7 +27802,7 @@
       </c>
     </row>
     <row r="972">
-      <c r="A972" s="2" t="n">
+      <c r="A972" s="3" t="n">
         <v>45091</v>
       </c>
       <c r="B972" t="n">
@@ -27800,7 +27830,7 @@
       </c>
     </row>
     <row r="973">
-      <c r="A973" s="2" t="n">
+      <c r="A973" s="3" t="n">
         <v>45092</v>
       </c>
       <c r="B973" t="n">
@@ -27828,7 +27858,7 @@
       </c>
     </row>
     <row r="974">
-      <c r="A974" s="2" t="n">
+      <c r="A974" s="3" t="n">
         <v>45093</v>
       </c>
       <c r="B974" t="n">
@@ -27856,7 +27886,7 @@
       </c>
     </row>
     <row r="975">
-      <c r="A975" s="2" t="n">
+      <c r="A975" s="3" t="n">
         <v>45094</v>
       </c>
       <c r="B975" t="n">
@@ -27884,7 +27914,7 @@
       </c>
     </row>
     <row r="976">
-      <c r="A976" s="2" t="n">
+      <c r="A976" s="3" t="n">
         <v>45095</v>
       </c>
       <c r="B976" t="n">
@@ -27912,7 +27942,7 @@
       </c>
     </row>
     <row r="977">
-      <c r="A977" s="2" t="n">
+      <c r="A977" s="3" t="n">
         <v>45096</v>
       </c>
       <c r="B977" t="n">
@@ -27940,7 +27970,7 @@
       </c>
     </row>
     <row r="978">
-      <c r="A978" s="2" t="n">
+      <c r="A978" s="3" t="n">
         <v>45097</v>
       </c>
       <c r="B978" t="n">
@@ -27968,7 +27998,7 @@
       </c>
     </row>
     <row r="979">
-      <c r="A979" s="2" t="n">
+      <c r="A979" s="3" t="n">
         <v>45098</v>
       </c>
       <c r="B979" t="n">
@@ -27996,7 +28026,7 @@
       </c>
     </row>
     <row r="980">
-      <c r="A980" s="2" t="n">
+      <c r="A980" s="3" t="n">
         <v>45099</v>
       </c>
       <c r="B980" t="n">
@@ -28024,7 +28054,7 @@
       </c>
     </row>
     <row r="981">
-      <c r="A981" s="2" t="n">
+      <c r="A981" s="3" t="n">
         <v>45100</v>
       </c>
       <c r="B981" t="n">
@@ -28052,7 +28082,7 @@
       </c>
     </row>
     <row r="982">
-      <c r="A982" s="2" t="n">
+      <c r="A982" s="3" t="n">
         <v>45101</v>
       </c>
       <c r="B982" t="n">
@@ -28080,7 +28110,7 @@
       </c>
     </row>
     <row r="983">
-      <c r="A983" s="2" t="n">
+      <c r="A983" s="3" t="n">
         <v>45102</v>
       </c>
       <c r="B983" t="n">
@@ -28108,7 +28138,7 @@
       </c>
     </row>
     <row r="984">
-      <c r="A984" s="2" t="n">
+      <c r="A984" s="3" t="n">
         <v>45103</v>
       </c>
       <c r="B984" t="n">
@@ -28136,7 +28166,7 @@
       </c>
     </row>
     <row r="985">
-      <c r="A985" s="2" t="n">
+      <c r="A985" s="3" t="n">
         <v>45104</v>
       </c>
       <c r="B985" t="n">
@@ -28164,7 +28194,7 @@
       </c>
     </row>
     <row r="986">
-      <c r="A986" s="2" t="n">
+      <c r="A986" s="3" t="n">
         <v>45105</v>
       </c>
       <c r="B986" t="n">
@@ -28192,7 +28222,7 @@
       </c>
     </row>
     <row r="987">
-      <c r="A987" s="2" t="n">
+      <c r="A987" s="3" t="n">
         <v>45106</v>
       </c>
       <c r="B987" t="n">
@@ -28220,7 +28250,7 @@
       </c>
     </row>
     <row r="988">
-      <c r="A988" s="2" t="n">
+      <c r="A988" s="3" t="n">
         <v>45107</v>
       </c>
       <c r="B988" t="n">
@@ -28248,7 +28278,7 @@
       </c>
     </row>
     <row r="989">
-      <c r="A989" s="2" t="n">
+      <c r="A989" s="3" t="n">
         <v>45108</v>
       </c>
       <c r="B989" t="n">
@@ -28276,7 +28306,7 @@
       </c>
     </row>
     <row r="990">
-      <c r="A990" s="2" t="n">
+      <c r="A990" s="3" t="n">
         <v>45109</v>
       </c>
       <c r="B990" t="n">
@@ -28304,7 +28334,7 @@
       </c>
     </row>
     <row r="991">
-      <c r="A991" s="2" t="n">
+      <c r="A991" s="3" t="n">
         <v>45110</v>
       </c>
       <c r="B991" t="n">
@@ -28332,7 +28362,7 @@
       </c>
     </row>
     <row r="992">
-      <c r="A992" s="2" t="n">
+      <c r="A992" s="3" t="n">
         <v>45111</v>
       </c>
       <c r="B992" t="n">
@@ -28360,7 +28390,7 @@
       </c>
     </row>
     <row r="993">
-      <c r="A993" s="2" t="n">
+      <c r="A993" s="3" t="n">
         <v>45112</v>
       </c>
       <c r="B993" t="n">
@@ -28388,7 +28418,7 @@
       </c>
     </row>
     <row r="994">
-      <c r="A994" s="2" t="n">
+      <c r="A994" s="3" t="n">
         <v>45113</v>
       </c>
       <c r="B994" t="n">
@@ -28416,7 +28446,7 @@
       </c>
     </row>
     <row r="995">
-      <c r="A995" s="2" t="n">
+      <c r="A995" s="3" t="n">
         <v>45114</v>
       </c>
       <c r="B995" t="n">
@@ -28444,7 +28474,7 @@
       </c>
     </row>
     <row r="996">
-      <c r="A996" s="2" t="n">
+      <c r="A996" s="3" t="n">
         <v>45115</v>
       </c>
       <c r="B996" t="n">
@@ -28472,7 +28502,7 @@
       </c>
     </row>
     <row r="997">
-      <c r="A997" s="2" t="n">
+      <c r="A997" s="3" t="n">
         <v>45116</v>
       </c>
       <c r="B997" t="n">
@@ -28500,7 +28530,7 @@
       </c>
     </row>
     <row r="998">
-      <c r="A998" s="2" t="n">
+      <c r="A998" s="3" t="n">
         <v>45117</v>
       </c>
       <c r="B998" t="n">
@@ -28528,7 +28558,7 @@
       </c>
     </row>
     <row r="999">
-      <c r="A999" s="2" t="n">
+      <c r="A999" s="3" t="n">
         <v>45118</v>
       </c>
       <c r="B999" t="n">
@@ -28556,7 +28586,7 @@
       </c>
     </row>
     <row r="1000">
-      <c r="A1000" s="2" t="n">
+      <c r="A1000" s="3" t="n">
         <v>45119</v>
       </c>
       <c r="B1000" t="n">
@@ -28584,7 +28614,7 @@
       </c>
     </row>
     <row r="1001">
-      <c r="A1001" s="2" t="n">
+      <c r="A1001" s="3" t="n">
         <v>45120</v>
       </c>
       <c r="B1001" t="n">
@@ -28612,7 +28642,7 @@
       </c>
     </row>
     <row r="1002">
-      <c r="A1002" s="2" t="n">
+      <c r="A1002" s="3" t="n">
         <v>45121</v>
       </c>
       <c r="B1002" t="n">
@@ -28640,7 +28670,7 @@
       </c>
     </row>
     <row r="1003">
-      <c r="A1003" s="2" t="n">
+      <c r="A1003" s="3" t="n">
         <v>45122</v>
       </c>
       <c r="B1003" t="n">
@@ -28668,7 +28698,7 @@
       </c>
     </row>
     <row r="1004">
-      <c r="A1004" s="2" t="n">
+      <c r="A1004" s="3" t="n">
         <v>45123</v>
       </c>
       <c r="B1004" t="n">
@@ -28696,7 +28726,7 @@
       </c>
     </row>
     <row r="1005">
-      <c r="A1005" s="2" t="n">
+      <c r="A1005" s="3" t="n">
         <v>45124</v>
       </c>
       <c r="B1005" t="n">
@@ -28724,7 +28754,7 @@
       </c>
     </row>
     <row r="1006">
-      <c r="A1006" s="2" t="n">
+      <c r="A1006" s="3" t="n">
         <v>45125</v>
       </c>
       <c r="B1006" t="n">
@@ -28752,7 +28782,7 @@
       </c>
     </row>
     <row r="1007">
-      <c r="A1007" s="2" t="n">
+      <c r="A1007" s="3" t="n">
         <v>45126</v>
       </c>
       <c r="B1007" t="n">
@@ -28780,7 +28810,7 @@
       </c>
     </row>
     <row r="1008">
-      <c r="A1008" s="2" t="n">
+      <c r="A1008" s="3" t="n">
         <v>45127</v>
       </c>
       <c r="B1008" t="n">
@@ -28808,7 +28838,7 @@
       </c>
     </row>
     <row r="1009">
-      <c r="A1009" s="2" t="n">
+      <c r="A1009" s="3" t="n">
         <v>45128</v>
       </c>
       <c r="B1009" t="n">
@@ -28836,7 +28866,7 @@
       </c>
     </row>
     <row r="1010">
-      <c r="A1010" s="2" t="n">
+      <c r="A1010" s="3" t="n">
         <v>45129</v>
       </c>
       <c r="B1010" t="n">
@@ -28864,7 +28894,7 @@
       </c>
     </row>
     <row r="1011">
-      <c r="A1011" s="2" t="n">
+      <c r="A1011" s="3" t="n">
         <v>45130</v>
       </c>
       <c r="B1011" t="n">
@@ -28892,7 +28922,7 @@
       </c>
     </row>
     <row r="1012">
-      <c r="A1012" s="2" t="n">
+      <c r="A1012" s="3" t="n">
         <v>45131</v>
       </c>
       <c r="B1012" t="n">
@@ -28920,7 +28950,7 @@
       </c>
     </row>
     <row r="1013">
-      <c r="A1013" s="2" t="n">
+      <c r="A1013" s="3" t="n">
         <v>45132</v>
       </c>
       <c r="B1013" t="n">
@@ -28948,7 +28978,7 @@
       </c>
     </row>
     <row r="1014">
-      <c r="A1014" s="2" t="n">
+      <c r="A1014" s="3" t="n">
         <v>45133</v>
       </c>
       <c r="B1014" t="n">
@@ -28976,7 +29006,7 @@
       </c>
     </row>
     <row r="1015">
-      <c r="A1015" s="2" t="n">
+      <c r="A1015" s="3" t="n">
         <v>45134</v>
       </c>
       <c r="B1015" t="n">
@@ -29004,7 +29034,7 @@
       </c>
     </row>
     <row r="1016">
-      <c r="A1016" s="2" t="n">
+      <c r="A1016" s="3" t="n">
         <v>45135</v>
       </c>
       <c r="B1016" t="n">
@@ -29032,7 +29062,7 @@
       </c>
     </row>
     <row r="1017">
-      <c r="A1017" s="2" t="n">
+      <c r="A1017" s="3" t="n">
         <v>45136</v>
       </c>
       <c r="B1017" t="n">
@@ -29060,7 +29090,7 @@
       </c>
     </row>
     <row r="1018">
-      <c r="A1018" s="2" t="n">
+      <c r="A1018" s="3" t="n">
         <v>45137</v>
       </c>
       <c r="B1018" t="n">
@@ -29088,7 +29118,7 @@
       </c>
     </row>
     <row r="1019">
-      <c r="A1019" s="2" t="n">
+      <c r="A1019" s="3" t="n">
         <v>45138</v>
       </c>
       <c r="B1019" t="n">
@@ -29116,7 +29146,7 @@
       </c>
     </row>
     <row r="1020">
-      <c r="A1020" s="2" t="n">
+      <c r="A1020" s="3" t="n">
         <v>45139</v>
       </c>
       <c r="B1020" t="n">
@@ -29144,7 +29174,7 @@
       </c>
     </row>
     <row r="1021">
-      <c r="A1021" s="2" t="n">
+      <c r="A1021" s="3" t="n">
         <v>45140</v>
       </c>
       <c r="B1021" t="n">
@@ -29172,7 +29202,7 @@
       </c>
     </row>
     <row r="1022">
-      <c r="A1022" s="2" t="n">
+      <c r="A1022" s="3" t="n">
         <v>45141</v>
       </c>
       <c r="B1022" t="n">
@@ -29200,7 +29230,7 @@
       </c>
     </row>
     <row r="1023">
-      <c r="A1023" s="2" t="n">
+      <c r="A1023" s="3" t="n">
         <v>45142</v>
       </c>
       <c r="B1023" t="n">
@@ -29228,7 +29258,7 @@
       </c>
     </row>
     <row r="1024">
-      <c r="A1024" s="2" t="n">
+      <c r="A1024" s="3" t="n">
         <v>45143</v>
       </c>
       <c r="B1024" t="n">
@@ -29256,7 +29286,7 @@
       </c>
     </row>
     <row r="1025">
-      <c r="A1025" s="2" t="n">
+      <c r="A1025" s="3" t="n">
         <v>45144</v>
       </c>
       <c r="B1025" t="n">
@@ -29284,7 +29314,7 @@
       </c>
     </row>
     <row r="1026">
-      <c r="A1026" s="2" t="n">
+      <c r="A1026" s="3" t="n">
         <v>45145</v>
       </c>
       <c r="B1026" t="n">
@@ -29312,7 +29342,7 @@
       </c>
     </row>
     <row r="1027">
-      <c r="A1027" s="2" t="n">
+      <c r="A1027" s="3" t="n">
         <v>45146</v>
       </c>
       <c r="B1027" t="n">
@@ -29340,7 +29370,7 @@
       </c>
     </row>
     <row r="1028">
-      <c r="A1028" s="2" t="n">
+      <c r="A1028" s="3" t="n">
         <v>45147</v>
       </c>
       <c r="B1028" t="n">
@@ -29368,7 +29398,7 @@
       </c>
     </row>
     <row r="1029">
-      <c r="A1029" s="2" t="n">
+      <c r="A1029" s="3" t="n">
         <v>45148</v>
       </c>
       <c r="B1029" t="n">
@@ -29396,7 +29426,7 @@
       </c>
     </row>
     <row r="1030">
-      <c r="A1030" s="2" t="n">
+      <c r="A1030" s="3" t="n">
         <v>45149</v>
       </c>
       <c r="B1030" t="n">
@@ -29424,7 +29454,7 @@
       </c>
     </row>
     <row r="1031">
-      <c r="A1031" s="2" t="n">
+      <c r="A1031" s="3" t="n">
         <v>45150</v>
       </c>
       <c r="B1031" t="n">
@@ -29452,7 +29482,7 @@
       </c>
     </row>
     <row r="1032">
-      <c r="A1032" s="2" t="n">
+      <c r="A1032" s="3" t="n">
         <v>45151</v>
       </c>
       <c r="B1032" t="n">
@@ -29480,7 +29510,7 @@
       </c>
     </row>
     <row r="1033">
-      <c r="A1033" s="2" t="n">
+      <c r="A1033" s="3" t="n">
         <v>45152</v>
       </c>
       <c r="B1033" t="n">
@@ -29508,7 +29538,7 @@
       </c>
     </row>
     <row r="1034">
-      <c r="A1034" s="2" t="n">
+      <c r="A1034" s="3" t="n">
         <v>45153</v>
       </c>
       <c r="B1034" t="n">
@@ -29536,7 +29566,7 @@
       </c>
     </row>
     <row r="1035">
-      <c r="A1035" s="2" t="n">
+      <c r="A1035" s="3" t="n">
         <v>45154</v>
       </c>
       <c r="B1035" t="n">
@@ -29564,7 +29594,7 @@
       </c>
     </row>
     <row r="1036">
-      <c r="A1036" s="2" t="n">
+      <c r="A1036" s="3" t="n">
         <v>45155</v>
       </c>
       <c r="B1036" t="n">
@@ -29592,7 +29622,7 @@
       </c>
     </row>
     <row r="1037">
-      <c r="A1037" s="2" t="n">
+      <c r="A1037" s="3" t="n">
         <v>45156</v>
       </c>
       <c r="B1037" t="n">
@@ -29620,7 +29650,7 @@
       </c>
     </row>
     <row r="1038">
-      <c r="A1038" s="2" t="n">
+      <c r="A1038" s="3" t="n">
         <v>45157</v>
       </c>
       <c r="B1038" t="n">
@@ -29648,7 +29678,7 @@
       </c>
     </row>
     <row r="1039">
-      <c r="A1039" s="2" t="n">
+      <c r="A1039" s="3" t="n">
         <v>45158</v>
       </c>
       <c r="B1039" t="n">
@@ -29676,7 +29706,7 @@
       </c>
     </row>
     <row r="1040">
-      <c r="A1040" s="2" t="n">
+      <c r="A1040" s="3" t="n">
         <v>45159</v>
       </c>
       <c r="B1040" t="n">
@@ -29704,7 +29734,7 @@
       </c>
     </row>
     <row r="1041">
-      <c r="A1041" s="2" t="n">
+      <c r="A1041" s="3" t="n">
         <v>45160</v>
       </c>
       <c r="B1041" t="n">
@@ -29732,7 +29762,7 @@
       </c>
     </row>
     <row r="1042">
-      <c r="A1042" s="2" t="n">
+      <c r="A1042" s="3" t="n">
         <v>45161</v>
       </c>
       <c r="B1042" t="n">
@@ -29760,7 +29790,7 @@
       </c>
     </row>
     <row r="1043">
-      <c r="A1043" s="2" t="n">
+      <c r="A1043" s="3" t="n">
         <v>45162</v>
       </c>
       <c r="B1043" t="n">
@@ -29788,7 +29818,7 @@
       </c>
     </row>
     <row r="1044">
-      <c r="A1044" s="2" t="n">
+      <c r="A1044" s="3" t="n">
         <v>45163</v>
       </c>
       <c r="B1044" t="n">
@@ -29816,7 +29846,7 @@
       </c>
     </row>
     <row r="1045">
-      <c r="A1045" s="2" t="n">
+      <c r="A1045" s="3" t="n">
         <v>45164</v>
       </c>
       <c r="B1045" t="n">
@@ -29844,7 +29874,7 @@
       </c>
     </row>
     <row r="1046">
-      <c r="A1046" s="2" t="n">
+      <c r="A1046" s="3" t="n">
         <v>45165</v>
       </c>
       <c r="B1046" t="n">
@@ -29872,7 +29902,7 @@
       </c>
     </row>
     <row r="1047">
-      <c r="A1047" s="2" t="n">
+      <c r="A1047" s="3" t="n">
         <v>45166</v>
       </c>
       <c r="B1047" t="n">
@@ -29900,7 +29930,7 @@
       </c>
     </row>
     <row r="1048">
-      <c r="A1048" s="2" t="n">
+      <c r="A1048" s="3" t="n">
         <v>45167</v>
       </c>
       <c r="B1048" t="n">
@@ -29928,7 +29958,7 @@
       </c>
     </row>
     <row r="1049">
-      <c r="A1049" s="2" t="n">
+      <c r="A1049" s="3" t="n">
         <v>45168</v>
       </c>
       <c r="B1049" t="n">
@@ -29956,7 +29986,7 @@
       </c>
     </row>
     <row r="1050">
-      <c r="A1050" s="2" t="n">
+      <c r="A1050" s="3" t="n">
         <v>45169</v>
       </c>
       <c r="B1050" t="n">
@@ -29984,7 +30014,7 @@
       </c>
     </row>
     <row r="1051">
-      <c r="A1051" s="2" t="n">
+      <c r="A1051" s="3" t="n">
         <v>45170</v>
       </c>
       <c r="B1051" t="n">
@@ -30012,7 +30042,7 @@
       </c>
     </row>
     <row r="1052">
-      <c r="A1052" s="2" t="n">
+      <c r="A1052" s="3" t="n">
         <v>45171</v>
       </c>
       <c r="B1052" t="n">
@@ -30040,7 +30070,7 @@
       </c>
     </row>
     <row r="1053">
-      <c r="A1053" s="2" t="n">
+      <c r="A1053" s="3" t="n">
         <v>45172</v>
       </c>
       <c r="B1053" t="n">
@@ -30068,7 +30098,7 @@
       </c>
     </row>
     <row r="1054">
-      <c r="A1054" s="2" t="n">
+      <c r="A1054" s="3" t="n">
         <v>45173</v>
       </c>
       <c r="B1054" t="n">
@@ -30096,7 +30126,7 @@
       </c>
     </row>
     <row r="1055">
-      <c r="A1055" s="2" t="n">
+      <c r="A1055" s="3" t="n">
         <v>45174</v>
       </c>
       <c r="B1055" t="n">
@@ -30124,7 +30154,7 @@
       </c>
     </row>
     <row r="1056">
-      <c r="A1056" s="2" t="n">
+      <c r="A1056" s="3" t="n">
         <v>45175</v>
       </c>
       <c r="B1056" t="n">
@@ -30152,7 +30182,7 @@
       </c>
     </row>
     <row r="1057">
-      <c r="A1057" s="2" t="n">
+      <c r="A1057" s="3" t="n">
         <v>45176</v>
       </c>
       <c r="B1057" t="n">
@@ -30180,7 +30210,7 @@
       </c>
     </row>
     <row r="1058">
-      <c r="A1058" s="2" t="n">
+      <c r="A1058" s="3" t="n">
         <v>45177</v>
       </c>
       <c r="B1058" t="n">
@@ -30208,7 +30238,7 @@
       </c>
     </row>
     <row r="1059">
-      <c r="A1059" s="2" t="n">
+      <c r="A1059" s="3" t="n">
         <v>45178</v>
       </c>
       <c r="B1059" t="n">
@@ -30236,7 +30266,7 @@
       </c>
     </row>
     <row r="1060">
-      <c r="A1060" s="2" t="n">
+      <c r="A1060" s="3" t="n">
         <v>45179</v>
       </c>
       <c r="B1060" t="n">
@@ -30264,7 +30294,7 @@
       </c>
     </row>
     <row r="1061">
-      <c r="A1061" s="2" t="n">
+      <c r="A1061" s="3" t="n">
         <v>45180</v>
       </c>
       <c r="B1061" t="n">
@@ -30292,7 +30322,7 @@
       </c>
     </row>
     <row r="1062">
-      <c r="A1062" s="2" t="n">
+      <c r="A1062" s="3" t="n">
         <v>45181</v>
       </c>
       <c r="B1062" t="n">
@@ -30320,7 +30350,7 @@
       </c>
     </row>
     <row r="1063">
-      <c r="A1063" s="2" t="n">
+      <c r="A1063" s="3" t="n">
         <v>45182</v>
       </c>
       <c r="B1063" t="n">
@@ -30348,7 +30378,7 @@
       </c>
     </row>
     <row r="1064">
-      <c r="A1064" s="2" t="n">
+      <c r="A1064" s="3" t="n">
         <v>45183</v>
       </c>
       <c r="B1064" t="n">
@@ -30376,7 +30406,7 @@
       </c>
     </row>
     <row r="1065">
-      <c r="A1065" s="2" t="n">
+      <c r="A1065" s="3" t="n">
         <v>45184</v>
       </c>
       <c r="B1065" t="n">
@@ -30404,7 +30434,7 @@
       </c>
     </row>
     <row r="1066">
-      <c r="A1066" s="2" t="n">
+      <c r="A1066" s="3" t="n">
         <v>45185</v>
       </c>
       <c r="B1066" t="n">
@@ -30432,7 +30462,7 @@
       </c>
     </row>
     <row r="1067">
-      <c r="A1067" s="2" t="n">
+      <c r="A1067" s="3" t="n">
         <v>45186</v>
       </c>
       <c r="B1067" t="n">
@@ -30460,7 +30490,7 @@
       </c>
     </row>
     <row r="1068">
-      <c r="A1068" s="2" t="n">
+      <c r="A1068" s="3" t="n">
         <v>45187</v>
       </c>
       <c r="B1068" t="n">
@@ -30488,7 +30518,7 @@
       </c>
     </row>
     <row r="1069">
-      <c r="A1069" s="2" t="n">
+      <c r="A1069" s="3" t="n">
         <v>45188</v>
       </c>
       <c r="B1069" t="n">
@@ -30516,7 +30546,7 @@
       </c>
     </row>
     <row r="1070">
-      <c r="A1070" s="2" t="n">
+      <c r="A1070" s="3" t="n">
         <v>45189</v>
       </c>
       <c r="B1070" t="n">
@@ -30544,7 +30574,7 @@
       </c>
     </row>
     <row r="1071">
-      <c r="A1071" s="2" t="n">
+      <c r="A1071" s="3" t="n">
         <v>45190</v>
       </c>
       <c r="B1071" t="n">
@@ -30572,7 +30602,7 @@
       </c>
     </row>
     <row r="1072">
-      <c r="A1072" s="2" t="n">
+      <c r="A1072" s="3" t="n">
         <v>45191</v>
       </c>
       <c r="B1072" t="n">
@@ -30600,7 +30630,7 @@
       </c>
     </row>
     <row r="1073">
-      <c r="A1073" s="2" t="n">
+      <c r="A1073" s="3" t="n">
         <v>45192</v>
       </c>
       <c r="B1073" t="n">
@@ -30628,7 +30658,7 @@
       </c>
     </row>
     <row r="1074">
-      <c r="A1074" s="2" t="n">
+      <c r="A1074" s="3" t="n">
         <v>45193</v>
       </c>
       <c r="B1074" t="n">
@@ -30656,7 +30686,7 @@
       </c>
     </row>
     <row r="1075">
-      <c r="A1075" s="2" t="n">
+      <c r="A1075" s="3" t="n">
         <v>45194</v>
       </c>
       <c r="B1075" t="n">
@@ -30684,7 +30714,7 @@
       </c>
     </row>
     <row r="1076">
-      <c r="A1076" s="2" t="n">
+      <c r="A1076" s="3" t="n">
         <v>45195</v>
       </c>
       <c r="B1076" t="n">
@@ -30712,7 +30742,7 @@
       </c>
     </row>
     <row r="1077">
-      <c r="A1077" s="2" t="n">
+      <c r="A1077" s="3" t="n">
         <v>45196</v>
       </c>
       <c r="B1077" t="n">
@@ -30740,7 +30770,7 @@
       </c>
     </row>
     <row r="1078">
-      <c r="A1078" s="2" t="n">
+      <c r="A1078" s="3" t="n">
         <v>45197</v>
       </c>
       <c r="B1078" t="n">
@@ -30768,7 +30798,7 @@
       </c>
     </row>
     <row r="1079">
-      <c r="A1079" s="2" t="n">
+      <c r="A1079" s="3" t="n">
         <v>45198</v>
       </c>
       <c r="B1079" t="n">
@@ -30796,7 +30826,7 @@
       </c>
     </row>
     <row r="1080">
-      <c r="A1080" s="2" t="n">
+      <c r="A1080" s="3" t="n">
         <v>45199</v>
       </c>
       <c r="B1080" t="n">
@@ -30824,7 +30854,7 @@
       </c>
     </row>
     <row r="1081">
-      <c r="A1081" s="2" t="n">
+      <c r="A1081" s="3" t="n">
         <v>45200</v>
       </c>
       <c r="B1081" t="n">
@@ -30852,7 +30882,7 @@
       </c>
     </row>
     <row r="1082">
-      <c r="A1082" s="2" t="n">
+      <c r="A1082" s="3" t="n">
         <v>45201</v>
       </c>
       <c r="B1082" t="n">
@@ -30880,7 +30910,7 @@
       </c>
     </row>
     <row r="1083">
-      <c r="A1083" s="2" t="n">
+      <c r="A1083" s="3" t="n">
         <v>45202</v>
       </c>
       <c r="B1083" t="n">
@@ -30908,7 +30938,7 @@
       </c>
     </row>
     <row r="1084">
-      <c r="A1084" s="2" t="n">
+      <c r="A1084" s="3" t="n">
         <v>45203</v>
       </c>
       <c r="B1084" t="n">
@@ -30936,7 +30966,7 @@
       </c>
     </row>
     <row r="1085">
-      <c r="A1085" s="2" t="n">
+      <c r="A1085" s="3" t="n">
         <v>45204</v>
       </c>
       <c r="B1085" t="n">
@@ -30964,7 +30994,7 @@
       </c>
     </row>
     <row r="1086">
-      <c r="A1086" s="2" t="n">
+      <c r="A1086" s="3" t="n">
         <v>45205</v>
       </c>
       <c r="B1086" t="n">
@@ -30992,7 +31022,7 @@
       </c>
     </row>
     <row r="1087">
-      <c r="A1087" s="2" t="n">
+      <c r="A1087" s="3" t="n">
         <v>45206</v>
       </c>
       <c r="B1087" t="n">
@@ -31020,7 +31050,7 @@
       </c>
     </row>
     <row r="1088">
-      <c r="A1088" s="2" t="n">
+      <c r="A1088" s="3" t="n">
         <v>45207</v>
       </c>
       <c r="B1088" t="n">
@@ -31048,7 +31078,7 @@
       </c>
     </row>
     <row r="1089">
-      <c r="A1089" s="2" t="n">
+      <c r="A1089" s="3" t="n">
         <v>45208</v>
       </c>
       <c r="B1089" t="n">
@@ -31076,7 +31106,7 @@
       </c>
     </row>
     <row r="1090">
-      <c r="A1090" s="2" t="n">
+      <c r="A1090" s="3" t="n">
         <v>45209</v>
       </c>
       <c r="B1090" t="n">
@@ -31104,7 +31134,7 @@
       </c>
     </row>
     <row r="1091">
-      <c r="A1091" s="2" t="n">
+      <c r="A1091" s="3" t="n">
         <v>45210</v>
       </c>
       <c r="B1091" t="n">
@@ -31132,7 +31162,7 @@
       </c>
     </row>
     <row r="1092">
-      <c r="A1092" s="2" t="n">
+      <c r="A1092" s="3" t="n">
         <v>45211</v>
       </c>
       <c r="B1092" t="n">
@@ -31160,7 +31190,7 @@
       </c>
     </row>
     <row r="1093">
-      <c r="A1093" s="2" t="n">
+      <c r="A1093" s="3" t="n">
         <v>45212</v>
       </c>
       <c r="B1093" t="n">
@@ -31188,7 +31218,7 @@
       </c>
     </row>
     <row r="1094">
-      <c r="A1094" s="2" t="n">
+      <c r="A1094" s="3" t="n">
         <v>45213</v>
       </c>
       <c r="B1094" t="n">
@@ -31216,7 +31246,7 @@
       </c>
     </row>
     <row r="1095">
-      <c r="A1095" s="2" t="n">
+      <c r="A1095" s="3" t="n">
         <v>45214</v>
       </c>
       <c r="B1095" t="n">
@@ -31244,7 +31274,7 @@
       </c>
     </row>
     <row r="1096">
-      <c r="A1096" s="2" t="n">
+      <c r="A1096" s="3" t="n">
         <v>45215</v>
       </c>
       <c r="B1096" t="n">
@@ -31272,7 +31302,7 @@
       </c>
     </row>
     <row r="1097">
-      <c r="A1097" s="2" t="n">
+      <c r="A1097" s="3" t="n">
         <v>45216</v>
       </c>
       <c r="B1097" t="n">
@@ -31300,7 +31330,7 @@
       </c>
     </row>
     <row r="1098">
-      <c r="A1098" s="2" t="n">
+      <c r="A1098" s="3" t="n">
         <v>45217</v>
       </c>
       <c r="B1098" t="n">
@@ -31328,7 +31358,7 @@
       </c>
     </row>
     <row r="1099">
-      <c r="A1099" s="2" t="n">
+      <c r="A1099" s="3" t="n">
         <v>45218</v>
       </c>
       <c r="B1099" t="n">
@@ -31357,5 +31387,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>